--- a/MASTER Collection Schedule.xlsx
+++ b/MASTER Collection Schedule.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10104"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brandontravis/Development/pmm-config/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brandon.travis/Development/GitHub/pmm-config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27B9A4C-09C5-E64C-9E90-A734E5E33687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9B3C2C-9D95-B748-A4B2-EB21C93BBB9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="3" xr2:uid="{34EAF699-62FB-4548-AC27-08363F05758A}"/>
-    <workbookView xWindow="0" yWindow="6580" windowWidth="36000" windowHeight="21100" activeTab="4" xr2:uid="{07907119-7331-8742-84E6-E11F3289DB29}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="21380" activeTab="2" xr2:uid="{34EAF699-62FB-4548-AC27-08363F05758A}"/>
   </bookViews>
   <sheets>
     <sheet name="Movies" sheetId="1" r:id="rId1"/>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="347">
   <si>
     <t>Tis the Season</t>
   </si>
@@ -1440,7 +1439,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1484,6 +1483,19 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1511,19 +1523,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1843,9 +1849,6 @@
     <sheetView topLeftCell="A134" workbookViewId="0">
       <selection activeCell="A169" sqref="A169:A187"/>
     </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="Q41" sqref="Q41"/>
-    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1856,10 +1859,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="31"/>
+      <c r="D1" s="38"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -4188,9 +4191,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A45"/>
     </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="A42" sqref="A42"/>
-    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4761,11 +4761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{961870A6-6628-8840-AC00-0AEFD098BBAD}">
   <dimension ref="B1:Z797"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I54" sqref="I54"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="Y28" sqref="Y28"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" workbookViewId="0">
+      <selection activeCell="V24" activeCellId="2" sqref="D24 M24 V24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -4847,45 +4844,45 @@
       <c r="V2" s="8"/>
     </row>
     <row r="3" spans="2:26" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="44" t="s">
         <v>189</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="37" t="s">
+      <c r="C3" s="45"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="44" t="s">
         <v>190</v>
       </c>
-      <c r="F3" s="38"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="37" t="s">
+      <c r="F3" s="45"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="44" t="s">
         <v>191</v>
       </c>
-      <c r="I3" s="38"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="37" t="s">
+      <c r="I3" s="45"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="44" t="s">
         <v>192</v>
       </c>
-      <c r="L3" s="38"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="37" t="s">
+      <c r="L3" s="45"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="44" t="s">
         <v>193</v>
       </c>
-      <c r="O3" s="38"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="37" t="s">
+      <c r="O3" s="45"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="44" t="s">
         <v>194</v>
       </c>
-      <c r="R3" s="38"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="37" t="s">
+      <c r="R3" s="45"/>
+      <c r="S3" s="46"/>
+      <c r="T3" s="44" t="s">
         <v>196</v>
       </c>
-      <c r="U3" s="38"/>
-      <c r="V3" s="39"/>
-      <c r="Y3" s="32" t="s">
+      <c r="U3" s="45"/>
+      <c r="V3" s="46"/>
+      <c r="Y3" s="39" t="s">
         <v>208</v>
       </c>
-      <c r="Z3" s="33"/>
+      <c r="Z3" s="40"/>
     </row>
     <row r="4" spans="2:26" s="9" customFormat="1" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
@@ -5200,358 +5197,358 @@
         <v>220</v>
       </c>
     </row>
-    <row r="9" spans="2:26" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="12" t="s">
+    <row r="9" spans="2:26" s="49" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="J9" s="13" t="s">
+      <c r="J9" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="K9" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="L9" s="12" t="s">
+      <c r="L9" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="M9" s="13" t="s">
+      <c r="M9" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="N9" s="12" t="s">
+      <c r="N9" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="O9" s="12" t="s">
+      <c r="O9" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="P9" s="13" t="s">
+      <c r="P9" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="Q9" s="12" t="s">
+      <c r="Q9" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="R9" s="12" t="s">
+      <c r="R9" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="S9" s="13" t="s">
+      <c r="S9" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="T9" s="12" t="s">
+      <c r="T9" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="U9" s="12" t="s">
+      <c r="U9" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="V9" s="13" t="s">
+      <c r="V9" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="Y9" s="14" t="s">
+      <c r="Y9" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="Z9" s="12" t="s">
+      <c r="Z9" s="47" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="10" spans="2:26" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="12" t="s">
+    <row r="10" spans="2:26" s="49" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="47" t="s">
         <v>224</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="47" t="s">
         <v>224</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="47" t="s">
         <v>224</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="I10" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="J10" s="13" t="s">
+      <c r="J10" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="K10" s="47" t="s">
         <v>224</v>
       </c>
-      <c r="L10" s="12" t="s">
+      <c r="L10" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="M10" s="13" t="s">
+      <c r="M10" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="N10" s="12" t="s">
+      <c r="N10" s="47" t="s">
         <v>224</v>
       </c>
-      <c r="O10" s="12" t="s">
+      <c r="O10" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="P10" s="13" t="s">
+      <c r="P10" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="Q10" s="12" t="s">
+      <c r="Q10" s="47" t="s">
         <v>224</v>
       </c>
-      <c r="R10" s="12" t="s">
+      <c r="R10" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="S10" s="13" t="s">
+      <c r="S10" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="T10" s="12" t="s">
+      <c r="T10" s="47" t="s">
         <v>224</v>
       </c>
-      <c r="U10" s="12" t="s">
+      <c r="U10" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="V10" s="13" t="s">
+      <c r="V10" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="Y10" s="14" t="s">
+      <c r="Y10" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="Z10" s="12" t="s">
+      <c r="Z10" s="47" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="11" spans="2:26" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="12" t="s">
+    <row r="11" spans="2:26" s="49" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="12" t="s">
+      <c r="I11" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="J11" s="13" t="s">
+      <c r="J11" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="K11" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="L11" s="12" t="s">
+      <c r="L11" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="M11" s="13" t="s">
+      <c r="M11" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="N11" s="12" t="s">
+      <c r="N11" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="O11" s="12" t="s">
+      <c r="O11" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="P11" s="13" t="s">
+      <c r="P11" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="Q11" s="12" t="s">
+      <c r="Q11" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="R11" s="12" t="s">
+      <c r="R11" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="S11" s="13" t="s">
+      <c r="S11" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="T11" s="12" t="s">
+      <c r="T11" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="U11" s="12" t="s">
+      <c r="U11" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="V11" s="13" t="s">
+      <c r="V11" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="Y11" s="12" t="s">
+      <c r="Y11" s="47" t="s">
         <v>215</v>
       </c>
-      <c r="Z11" s="12" t="s">
+      <c r="Z11" s="47" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="12" spans="2:26" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="12" t="s">
+    <row r="12" spans="2:26" s="49" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="12" t="s">
+      <c r="I12" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="J12" s="13" t="s">
+      <c r="J12" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="K12" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="L12" s="12" t="s">
+      <c r="L12" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="M12" s="13" t="s">
+      <c r="M12" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="N12" s="12" t="s">
+      <c r="N12" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="O12" s="12" t="s">
+      <c r="O12" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="P12" s="13" t="s">
+      <c r="P12" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="Q12" s="12" t="s">
+      <c r="Q12" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="R12" s="12" t="s">
+      <c r="R12" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="S12" s="13" t="s">
+      <c r="S12" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="T12" s="12" t="s">
+      <c r="T12" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="U12" s="12" t="s">
+      <c r="U12" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="V12" s="13" t="s">
+      <c r="V12" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="Y12" s="14" t="s">
+      <c r="Y12" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="Z12" s="12" t="s">
+      <c r="Z12" s="47" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="2:26" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="12" t="s">
+    <row r="13" spans="2:26" s="49" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="12" t="s">
+      <c r="I13" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="J13" s="13" t="s">
+      <c r="J13" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="K13" s="12" t="s">
+      <c r="K13" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="L13" s="12" t="s">
+      <c r="L13" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="M13" s="13" t="s">
+      <c r="M13" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="N13" s="12" t="s">
+      <c r="N13" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="O13" s="12" t="s">
+      <c r="O13" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="P13" s="13" t="s">
+      <c r="P13" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="Q13" s="12" t="s">
+      <c r="Q13" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="R13" s="12" t="s">
+      <c r="R13" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="S13" s="13" t="s">
+      <c r="S13" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="T13" s="12" t="s">
+      <c r="T13" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="U13" s="12" t="s">
+      <c r="U13" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="V13" s="13" t="s">
+      <c r="V13" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="Y13" s="14" t="s">
+      <c r="Y13" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="Z13" s="12" t="s">
+      <c r="Z13" s="47" t="s">
         <v>221</v>
       </c>
     </row>
@@ -5668,41 +5665,41 @@
       <c r="V17" s="8"/>
     </row>
     <row r="18" spans="2:25" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="41" t="s">
         <v>189</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="34" t="s">
+      <c r="C18" s="42"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="41" t="s">
         <v>190</v>
       </c>
-      <c r="F18" s="35"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="34" t="s">
+      <c r="F18" s="42"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="41" t="s">
         <v>191</v>
       </c>
-      <c r="I18" s="35"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="34" t="s">
+      <c r="I18" s="42"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="L18" s="35"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="34" t="s">
+      <c r="L18" s="42"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="41" t="s">
         <v>193</v>
       </c>
-      <c r="O18" s="35"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="34" t="s">
+      <c r="O18" s="42"/>
+      <c r="P18" s="43"/>
+      <c r="Q18" s="41" t="s">
         <v>194</v>
       </c>
-      <c r="R18" s="35"/>
-      <c r="S18" s="36"/>
-      <c r="T18" s="34" t="s">
+      <c r="R18" s="42"/>
+      <c r="S18" s="43"/>
+      <c r="T18" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="U18" s="35"/>
-      <c r="V18" s="36"/>
+      <c r="U18" s="42"/>
+      <c r="V18" s="43"/>
     </row>
     <row r="19" spans="2:25" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
@@ -5769,246 +5766,267 @@
         <v>195</v>
       </c>
     </row>
-    <row r="20" spans="2:25" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="12" t="s">
+    <row r="20" spans="2:25" s="49" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="G20" s="13" t="s">
+      <c r="G20" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="H20" s="12" t="s">
+      <c r="H20" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="I20" s="12" t="s">
+      <c r="I20" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="J20" s="13" t="s">
+      <c r="J20" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="K20" s="12" t="s">
+      <c r="K20" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="L20" s="12" t="s">
+      <c r="L20" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="M20" s="13" t="s">
+      <c r="M20" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="N20" s="12" t="s">
+      <c r="N20" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="O20" s="12" t="s">
+      <c r="O20" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="P20" s="13" t="s">
+      <c r="P20" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="Q20" s="12" t="s">
+      <c r="Q20" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="R20" s="12" t="s">
+      <c r="R20" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="S20" s="13" t="s">
+      <c r="S20" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="T20" s="12" t="s">
+      <c r="T20" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="U20" s="12" t="s">
+      <c r="U20" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="V20" s="13" t="s">
+      <c r="V20" s="48" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="21" spans="2:25" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="12" t="s">
+    <row r="21" spans="2:25" s="49" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="G21" s="13" t="s">
+      <c r="G21" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="H21" s="12" t="s">
+      <c r="H21" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="I21" s="12" t="s">
+      <c r="I21" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="J21" s="13" t="s">
+      <c r="J21" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="K21" s="12" t="s">
+      <c r="K21" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="L21" s="12" t="s">
+      <c r="L21" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="M21" s="13" t="s">
+      <c r="M21" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="N21" s="12" t="s">
+      <c r="N21" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="O21" s="12" t="s">
+      <c r="O21" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="P21" s="13" t="s">
+      <c r="P21" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="Q21" s="12" t="s">
+      <c r="Q21" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="R21" s="12" t="s">
+      <c r="R21" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="S21" s="13" t="s">
+      <c r="S21" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="T21" s="12" t="s">
+      <c r="T21" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="U21" s="12" t="s">
+      <c r="U21" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="V21" s="13" t="s">
+      <c r="V21" s="48" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="22" spans="2:25" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="12" t="s">
+    <row r="22" spans="2:25" s="49" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="47" t="s">
         <v>199</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="47" t="s">
         <v>199</v>
       </c>
-      <c r="G22" s="13" t="s">
+      <c r="G22" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="H22" s="12" t="s">
+      <c r="H22" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="I22" s="12" t="s">
+      <c r="I22" s="47" t="s">
         <v>199</v>
       </c>
-      <c r="J22" s="13" t="s">
+      <c r="J22" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="K22" s="12" t="s">
+      <c r="K22" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="L22" s="12" t="s">
+      <c r="L22" s="47" t="s">
         <v>199</v>
       </c>
-      <c r="M22" s="13" t="s">
+      <c r="M22" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="N22" s="12" t="s">
+      <c r="N22" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="O22" s="12" t="s">
+      <c r="O22" s="47" t="s">
         <v>199</v>
       </c>
-      <c r="P22" s="13" t="s">
+      <c r="P22" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="Q22" s="12" t="s">
+      <c r="Q22" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="R22" s="12" t="s">
+      <c r="R22" s="47" t="s">
         <v>199</v>
       </c>
-      <c r="S22" s="13" t="s">
+      <c r="S22" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="T22" s="12" t="s">
+      <c r="T22" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="U22" s="12" t="s">
+      <c r="U22" s="47" t="s">
         <v>199</v>
       </c>
-      <c r="V22" s="13" t="s">
+      <c r="V22" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="Y22" s="25" t="s">
+      <c r="Y22" s="26" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="23" spans="2:25" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="D23" s="48" t="s">
+        <v>210</v>
+      </c>
+      <c r="E23" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="H23" s="12" t="s">
+      <c r="G23" s="48" t="s">
+        <v>210</v>
+      </c>
+      <c r="H23" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="I23" s="12" t="s">
+      <c r="I23" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="K23" s="12" t="s">
+      <c r="J23" s="48" t="s">
+        <v>210</v>
+      </c>
+      <c r="K23" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="L23" s="12" t="s">
+      <c r="L23" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="N23" s="12" t="s">
+      <c r="M23" s="48" t="s">
+        <v>210</v>
+      </c>
+      <c r="N23" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="O23" s="12" t="s">
+      <c r="O23" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="Q23" s="12" t="s">
+      <c r="P23" s="48" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q23" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="R23" s="12" t="s">
+      <c r="R23" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="T23" s="12" t="s">
+      <c r="S23" s="48" t="s">
+        <v>210</v>
+      </c>
+      <c r="T23" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="U23" s="12" t="s">
+      <c r="U23" s="51" t="s">
         <v>198</v>
+      </c>
+      <c r="V23" s="48" t="s">
+        <v>210</v>
       </c>
       <c r="Y23" s="25" t="s">
         <v>258</v>
@@ -7599,10 +7617,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B56D5F7-13AA-1341-9BE6-0A2856DB23D9}">
   <dimension ref="A1:H178"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7621,7 +7638,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="36" t="s">
         <v>268</v>
       </c>
       <c r="H2" t="s">
@@ -7629,7 +7646,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="36" t="s">
         <v>269</v>
       </c>
       <c r="H3" t="s">
@@ -7637,7 +7654,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="36" t="s">
         <v>271</v>
       </c>
       <c r="H4" t="s">
@@ -7645,10 +7662,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="36" t="s">
         <v>270</v>
       </c>
-      <c r="H5" s="46" t="s">
+      <c r="H5" s="37" t="s">
         <v>333</v>
       </c>
     </row>
@@ -7656,12 +7673,12 @@
       <c r="A6" t="s">
         <v>272</v>
       </c>
-      <c r="H6" s="46" t="s">
+      <c r="H6" s="37" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="36" t="s">
         <v>273</v>
       </c>
       <c r="H7" t="s">
@@ -7669,7 +7686,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="36" t="s">
         <v>274</v>
       </c>
       <c r="H8" t="s">
@@ -7677,7 +7694,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="36" t="s">
         <v>275</v>
       </c>
       <c r="H9" t="s">
@@ -7685,15 +7702,15 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="36" t="s">
         <v>276</v>
       </c>
-      <c r="H10" s="46" t="s">
+      <c r="H10" s="37" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="36" t="s">
         <v>277</v>
       </c>
     </row>
@@ -8635,9 +8652,6 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I54" sqref="I54"/>
-    </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1">
-      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -8719,41 +8733,41 @@
       <c r="V2" s="8"/>
     </row>
     <row r="3" spans="2:22" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="44" t="s">
         <v>189</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="37" t="s">
+      <c r="C3" s="45"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="44" t="s">
         <v>190</v>
       </c>
-      <c r="F3" s="38"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="37" t="s">
+      <c r="F3" s="45"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="44" t="s">
         <v>191</v>
       </c>
-      <c r="I3" s="38"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="37" t="s">
+      <c r="I3" s="45"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="44" t="s">
         <v>192</v>
       </c>
-      <c r="L3" s="38"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="37" t="s">
+      <c r="L3" s="45"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="44" t="s">
         <v>193</v>
       </c>
-      <c r="O3" s="38"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="37" t="s">
+      <c r="O3" s="45"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="44" t="s">
         <v>194</v>
       </c>
-      <c r="R3" s="38"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="37" t="s">
+      <c r="R3" s="45"/>
+      <c r="S3" s="46"/>
+      <c r="T3" s="44" t="s">
         <v>196</v>
       </c>
-      <c r="U3" s="38"/>
-      <c r="V3" s="39"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="46"/>
     </row>
     <row r="4" spans="2:22" s="9" customFormat="1" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
@@ -8821,254 +8835,254 @@
       </c>
     </row>
     <row r="5" spans="2:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="31" t="s">
         <v>269</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="40"/>
-      <c r="S5" s="41"/>
-      <c r="T5" s="40"/>
-      <c r="U5" s="40"/>
-      <c r="V5" s="41"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="32"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="31"/>
+      <c r="V5" s="32"/>
     </row>
     <row r="6" spans="2:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="31" t="s">
         <v>340</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="40"/>
-      <c r="S6" s="41"/>
-      <c r="T6" s="40"/>
-      <c r="U6" s="40"/>
-      <c r="V6" s="41"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="31"/>
+      <c r="V6" s="32"/>
     </row>
     <row r="7" spans="2:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="31" t="s">
         <v>341</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="40"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="41"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="31"/>
+      <c r="U7" s="31"/>
+      <c r="V7" s="32"/>
     </row>
     <row r="8" spans="2:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="31" t="s">
         <v>342</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="41"/>
-      <c r="T8" s="40"/>
-      <c r="U8" s="40"/>
-      <c r="V8" s="41"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="31"/>
+      <c r="U8" s="31"/>
+      <c r="V8" s="32"/>
     </row>
     <row r="9" spans="2:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="31" t="s">
         <v>343</v>
       </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="41"/>
-      <c r="T9" s="40"/>
-      <c r="U9" s="40"/>
-      <c r="V9" s="41"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="32"/>
+      <c r="T9" s="31"/>
+      <c r="U9" s="31"/>
+      <c r="V9" s="32"/>
     </row>
     <row r="10" spans="2:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="31" t="s">
         <v>344</v>
       </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="41"/>
-      <c r="T10" s="40"/>
-      <c r="U10" s="40"/>
-      <c r="V10" s="41"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="32"/>
+      <c r="T10" s="31"/>
+      <c r="U10" s="31"/>
+      <c r="V10" s="32"/>
     </row>
     <row r="11" spans="2:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="31" t="s">
         <v>274</v>
       </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="40"/>
-      <c r="R11" s="40"/>
-      <c r="S11" s="41"/>
-      <c r="T11" s="40"/>
-      <c r="U11" s="40"/>
-      <c r="V11" s="41"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="32"/>
+      <c r="T11" s="31"/>
+      <c r="U11" s="31"/>
+      <c r="V11" s="32"/>
     </row>
     <row r="12" spans="2:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="33" t="s">
         <v>275</v>
       </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="40"/>
-      <c r="R12" s="40"/>
-      <c r="S12" s="41"/>
-      <c r="T12" s="40"/>
-      <c r="U12" s="40"/>
-      <c r="V12" s="41"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="32"/>
+      <c r="T12" s="31"/>
+      <c r="U12" s="31"/>
+      <c r="V12" s="32"/>
     </row>
     <row r="13" spans="2:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="35" t="s">
         <v>345</v>
       </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="42"/>
-      <c r="S13" s="43"/>
-      <c r="T13" s="42"/>
-      <c r="U13" s="42"/>
-      <c r="V13" s="43"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="33"/>
+      <c r="S13" s="34"/>
+      <c r="T13" s="33"/>
+      <c r="U13" s="33"/>
+      <c r="V13" s="34"/>
     </row>
     <row r="14" spans="2:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="35" t="s">
         <v>346</v>
       </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="41"/>
-      <c r="R14" s="41"/>
-      <c r="S14" s="40"/>
-      <c r="T14" s="40"/>
-      <c r="U14" s="41"/>
-      <c r="V14" s="41"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="32"/>
+      <c r="S14" s="31"/>
+      <c r="T14" s="31"/>
+      <c r="U14" s="32"/>
+      <c r="V14" s="32"/>
     </row>
     <row r="15" spans="2:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="7"/>
@@ -9165,41 +9179,41 @@
       <c r="V18" s="8"/>
     </row>
     <row r="19" spans="2:22" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="41" t="s">
         <v>189</v>
       </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="34" t="s">
+      <c r="C19" s="42"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="41" t="s">
         <v>190</v>
       </c>
-      <c r="F19" s="35"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="34" t="s">
+      <c r="F19" s="42"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="41" t="s">
         <v>191</v>
       </c>
-      <c r="I19" s="35"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="34" t="s">
+      <c r="I19" s="42"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="L19" s="35"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="34" t="s">
+      <c r="L19" s="42"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="41" t="s">
         <v>193</v>
       </c>
-      <c r="O19" s="35"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="34" t="s">
+      <c r="O19" s="42"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="41" t="s">
         <v>194</v>
       </c>
-      <c r="R19" s="35"/>
-      <c r="S19" s="36"/>
-      <c r="T19" s="34" t="s">
+      <c r="R19" s="42"/>
+      <c r="S19" s="43"/>
+      <c r="T19" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="U19" s="35"/>
-      <c r="V19" s="36"/>
+      <c r="U19" s="42"/>
+      <c r="V19" s="43"/>
     </row>
     <row r="20" spans="2:22" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">

--- a/MASTER Collection Schedule.xlsx
+++ b/MASTER Collection Schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brandontravis/Development/pmm-config/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brandon.travis/Development/GitHub/pmm-config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007EFC8B-4E10-2F42-A684-33FC8A544C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7198D9D0-443F-FC42-AC3A-D13570014459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="5" xr2:uid="{34EAF699-62FB-4548-AC27-08363F05758A}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="21380" activeTab="2" xr2:uid="{34EAF699-62FB-4548-AC27-08363F05758A}"/>
   </bookViews>
   <sheets>
     <sheet name="Movies" sheetId="1" r:id="rId1"/>
@@ -1372,7 +1372,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1430,6 +1430,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1716,7 +1722,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1756,28 +1762,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1809,17 +1804,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2149,10 +2154,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="47"/>
+      <c r="D1" s="40"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -4518,13 +4523,13 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="34">
+      <c r="B4" s="31">
         <v>208</v>
       </c>
-      <c r="C4" s="34">
+      <c r="C4" s="31">
         <v>172</v>
       </c>
     </row>
@@ -4540,13 +4545,13 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="34">
+      <c r="B6" s="31">
         <v>24</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="31">
         <v>22</v>
       </c>
     </row>
@@ -4562,13 +4567,13 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="34">
+      <c r="B8" s="31">
         <v>64</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C8" s="31">
         <v>50</v>
       </c>
     </row>
@@ -4665,13 +4670,13 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="34">
+      <c r="B16" s="31">
         <v>398</v>
       </c>
-      <c r="C16" s="34">
+      <c r="C16" s="31">
         <v>270</v>
       </c>
       <c r="I16" t="s">
@@ -4699,13 +4704,13 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="B18" s="34">
+      <c r="B18" s="31">
         <v>27</v>
       </c>
-      <c r="C18" s="34">
+      <c r="C18" s="31">
         <v>25</v>
       </c>
       <c r="I18" t="s">
@@ -4976,13 +4981,13 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="34" t="s">
+      <c r="A38" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="B38" s="34">
+      <c r="B38" s="31">
         <v>30</v>
       </c>
-      <c r="C38" s="34">
+      <c r="C38" s="31">
         <v>24</v>
       </c>
     </row>
@@ -5031,35 +5036,35 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="34" t="s">
+      <c r="A43" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="B43" s="34">
+      <c r="B43" s="31">
         <v>15</v>
       </c>
-      <c r="C43" s="34">
+      <c r="C43" s="31">
         <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="34" t="s">
+      <c r="A44" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="B44" s="34">
+      <c r="B44" s="31">
         <v>23</v>
       </c>
-      <c r="C44" s="34">
+      <c r="C44" s="31">
         <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="34" t="s">
+      <c r="A45" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="B45" s="34">
+      <c r="B45" s="31">
         <v>15</v>
       </c>
-      <c r="C45" s="34">
+      <c r="C45" s="31">
         <v>9</v>
       </c>
     </row>
@@ -5072,8 +5077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{961870A6-6628-8840-AC00-0AEFD098BBAD}">
   <dimension ref="B1:Z800"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -5155,45 +5160,45 @@
       <c r="V2" s="8"/>
     </row>
     <row r="3" spans="2:26" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="46" t="s">
         <v>189</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="53" t="s">
+      <c r="C3" s="47"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="46" t="s">
         <v>190</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="53" t="s">
+      <c r="F3" s="47"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="46" t="s">
         <v>191</v>
       </c>
-      <c r="I3" s="54"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="53" t="s">
+      <c r="I3" s="47"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="46" t="s">
         <v>192</v>
       </c>
-      <c r="L3" s="54"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="53" t="s">
+      <c r="L3" s="47"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="46" t="s">
         <v>193</v>
       </c>
-      <c r="O3" s="54"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="53" t="s">
+      <c r="O3" s="47"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="46" t="s">
         <v>194</v>
       </c>
-      <c r="R3" s="54"/>
-      <c r="S3" s="55"/>
-      <c r="T3" s="53" t="s">
+      <c r="R3" s="47"/>
+      <c r="S3" s="48"/>
+      <c r="T3" s="46" t="s">
         <v>196</v>
       </c>
-      <c r="U3" s="54"/>
-      <c r="V3" s="55"/>
-      <c r="Y3" s="48" t="s">
+      <c r="U3" s="47"/>
+      <c r="V3" s="48"/>
+      <c r="Y3" s="41" t="s">
         <v>208</v>
       </c>
-      <c r="Z3" s="49"/>
+      <c r="Z3" s="42"/>
     </row>
     <row r="4" spans="2:26" s="9" customFormat="1" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
@@ -5267,55 +5272,55 @@
       </c>
     </row>
     <row r="5" spans="2:26" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="59" t="s">
         <v>226</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="C5" s="59" t="s">
         <v>197</v>
       </c>
-      <c r="D5" s="63"/>
-      <c r="E5" s="62" t="s">
+      <c r="D5" s="60"/>
+      <c r="E5" s="59" t="s">
         <v>226</v>
       </c>
-      <c r="F5" s="62" t="s">
+      <c r="F5" s="59" t="s">
         <v>197</v>
       </c>
-      <c r="G5" s="63"/>
-      <c r="H5" s="62" t="s">
+      <c r="G5" s="60"/>
+      <c r="H5" s="59" t="s">
         <v>226</v>
       </c>
-      <c r="I5" s="62" t="s">
+      <c r="I5" s="59" t="s">
         <v>197</v>
       </c>
-      <c r="J5" s="63"/>
-      <c r="K5" s="62" t="s">
+      <c r="J5" s="60"/>
+      <c r="K5" s="59" t="s">
         <v>226</v>
       </c>
-      <c r="L5" s="62" t="s">
+      <c r="L5" s="59" t="s">
         <v>197</v>
       </c>
-      <c r="M5" s="63"/>
-      <c r="N5" s="62" t="s">
+      <c r="M5" s="60"/>
+      <c r="N5" s="59" t="s">
         <v>226</v>
       </c>
-      <c r="O5" s="62" t="s">
+      <c r="O5" s="59" t="s">
         <v>197</v>
       </c>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="62" t="s">
+      <c r="P5" s="60"/>
+      <c r="Q5" s="59" t="s">
         <v>226</v>
       </c>
-      <c r="R5" s="62" t="s">
+      <c r="R5" s="59" t="s">
         <v>197</v>
       </c>
-      <c r="S5" s="63"/>
-      <c r="T5" s="62" t="s">
+      <c r="S5" s="60"/>
+      <c r="T5" s="59" t="s">
         <v>226</v>
       </c>
-      <c r="U5" s="62" t="s">
+      <c r="U5" s="59" t="s">
         <v>197</v>
       </c>
-      <c r="V5" s="63"/>
+      <c r="V5" s="60"/>
       <c r="Y5" s="14" t="s">
         <v>32</v>
       </c>
@@ -5324,55 +5329,55 @@
       </c>
     </row>
     <row r="6" spans="2:26" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="59" t="s">
         <v>197</v>
       </c>
-      <c r="D6" s="63"/>
-      <c r="E6" s="62" t="s">
+      <c r="D6" s="60"/>
+      <c r="E6" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="62" t="s">
+      <c r="F6" s="59" t="s">
         <v>197</v>
       </c>
-      <c r="G6" s="63"/>
-      <c r="H6" s="62" t="s">
+      <c r="G6" s="60"/>
+      <c r="H6" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="62" t="s">
+      <c r="I6" s="59" t="s">
         <v>197</v>
       </c>
-      <c r="J6" s="63"/>
-      <c r="K6" s="62" t="s">
+      <c r="J6" s="60"/>
+      <c r="K6" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="62" t="s">
+      <c r="L6" s="59" t="s">
         <v>197</v>
       </c>
-      <c r="M6" s="63"/>
-      <c r="N6" s="62" t="s">
+      <c r="M6" s="60"/>
+      <c r="N6" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="O6" s="62" t="s">
+      <c r="O6" s="59" t="s">
         <v>197</v>
       </c>
-      <c r="P6" s="63"/>
-      <c r="Q6" s="62" t="s">
+      <c r="P6" s="60"/>
+      <c r="Q6" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="R6" s="62" t="s">
+      <c r="R6" s="59" t="s">
         <v>197</v>
       </c>
-      <c r="S6" s="63"/>
-      <c r="T6" s="62" t="s">
+      <c r="S6" s="60"/>
+      <c r="T6" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="U6" s="62" t="s">
+      <c r="U6" s="59" t="s">
         <v>197</v>
       </c>
-      <c r="V6" s="63"/>
+      <c r="V6" s="60"/>
       <c r="Y6" s="12" t="s">
         <v>229</v>
       </c>
@@ -5381,67 +5386,67 @@
       </c>
     </row>
     <row r="7" spans="2:26" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="59" t="s">
         <v>225</v>
       </c>
-      <c r="C7" s="62" t="s">
+      <c r="C7" s="59" t="s">
         <v>201</v>
       </c>
-      <c r="D7" s="63" t="s">
-        <v>210</v>
-      </c>
-      <c r="E7" s="62" t="s">
+      <c r="D7" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="E7" s="59" t="s">
         <v>225</v>
       </c>
-      <c r="F7" s="62" t="s">
+      <c r="F7" s="59" t="s">
         <v>201</v>
       </c>
-      <c r="G7" s="63" t="s">
-        <v>210</v>
-      </c>
-      <c r="H7" s="62" t="s">
+      <c r="G7" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="H7" s="59" t="s">
         <v>225</v>
       </c>
-      <c r="I7" s="62" t="s">
+      <c r="I7" s="59" t="s">
         <v>201</v>
       </c>
-      <c r="J7" s="63" t="s">
-        <v>210</v>
-      </c>
-      <c r="K7" s="62" t="s">
+      <c r="J7" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="K7" s="59" t="s">
         <v>225</v>
       </c>
-      <c r="L7" s="62" t="s">
+      <c r="L7" s="59" t="s">
         <v>201</v>
       </c>
-      <c r="M7" s="63" t="s">
-        <v>210</v>
-      </c>
-      <c r="N7" s="62" t="s">
+      <c r="M7" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="N7" s="59" t="s">
         <v>225</v>
       </c>
-      <c r="O7" s="62" t="s">
+      <c r="O7" s="59" t="s">
         <v>201</v>
       </c>
-      <c r="P7" s="63" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q7" s="62" t="s">
+      <c r="P7" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q7" s="59" t="s">
         <v>225</v>
       </c>
-      <c r="R7" s="62" t="s">
+      <c r="R7" s="59" t="s">
         <v>201</v>
       </c>
-      <c r="S7" s="63" t="s">
-        <v>210</v>
-      </c>
-      <c r="T7" s="62" t="s">
+      <c r="S7" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="T7" s="59" t="s">
         <v>225</v>
       </c>
-      <c r="U7" s="62" t="s">
+      <c r="U7" s="59" t="s">
         <v>201</v>
       </c>
-      <c r="V7" s="63" t="s">
+      <c r="V7" s="60" t="s">
         <v>210</v>
       </c>
       <c r="Y7" s="14" t="s">
@@ -5452,55 +5457,55 @@
       </c>
     </row>
     <row r="8" spans="2:26" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="59" t="s">
         <v>182</v>
       </c>
-      <c r="C8" s="62" t="s">
+      <c r="C8" s="59" t="s">
         <v>197</v>
       </c>
-      <c r="D8" s="63"/>
-      <c r="E8" s="62" t="s">
+      <c r="D8" s="60"/>
+      <c r="E8" s="59" t="s">
         <v>182</v>
       </c>
-      <c r="F8" s="62" t="s">
+      <c r="F8" s="59" t="s">
         <v>197</v>
       </c>
-      <c r="G8" s="63"/>
-      <c r="H8" s="62" t="s">
+      <c r="G8" s="60"/>
+      <c r="H8" s="59" t="s">
         <v>182</v>
       </c>
-      <c r="I8" s="62" t="s">
+      <c r="I8" s="59" t="s">
         <v>197</v>
       </c>
-      <c r="J8" s="63"/>
-      <c r="K8" s="62" t="s">
+      <c r="J8" s="60"/>
+      <c r="K8" s="59" t="s">
         <v>182</v>
       </c>
-      <c r="L8" s="62" t="s">
+      <c r="L8" s="59" t="s">
         <v>197</v>
       </c>
-      <c r="M8" s="63"/>
-      <c r="N8" s="62" t="s">
+      <c r="M8" s="60"/>
+      <c r="N8" s="59" t="s">
         <v>182</v>
       </c>
-      <c r="O8" s="62" t="s">
+      <c r="O8" s="59" t="s">
         <v>197</v>
       </c>
-      <c r="P8" s="63"/>
-      <c r="Q8" s="62" t="s">
+      <c r="P8" s="60"/>
+      <c r="Q8" s="59" t="s">
         <v>182</v>
       </c>
-      <c r="R8" s="62" t="s">
+      <c r="R8" s="59" t="s">
         <v>197</v>
       </c>
-      <c r="S8" s="63"/>
-      <c r="T8" s="62" t="s">
+      <c r="S8" s="60"/>
+      <c r="T8" s="59" t="s">
         <v>182</v>
       </c>
-      <c r="U8" s="62" t="s">
+      <c r="U8" s="59" t="s">
         <v>197</v>
       </c>
-      <c r="V8" s="63"/>
+      <c r="V8" s="60"/>
       <c r="Y8" s="14" t="s">
         <v>36</v>
       </c>
@@ -5509,67 +5514,67 @@
       </c>
     </row>
     <row r="9" spans="2:26" s="30" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="62" t="s">
-        <v>198</v>
-      </c>
-      <c r="D9" s="63" t="s">
-        <v>210</v>
-      </c>
-      <c r="E9" s="62" t="s">
+      <c r="C9" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="D9" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="E9" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="62" t="s">
-        <v>198</v>
-      </c>
-      <c r="G9" s="63" t="s">
-        <v>210</v>
-      </c>
-      <c r="H9" s="62" t="s">
+      <c r="F9" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="G9" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="H9" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="62" t="s">
-        <v>198</v>
-      </c>
-      <c r="J9" s="63" t="s">
-        <v>210</v>
-      </c>
-      <c r="K9" s="62" t="s">
+      <c r="I9" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="J9" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="K9" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="L9" s="62" t="s">
-        <v>198</v>
-      </c>
-      <c r="M9" s="63" t="s">
-        <v>210</v>
-      </c>
-      <c r="N9" s="62" t="s">
+      <c r="L9" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="M9" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="N9" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="O9" s="62" t="s">
-        <v>198</v>
-      </c>
-      <c r="P9" s="63" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q9" s="62" t="s">
+      <c r="O9" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="P9" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q9" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="R9" s="62" t="s">
-        <v>198</v>
-      </c>
-      <c r="S9" s="63" t="s">
-        <v>210</v>
-      </c>
-      <c r="T9" s="62" t="s">
+      <c r="R9" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="S9" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="T9" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="U9" s="62" t="s">
-        <v>198</v>
-      </c>
-      <c r="V9" s="63" t="s">
+      <c r="U9" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="V9" s="60" t="s">
         <v>210</v>
       </c>
       <c r="Y9" s="14" t="s">
@@ -5580,67 +5585,67 @@
       </c>
     </row>
     <row r="10" spans="2:26" s="30" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="59" t="s">
         <v>224</v>
       </c>
-      <c r="C10" s="62" t="s">
-        <v>198</v>
-      </c>
-      <c r="D10" s="63" t="s">
-        <v>210</v>
-      </c>
-      <c r="E10" s="62" t="s">
+      <c r="C10" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="D10" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="E10" s="59" t="s">
         <v>224</v>
       </c>
-      <c r="F10" s="62" t="s">
-        <v>198</v>
-      </c>
-      <c r="G10" s="63" t="s">
-        <v>210</v>
-      </c>
-      <c r="H10" s="62" t="s">
+      <c r="F10" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="G10" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="H10" s="59" t="s">
         <v>224</v>
       </c>
-      <c r="I10" s="62" t="s">
-        <v>198</v>
-      </c>
-      <c r="J10" s="63" t="s">
-        <v>210</v>
-      </c>
-      <c r="K10" s="62" t="s">
+      <c r="I10" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="J10" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="K10" s="59" t="s">
         <v>224</v>
       </c>
-      <c r="L10" s="62" t="s">
-        <v>198</v>
-      </c>
-      <c r="M10" s="63" t="s">
-        <v>210</v>
-      </c>
-      <c r="N10" s="62" t="s">
+      <c r="L10" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="M10" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="N10" s="59" t="s">
         <v>224</v>
       </c>
-      <c r="O10" s="62" t="s">
-        <v>198</v>
-      </c>
-      <c r="P10" s="63" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q10" s="62" t="s">
+      <c r="O10" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="P10" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q10" s="59" t="s">
         <v>224</v>
       </c>
-      <c r="R10" s="62" t="s">
-        <v>198</v>
-      </c>
-      <c r="S10" s="63" t="s">
-        <v>210</v>
-      </c>
-      <c r="T10" s="62" t="s">
+      <c r="R10" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="S10" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="T10" s="59" t="s">
         <v>224</v>
       </c>
-      <c r="U10" s="62" t="s">
-        <v>198</v>
-      </c>
-      <c r="V10" s="63" t="s">
+      <c r="U10" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="V10" s="60" t="s">
         <v>210</v>
       </c>
       <c r="Y10" s="14" t="s">
@@ -5651,67 +5656,67 @@
       </c>
     </row>
     <row r="11" spans="2:26" s="30" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="62" t="s">
-        <v>198</v>
-      </c>
-      <c r="D11" s="63" t="s">
-        <v>210</v>
-      </c>
-      <c r="E11" s="62" t="s">
+      <c r="C11" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="D11" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="E11" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="62" t="s">
-        <v>198</v>
-      </c>
-      <c r="G11" s="63" t="s">
+      <c r="F11" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="G11" s="60" t="s">
         <v>230</v>
       </c>
-      <c r="H11" s="62" t="s">
+      <c r="H11" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="62" t="s">
-        <v>198</v>
-      </c>
-      <c r="J11" s="63" t="s">
+      <c r="I11" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="J11" s="60" t="s">
         <v>230</v>
       </c>
-      <c r="K11" s="62" t="s">
+      <c r="K11" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="L11" s="62" t="s">
-        <v>198</v>
-      </c>
-      <c r="M11" s="63" t="s">
+      <c r="L11" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="M11" s="60" t="s">
         <v>230</v>
       </c>
-      <c r="N11" s="62" t="s">
+      <c r="N11" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="O11" s="62" t="s">
-        <v>198</v>
-      </c>
-      <c r="P11" s="63" t="s">
+      <c r="O11" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="P11" s="60" t="s">
         <v>230</v>
       </c>
-      <c r="Q11" s="62" t="s">
+      <c r="Q11" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="R11" s="62" t="s">
-        <v>198</v>
-      </c>
-      <c r="S11" s="63" t="s">
+      <c r="R11" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="S11" s="60" t="s">
         <v>230</v>
       </c>
-      <c r="T11" s="62" t="s">
+      <c r="T11" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="U11" s="62" t="s">
-        <v>198</v>
-      </c>
-      <c r="V11" s="63" t="s">
+      <c r="U11" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="V11" s="60" t="s">
         <v>230</v>
       </c>
       <c r="Y11" s="29" t="s">
@@ -5722,67 +5727,67 @@
       </c>
     </row>
     <row r="12" spans="2:26" s="30" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="62" t="s">
-        <v>198</v>
-      </c>
-      <c r="D12" s="63" t="s">
+      <c r="C12" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="D12" s="60" t="s">
         <v>230</v>
       </c>
-      <c r="E12" s="62" t="s">
+      <c r="E12" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="62" t="s">
-        <v>198</v>
-      </c>
-      <c r="G12" s="63" t="s">
-        <v>210</v>
-      </c>
-      <c r="H12" s="62" t="s">
+      <c r="F12" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="G12" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="H12" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="62" t="s">
-        <v>198</v>
-      </c>
-      <c r="J12" s="63" t="s">
+      <c r="I12" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="J12" s="60" t="s">
         <v>230</v>
       </c>
-      <c r="K12" s="62" t="s">
+      <c r="K12" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="L12" s="62" t="s">
-        <v>198</v>
-      </c>
-      <c r="M12" s="63" t="s">
+      <c r="L12" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="M12" s="60" t="s">
         <v>230</v>
       </c>
-      <c r="N12" s="62" t="s">
+      <c r="N12" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="O12" s="62" t="s">
-        <v>198</v>
-      </c>
-      <c r="P12" s="63" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q12" s="62" t="s">
+      <c r="O12" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="P12" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q12" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="R12" s="62" t="s">
-        <v>198</v>
-      </c>
-      <c r="S12" s="63" t="s">
+      <c r="R12" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="S12" s="60" t="s">
         <v>230</v>
       </c>
-      <c r="T12" s="62" t="s">
+      <c r="T12" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="U12" s="62" t="s">
-        <v>198</v>
-      </c>
-      <c r="V12" s="63" t="s">
+      <c r="U12" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="V12" s="60" t="s">
         <v>230</v>
       </c>
       <c r="Y12" s="14" t="s">
@@ -5793,67 +5798,67 @@
       </c>
     </row>
     <row r="13" spans="2:26" s="30" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="62" t="s">
-        <v>198</v>
-      </c>
-      <c r="D13" s="63" t="s">
+      <c r="C13" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="D13" s="60" t="s">
         <v>230</v>
       </c>
-      <c r="E13" s="62" t="s">
+      <c r="E13" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="62" t="s">
-        <v>198</v>
-      </c>
-      <c r="G13" s="63" t="s">
-        <v>210</v>
-      </c>
-      <c r="H13" s="62" t="s">
+      <c r="F13" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="G13" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="H13" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="62" t="s">
-        <v>198</v>
-      </c>
-      <c r="J13" s="63" t="s">
+      <c r="I13" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="J13" s="60" t="s">
         <v>230</v>
       </c>
-      <c r="K13" s="62" t="s">
+      <c r="K13" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="L13" s="62" t="s">
-        <v>198</v>
-      </c>
-      <c r="M13" s="63" t="s">
+      <c r="L13" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="M13" s="60" t="s">
         <v>230</v>
       </c>
-      <c r="N13" s="62" t="s">
+      <c r="N13" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="O13" s="62" t="s">
-        <v>198</v>
-      </c>
-      <c r="P13" s="63" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q13" s="62" t="s">
+      <c r="O13" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="P13" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q13" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="R13" s="62" t="s">
-        <v>198</v>
-      </c>
-      <c r="S13" s="63" t="s">
+      <c r="R13" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="S13" s="60" t="s">
         <v>230</v>
       </c>
-      <c r="T13" s="62" t="s">
+      <c r="T13" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="U13" s="62" t="s">
-        <v>198</v>
-      </c>
-      <c r="V13" s="63" t="s">
+      <c r="U13" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="V13" s="60" t="s">
         <v>230</v>
       </c>
       <c r="Y13" s="14" t="s">
@@ -5976,41 +5981,41 @@
       <c r="V17" s="8"/>
     </row>
     <row r="18" spans="2:25" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="43" t="s">
         <v>189</v>
       </c>
-      <c r="C18" s="51"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="50" t="s">
+      <c r="C18" s="44"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="43" t="s">
         <v>190</v>
       </c>
-      <c r="F18" s="51"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="50" t="s">
+      <c r="F18" s="44"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="43" t="s">
         <v>191</v>
       </c>
-      <c r="I18" s="51"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="50" t="s">
+      <c r="I18" s="44"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="43" t="s">
         <v>192</v>
       </c>
-      <c r="L18" s="51"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="50" t="s">
+      <c r="L18" s="44"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="43" t="s">
         <v>193</v>
       </c>
-      <c r="O18" s="51"/>
-      <c r="P18" s="52"/>
-      <c r="Q18" s="50" t="s">
+      <c r="O18" s="44"/>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="43" t="s">
         <v>194</v>
       </c>
-      <c r="R18" s="51"/>
-      <c r="S18" s="52"/>
-      <c r="T18" s="50" t="s">
+      <c r="R18" s="44"/>
+      <c r="S18" s="45"/>
+      <c r="T18" s="43" t="s">
         <v>196</v>
       </c>
-      <c r="U18" s="51"/>
-      <c r="V18" s="52"/>
+      <c r="U18" s="44"/>
+      <c r="V18" s="45"/>
     </row>
     <row r="19" spans="2:25" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
@@ -6078,197 +6083,197 @@
       </c>
     </row>
     <row r="20" spans="2:25" s="30" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="62" t="s">
+      <c r="B20" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="62" t="s">
-        <v>198</v>
-      </c>
-      <c r="D20" s="63" t="s">
-        <v>210</v>
-      </c>
-      <c r="E20" s="62" t="s">
+      <c r="C20" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="D20" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="E20" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="F20" s="62" t="s">
-        <v>198</v>
-      </c>
-      <c r="G20" s="63" t="s">
-        <v>210</v>
-      </c>
-      <c r="H20" s="62" t="s">
+      <c r="F20" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="G20" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="H20" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="I20" s="62" t="s">
-        <v>198</v>
-      </c>
-      <c r="J20" s="63" t="s">
-        <v>210</v>
-      </c>
-      <c r="K20" s="62" t="s">
+      <c r="I20" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="J20" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="K20" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="L20" s="62" t="s">
-        <v>198</v>
-      </c>
-      <c r="M20" s="63" t="s">
-        <v>210</v>
-      </c>
-      <c r="N20" s="62" t="s">
+      <c r="L20" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="M20" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="N20" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="O20" s="62" t="s">
-        <v>198</v>
-      </c>
-      <c r="P20" s="63" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q20" s="62" t="s">
+      <c r="O20" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="P20" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q20" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="R20" s="62" t="s">
-        <v>198</v>
-      </c>
-      <c r="S20" s="63" t="s">
-        <v>210</v>
-      </c>
-      <c r="T20" s="62" t="s">
+      <c r="R20" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="S20" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="T20" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="U20" s="62" t="s">
-        <v>198</v>
-      </c>
-      <c r="V20" s="63" t="s">
+      <c r="U20" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="V20" s="60" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="21" spans="2:25" s="30" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="62" t="s">
+      <c r="B21" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="62" t="s">
-        <v>198</v>
-      </c>
-      <c r="D21" s="63" t="s">
-        <v>210</v>
-      </c>
-      <c r="E21" s="62" t="s">
+      <c r="C21" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="D21" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="E21" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="62" t="s">
-        <v>198</v>
-      </c>
-      <c r="G21" s="63" t="s">
-        <v>210</v>
-      </c>
-      <c r="H21" s="62" t="s">
+      <c r="F21" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="G21" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="H21" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="I21" s="62" t="s">
-        <v>198</v>
-      </c>
-      <c r="J21" s="63" t="s">
-        <v>210</v>
-      </c>
-      <c r="K21" s="62" t="s">
+      <c r="I21" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="J21" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="K21" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="L21" s="62" t="s">
-        <v>198</v>
-      </c>
-      <c r="M21" s="63" t="s">
-        <v>210</v>
-      </c>
-      <c r="N21" s="62" t="s">
+      <c r="L21" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="M21" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="N21" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="O21" s="62" t="s">
-        <v>198</v>
-      </c>
-      <c r="P21" s="63" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q21" s="62" t="s">
+      <c r="O21" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="P21" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q21" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="R21" s="62" t="s">
-        <v>198</v>
-      </c>
-      <c r="S21" s="63" t="s">
-        <v>210</v>
-      </c>
-      <c r="T21" s="62" t="s">
+      <c r="R21" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="S21" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="T21" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="U21" s="62" t="s">
-        <v>198</v>
-      </c>
-      <c r="V21" s="63" t="s">
+      <c r="U21" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="V21" s="60" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="22" spans="2:25" s="30" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="62" t="s">
+      <c r="B22" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="62" t="s">
+      <c r="C22" s="59" t="s">
         <v>199</v>
       </c>
-      <c r="D22" s="63" t="s">
-        <v>210</v>
-      </c>
-      <c r="E22" s="62" t="s">
+      <c r="D22" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="E22" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="62" t="s">
+      <c r="F22" s="59" t="s">
         <v>199</v>
       </c>
-      <c r="G22" s="63" t="s">
-        <v>210</v>
-      </c>
-      <c r="H22" s="62" t="s">
+      <c r="G22" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="H22" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="I22" s="62" t="s">
+      <c r="I22" s="59" t="s">
         <v>199</v>
       </c>
-      <c r="J22" s="63" t="s">
-        <v>210</v>
-      </c>
-      <c r="K22" s="62" t="s">
+      <c r="J22" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="K22" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="L22" s="62" t="s">
+      <c r="L22" s="59" t="s">
         <v>199</v>
       </c>
-      <c r="M22" s="63" t="s">
-        <v>210</v>
-      </c>
-      <c r="N22" s="62" t="s">
+      <c r="M22" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="N22" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="O22" s="62" t="s">
+      <c r="O22" s="59" t="s">
         <v>199</v>
       </c>
-      <c r="P22" s="63" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q22" s="62" t="s">
+      <c r="P22" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q22" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="R22" s="62" t="s">
+      <c r="R22" s="59" t="s">
         <v>199</v>
       </c>
-      <c r="S22" s="63" t="s">
-        <v>210</v>
-      </c>
-      <c r="T22" s="62" t="s">
+      <c r="S22" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="T22" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="U22" s="62" t="s">
+      <c r="U22" s="59" t="s">
         <v>199</v>
       </c>
-      <c r="V22" s="63" t="s">
+      <c r="V22" s="60" t="s">
         <v>210</v>
       </c>
       <c r="Y22" s="1" t="s">
@@ -6276,67 +6281,67 @@
       </c>
     </row>
     <row r="23" spans="2:25" s="30" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="62" t="s">
+      <c r="B23" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="62" t="s">
-        <v>198</v>
-      </c>
-      <c r="D23" s="63" t="s">
-        <v>210</v>
-      </c>
-      <c r="E23" s="62" t="s">
+      <c r="C23" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="D23" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="E23" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="62" t="s">
-        <v>198</v>
-      </c>
-      <c r="G23" s="63" t="s">
-        <v>210</v>
-      </c>
-      <c r="H23" s="62" t="s">
+      <c r="F23" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="G23" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="H23" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="I23" s="62" t="s">
-        <v>198</v>
-      </c>
-      <c r="J23" s="63" t="s">
-        <v>210</v>
-      </c>
-      <c r="K23" s="62" t="s">
+      <c r="I23" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="J23" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="K23" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="L23" s="62" t="s">
-        <v>198</v>
-      </c>
-      <c r="M23" s="63" t="s">
-        <v>210</v>
-      </c>
-      <c r="N23" s="62" t="s">
+      <c r="L23" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="M23" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="N23" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="O23" s="62" t="s">
-        <v>198</v>
-      </c>
-      <c r="P23" s="63" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q23" s="62" t="s">
+      <c r="O23" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="P23" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q23" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="R23" s="62" t="s">
-        <v>198</v>
-      </c>
-      <c r="S23" s="63" t="s">
-        <v>210</v>
-      </c>
-      <c r="T23" s="62" t="s">
+      <c r="R23" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="S23" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="T23" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="U23" s="62" t="s">
-        <v>198</v>
-      </c>
-      <c r="V23" s="63" t="s">
+      <c r="U23" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="V23" s="60" t="s">
         <v>210</v>
       </c>
       <c r="Y23" s="1" t="s">
@@ -6344,67 +6349,67 @@
       </c>
     </row>
     <row r="24" spans="2:25" s="30" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="62" t="s">
+      <c r="B24" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="62" t="s">
-        <v>198</v>
-      </c>
-      <c r="D24" s="63" t="s">
-        <v>210</v>
-      </c>
-      <c r="E24" s="62" t="s">
+      <c r="C24" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="D24" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="E24" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="F24" s="62" t="s">
-        <v>198</v>
-      </c>
-      <c r="G24" s="63" t="s">
-        <v>210</v>
-      </c>
-      <c r="H24" s="62" t="s">
+      <c r="F24" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="G24" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="H24" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="I24" s="62" t="s">
-        <v>198</v>
-      </c>
-      <c r="J24" s="63" t="s">
-        <v>210</v>
-      </c>
-      <c r="K24" s="62" t="s">
+      <c r="I24" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="J24" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="K24" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="L24" s="62" t="s">
-        <v>198</v>
-      </c>
-      <c r="M24" s="63" t="s">
+      <c r="L24" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="M24" s="60" t="s">
         <v>230</v>
       </c>
-      <c r="N24" s="62" t="s">
+      <c r="N24" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="O24" s="62" t="s">
-        <v>198</v>
-      </c>
-      <c r="P24" s="63" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q24" s="62" t="s">
+      <c r="O24" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="P24" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q24" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="R24" s="62" t="s">
-        <v>198</v>
-      </c>
-      <c r="S24" s="63" t="s">
-        <v>210</v>
-      </c>
-      <c r="T24" s="62" t="s">
+      <c r="R24" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="S24" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="T24" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="U24" s="62" t="s">
-        <v>198</v>
-      </c>
-      <c r="V24" s="63" t="s">
+      <c r="U24" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="V24" s="60" t="s">
         <v>230</v>
       </c>
       <c r="Y24" s="1" t="s">
@@ -6412,67 +6417,67 @@
       </c>
     </row>
     <row r="25" spans="2:25" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="62" t="s">
+      <c r="B25" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="62" t="s">
+      <c r="C25" s="59" t="s">
         <v>199</v>
       </c>
-      <c r="D25" s="63" t="s">
-        <v>210</v>
-      </c>
-      <c r="E25" s="62" t="s">
+      <c r="D25" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="E25" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="F25" s="62" t="s">
+      <c r="F25" s="59" t="s">
         <v>202</v>
       </c>
-      <c r="G25" s="63" t="s">
-        <v>210</v>
-      </c>
-      <c r="H25" s="62" t="s">
+      <c r="G25" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="H25" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="62" t="s">
+      <c r="I25" s="59" t="s">
         <v>199</v>
       </c>
-      <c r="J25" s="63" t="s">
-        <v>210</v>
-      </c>
-      <c r="K25" s="62" t="s">
+      <c r="J25" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="K25" s="59" t="s">
         <v>231</v>
       </c>
-      <c r="L25" s="62" t="s">
+      <c r="L25" s="59" t="s">
         <v>199</v>
       </c>
-      <c r="M25" s="63" t="s">
-        <v>210</v>
-      </c>
-      <c r="N25" s="62" t="s">
+      <c r="M25" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="N25" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="O25" s="62" t="s">
+      <c r="O25" s="59" t="s">
         <v>199</v>
       </c>
-      <c r="P25" s="63" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q25" s="62" t="s">
+      <c r="P25" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q25" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="R25" s="62" t="s">
+      <c r="R25" s="59" t="s">
         <v>199</v>
       </c>
-      <c r="S25" s="63" t="s">
-        <v>210</v>
-      </c>
-      <c r="T25" s="64" t="s">
+      <c r="S25" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="T25" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="U25" s="62" t="s">
+      <c r="U25" s="59" t="s">
         <v>199</v>
       </c>
-      <c r="V25" s="63" t="s">
+      <c r="V25" s="60" t="s">
         <v>210</v>
       </c>
       <c r="Y25" s="24" t="s">
@@ -6480,67 +6485,67 @@
       </c>
     </row>
     <row r="26" spans="2:25" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="62" t="s">
+      <c r="B26" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="62" t="s">
+      <c r="C26" s="59" t="s">
         <v>202</v>
       </c>
-      <c r="D26" s="63" t="s">
-        <v>210</v>
-      </c>
-      <c r="E26" s="62" t="s">
+      <c r="D26" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="E26" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="62" t="s">
+      <c r="F26" s="59" t="s">
         <v>202</v>
       </c>
-      <c r="G26" s="63" t="s">
-        <v>210</v>
-      </c>
-      <c r="H26" s="62" t="s">
+      <c r="G26" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="H26" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="62" t="s">
+      <c r="I26" s="59" t="s">
         <v>202</v>
       </c>
-      <c r="J26" s="63" t="s">
-        <v>210</v>
-      </c>
-      <c r="K26" s="62" t="s">
+      <c r="J26" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="K26" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="L26" s="62" t="s">
+      <c r="L26" s="59" t="s">
         <v>202</v>
       </c>
-      <c r="M26" s="63" t="s">
-        <v>210</v>
-      </c>
-      <c r="N26" s="62" t="s">
+      <c r="M26" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="N26" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="O26" s="62" t="s">
+      <c r="O26" s="59" t="s">
         <v>202</v>
       </c>
-      <c r="P26" s="63" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q26" s="62" t="s">
+      <c r="P26" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q26" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="R26" s="62" t="s">
+      <c r="R26" s="59" t="s">
         <v>202</v>
       </c>
-      <c r="S26" s="63" t="s">
-        <v>210</v>
-      </c>
-      <c r="T26" s="62" t="s">
+      <c r="S26" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="T26" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="U26" s="62" t="s">
+      <c r="U26" s="59" t="s">
         <v>202</v>
       </c>
-      <c r="V26" s="63" t="s">
+      <c r="V26" s="60" t="s">
         <v>210</v>
       </c>
       <c r="Y26" s="26" t="s">
@@ -6548,67 +6553,67 @@
       </c>
     </row>
     <row r="27" spans="2:25" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="56" t="s">
+      <c r="B27" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="56" t="s">
+      <c r="C27" s="59" t="s">
         <v>202</v>
       </c>
-      <c r="D27" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="E27" s="56" t="s">
+      <c r="D27" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="E27" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="F27" s="56" t="s">
+      <c r="F27" s="59" t="s">
         <v>202</v>
       </c>
-      <c r="G27" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="H27" s="56" t="s">
+      <c r="G27" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="H27" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="I27" s="56" t="s">
+      <c r="I27" s="59" t="s">
         <v>202</v>
       </c>
-      <c r="J27" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="K27" s="56" t="s">
+      <c r="J27" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="K27" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="L27" s="56" t="s">
+      <c r="L27" s="59" t="s">
         <v>202</v>
       </c>
-      <c r="M27" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="N27" s="56" t="s">
+      <c r="M27" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="N27" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="O27" s="56" t="s">
+      <c r="O27" s="59" t="s">
         <v>202</v>
       </c>
-      <c r="P27" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q27" s="56" t="s">
+      <c r="P27" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q27" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="R27" s="56" t="s">
+      <c r="R27" s="59" t="s">
         <v>202</v>
       </c>
-      <c r="S27" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="T27" s="56" t="s">
+      <c r="S27" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="T27" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="U27" s="56" t="s">
+      <c r="U27" s="59" t="s">
         <v>202</v>
       </c>
-      <c r="V27" s="57" t="s">
+      <c r="V27" s="60" t="s">
         <v>210</v>
       </c>
       <c r="Y27" s="25" t="s">
@@ -6616,67 +6621,67 @@
       </c>
     </row>
     <row r="28" spans="2:25" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="56" t="s">
+      <c r="B28" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="56" t="s">
+      <c r="C28" s="59" t="s">
         <v>202</v>
       </c>
-      <c r="D28" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="E28" s="56" t="s">
+      <c r="D28" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="E28" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="F28" s="56" t="s">
+      <c r="F28" s="59" t="s">
         <v>202</v>
       </c>
-      <c r="G28" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="H28" s="56" t="s">
+      <c r="G28" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="H28" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="I28" s="56" t="s">
+      <c r="I28" s="59" t="s">
         <v>202</v>
       </c>
-      <c r="J28" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="K28" s="56" t="s">
+      <c r="J28" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="K28" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="L28" s="56" t="s">
+      <c r="L28" s="59" t="s">
         <v>202</v>
       </c>
-      <c r="M28" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="N28" s="56" t="s">
+      <c r="M28" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="N28" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="O28" s="56" t="s">
+      <c r="O28" s="59" t="s">
         <v>202</v>
       </c>
-      <c r="P28" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q28" s="56" t="s">
+      <c r="P28" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q28" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="R28" s="56" t="s">
+      <c r="R28" s="59" t="s">
         <v>202</v>
       </c>
-      <c r="S28" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="T28" s="56" t="s">
+      <c r="S28" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="T28" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="U28" s="56" t="s">
+      <c r="U28" s="59" t="s">
         <v>202</v>
       </c>
-      <c r="V28" s="57" t="s">
+      <c r="V28" s="60" t="s">
         <v>210</v>
       </c>
       <c r="Y28" s="25" t="s">
@@ -6684,199 +6689,199 @@
       </c>
     </row>
     <row r="29" spans="2:25" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="56" t="s">
+      <c r="B29" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="56" t="s">
+      <c r="C29" s="59" t="s">
         <v>202</v>
       </c>
-      <c r="D29" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="E29" s="56" t="s">
+      <c r="D29" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="E29" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="F29" s="56" t="s">
+      <c r="F29" s="59" t="s">
         <v>202</v>
       </c>
-      <c r="G29" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="H29" s="56" t="s">
+      <c r="G29" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="H29" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="I29" s="56" t="s">
+      <c r="I29" s="59" t="s">
         <v>202</v>
       </c>
-      <c r="J29" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="K29" s="56" t="s">
+      <c r="J29" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="K29" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="L29" s="56" t="s">
+      <c r="L29" s="59" t="s">
         <v>202</v>
       </c>
-      <c r="M29" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="N29" s="56" t="s">
+      <c r="M29" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="N29" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="O29" s="56" t="s">
+      <c r="O29" s="59" t="s">
         <v>202</v>
       </c>
-      <c r="P29" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q29" s="56" t="s">
+      <c r="P29" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q29" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="R29" s="56" t="s">
+      <c r="R29" s="59" t="s">
         <v>202</v>
       </c>
-      <c r="S29" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="T29" s="56" t="s">
+      <c r="S29" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="T29" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="U29" s="56" t="s">
+      <c r="U29" s="59" t="s">
         <v>202</v>
       </c>
-      <c r="V29" s="57" t="s">
+      <c r="V29" s="60" t="s">
         <v>210</v>
       </c>
       <c r="Y29" s="25"/>
     </row>
     <row r="30" spans="2:25" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="56" t="s">
+      <c r="B30" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="56" t="s">
+      <c r="C30" s="59" t="s">
         <v>202</v>
       </c>
-      <c r="D30" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="E30" s="56" t="s">
+      <c r="D30" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="E30" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="F30" s="56" t="s">
+      <c r="F30" s="59" t="s">
         <v>202</v>
       </c>
-      <c r="G30" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="H30" s="56" t="s">
+      <c r="G30" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="H30" s="59" t="s">
         <v>243</v>
       </c>
-      <c r="I30" s="56" t="s">
+      <c r="I30" s="59" t="s">
         <v>202</v>
       </c>
-      <c r="J30" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="K30" s="56" t="s">
+      <c r="J30" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="K30" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="L30" s="56" t="s">
+      <c r="L30" s="59" t="s">
         <v>202</v>
       </c>
-      <c r="M30" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="N30" s="56" t="s">
+      <c r="M30" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="N30" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="O30" s="56" t="s">
+      <c r="O30" s="59" t="s">
         <v>202</v>
       </c>
-      <c r="P30" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q30" s="56" t="s">
+      <c r="P30" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q30" s="59" t="s">
         <v>244</v>
       </c>
-      <c r="R30" s="56" t="s">
+      <c r="R30" s="59" t="s">
         <v>202</v>
       </c>
-      <c r="S30" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="T30" s="56" t="s">
+      <c r="S30" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="T30" s="59" t="s">
         <v>244</v>
       </c>
-      <c r="U30" s="56" t="s">
+      <c r="U30" s="59" t="s">
         <v>202</v>
       </c>
-      <c r="V30" s="57" t="s">
+      <c r="V30" s="60" t="s">
         <v>210</v>
       </c>
       <c r="Y30" s="25"/>
     </row>
     <row r="31" spans="2:25" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="56" t="s">
+      <c r="B31" s="59" t="s">
         <v>245</v>
       </c>
-      <c r="C31" s="56" t="s">
+      <c r="C31" s="59" t="s">
         <v>203</v>
       </c>
-      <c r="D31" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="E31" s="58" t="s">
+      <c r="D31" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="E31" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="F31" s="56" t="s">
+      <c r="F31" s="59" t="s">
         <v>203</v>
       </c>
-      <c r="G31" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="H31" s="56" t="s">
+      <c r="G31" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="H31" s="59" t="s">
         <v>245</v>
       </c>
-      <c r="I31" s="56" t="s">
+      <c r="I31" s="59" t="s">
         <v>203</v>
       </c>
-      <c r="J31" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="K31" s="58" t="s">
+      <c r="J31" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="K31" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="L31" s="56" t="s">
+      <c r="L31" s="59" t="s">
         <v>203</v>
       </c>
-      <c r="M31" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="N31" s="56" t="s">
+      <c r="M31" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="N31" s="59" t="s">
         <v>245</v>
       </c>
-      <c r="O31" s="56" t="s">
+      <c r="O31" s="59" t="s">
         <v>203</v>
       </c>
-      <c r="P31" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q31" s="58" t="s">
+      <c r="P31" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q31" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="R31" s="56" t="s">
+      <c r="R31" s="59" t="s">
         <v>203</v>
       </c>
-      <c r="S31" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="T31" s="56" t="s">
+      <c r="S31" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="T31" s="59" t="s">
         <v>245</v>
       </c>
-      <c r="U31" s="56" t="s">
+      <c r="U31" s="59" t="s">
         <v>203</v>
       </c>
-      <c r="V31" s="57" t="s">
+      <c r="V31" s="60" t="s">
         <v>210</v>
       </c>
       <c r="Y31" s="24" t="s">
@@ -6884,67 +6889,67 @@
       </c>
     </row>
     <row r="32" spans="2:25" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="56" t="s">
+      <c r="B32" s="59" t="s">
         <v>246</v>
       </c>
-      <c r="C32" s="56" t="s">
+      <c r="C32" s="59" t="s">
         <v>203</v>
       </c>
-      <c r="D32" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="E32" s="56" t="s">
+      <c r="D32" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="E32" s="59" t="s">
         <v>249</v>
       </c>
-      <c r="F32" s="56" t="s">
+      <c r="F32" s="59" t="s">
         <v>203</v>
       </c>
-      <c r="G32" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="H32" s="56" t="s">
+      <c r="G32" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="H32" s="59" t="s">
         <v>246</v>
       </c>
-      <c r="I32" s="56" t="s">
+      <c r="I32" s="59" t="s">
         <v>203</v>
       </c>
-      <c r="J32" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="K32" s="56" t="s">
+      <c r="J32" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="K32" s="59" t="s">
         <v>249</v>
       </c>
-      <c r="L32" s="56" t="s">
+      <c r="L32" s="59" t="s">
         <v>203</v>
       </c>
-      <c r="M32" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="N32" s="56" t="s">
+      <c r="M32" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="N32" s="59" t="s">
         <v>246</v>
       </c>
-      <c r="O32" s="56" t="s">
+      <c r="O32" s="59" t="s">
         <v>203</v>
       </c>
-      <c r="P32" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q32" s="56" t="s">
+      <c r="P32" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q32" s="59" t="s">
         <v>249</v>
       </c>
-      <c r="R32" s="56" t="s">
+      <c r="R32" s="59" t="s">
         <v>203</v>
       </c>
-      <c r="S32" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="T32" s="56" t="s">
+      <c r="S32" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="T32" s="59" t="s">
         <v>246</v>
       </c>
-      <c r="U32" s="56" t="s">
+      <c r="U32" s="59" t="s">
         <v>203</v>
       </c>
-      <c r="V32" s="57" t="s">
+      <c r="V32" s="60" t="s">
         <v>210</v>
       </c>
       <c r="Y32" s="26" t="s">
@@ -6952,67 +6957,67 @@
       </c>
     </row>
     <row r="33" spans="2:25" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="56" t="s">
+      <c r="B33" s="59" t="s">
         <v>247</v>
       </c>
-      <c r="C33" s="56" t="s">
+      <c r="C33" s="59" t="s">
         <v>203</v>
       </c>
-      <c r="D33" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="E33" s="56" t="s">
+      <c r="D33" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="E33" s="59" t="s">
         <v>248</v>
       </c>
-      <c r="F33" s="56" t="s">
+      <c r="F33" s="59" t="s">
         <v>203</v>
       </c>
-      <c r="G33" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="H33" s="56" t="s">
+      <c r="G33" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="H33" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="I33" s="56" t="s">
+      <c r="I33" s="59" t="s">
         <v>203</v>
       </c>
-      <c r="J33" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="K33" s="56" t="s">
+      <c r="J33" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="K33" s="59" t="s">
         <v>250</v>
       </c>
-      <c r="L33" s="56" t="s">
+      <c r="L33" s="59" t="s">
         <v>203</v>
       </c>
-      <c r="M33" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="N33" s="56" t="s">
+      <c r="M33" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="N33" s="59" t="s">
         <v>247</v>
       </c>
-      <c r="O33" s="56" t="s">
+      <c r="O33" s="59" t="s">
         <v>203</v>
       </c>
-      <c r="P33" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q33" s="56" t="s">
+      <c r="P33" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q33" s="59" t="s">
         <v>248</v>
       </c>
-      <c r="R33" s="56" t="s">
+      <c r="R33" s="59" t="s">
         <v>203</v>
       </c>
-      <c r="S33" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="T33" s="56" t="s">
+      <c r="S33" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="T33" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="U33" s="56" t="s">
+      <c r="U33" s="59" t="s">
         <v>203</v>
       </c>
-      <c r="V33" s="57" t="s">
+      <c r="V33" s="60" t="s">
         <v>210</v>
       </c>
       <c r="Y33" s="25" t="s">
@@ -7020,67 +7025,67 @@
       </c>
     </row>
     <row r="34" spans="2:25" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="56" t="s">
+      <c r="B34" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="C34" s="56" t="s">
+      <c r="C34" s="59" t="s">
         <v>204</v>
       </c>
-      <c r="D34" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="E34" s="56" t="s">
+      <c r="D34" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="E34" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="F34" s="56" t="s">
+      <c r="F34" s="59" t="s">
         <v>204</v>
       </c>
-      <c r="G34" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="H34" s="56" t="s">
+      <c r="G34" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="H34" s="59" t="s">
         <v>262</v>
       </c>
-      <c r="I34" s="56" t="s">
+      <c r="I34" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="J34" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="K34" s="56" t="s">
+      <c r="J34" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="K34" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="L34" s="56" t="s">
+      <c r="L34" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="M34" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="N34" s="56" t="s">
+      <c r="M34" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="N34" s="59" t="s">
         <v>253</v>
       </c>
-      <c r="O34" s="56" t="s">
+      <c r="O34" s="59" t="s">
         <v>204</v>
       </c>
-      <c r="P34" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q34" s="56" t="s">
+      <c r="P34" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q34" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="R34" s="56" t="s">
+      <c r="R34" s="59" t="s">
         <v>204</v>
       </c>
-      <c r="S34" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="T34" s="56" t="s">
+      <c r="S34" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="T34" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="U34" s="56" t="s">
+      <c r="U34" s="59" t="s">
         <v>204</v>
       </c>
-      <c r="V34" s="57" t="s">
+      <c r="V34" s="60" t="s">
         <v>210</v>
       </c>
       <c r="Y34" s="25" t="s">
@@ -7088,67 +7093,67 @@
       </c>
     </row>
     <row r="35" spans="2:25" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="56" t="s">
+      <c r="B35" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="C35" s="56" t="s">
+      <c r="C35" s="59" t="s">
         <v>204</v>
       </c>
-      <c r="D35" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="E35" s="56" t="s">
+      <c r="D35" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="E35" s="59" t="s">
         <v>263</v>
       </c>
-      <c r="F35" s="56" t="s">
+      <c r="F35" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="G35" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="H35" s="56" t="s">
+      <c r="G35" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="H35" s="59" t="s">
         <v>264</v>
       </c>
-      <c r="I35" s="56" t="s">
+      <c r="I35" s="59" t="s">
         <v>204</v>
       </c>
-      <c r="J35" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="K35" s="56" t="s">
+      <c r="J35" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="K35" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="L35" s="56" t="s">
+      <c r="L35" s="59" t="s">
         <v>204</v>
       </c>
-      <c r="M35" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="N35" s="56" t="s">
+      <c r="M35" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="N35" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="O35" s="56" t="s">
+      <c r="O35" s="59" t="s">
         <v>204</v>
       </c>
-      <c r="P35" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q35" s="56" t="s">
+      <c r="P35" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q35" s="59" t="s">
         <v>254</v>
       </c>
-      <c r="R35" s="56" t="s">
+      <c r="R35" s="59" t="s">
         <v>204</v>
       </c>
-      <c r="S35" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="T35" s="56" t="s">
+      <c r="S35" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="T35" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="U35" s="56" t="s">
+      <c r="U35" s="59" t="s">
         <v>204</v>
       </c>
-      <c r="V35" s="57" t="s">
+      <c r="V35" s="60" t="s">
         <v>210</v>
       </c>
       <c r="Y35" s="24" t="s">
@@ -7156,67 +7161,67 @@
       </c>
     </row>
     <row r="36" spans="2:25" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="56" t="s">
+      <c r="B36" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="56" t="s">
+      <c r="C36" s="59" t="s">
         <v>204</v>
       </c>
-      <c r="D36" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="E36" s="56" t="s">
+      <c r="D36" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="E36" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="F36" s="56" t="s">
+      <c r="F36" s="59" t="s">
         <v>204</v>
       </c>
-      <c r="G36" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="H36" s="56" t="s">
+      <c r="G36" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="H36" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="I36" s="56" t="s">
+      <c r="I36" s="59" t="s">
         <v>204</v>
       </c>
-      <c r="J36" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="K36" s="56" t="s">
+      <c r="J36" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="K36" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="L36" s="56" t="s">
+      <c r="L36" s="59" t="s">
         <v>204</v>
       </c>
-      <c r="M36" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="N36" s="56" t="s">
+      <c r="M36" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="N36" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="O36" s="56" t="s">
+      <c r="O36" s="59" t="s">
         <v>204</v>
       </c>
-      <c r="P36" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q36" s="56" t="s">
+      <c r="P36" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q36" s="59" t="s">
         <v>265</v>
       </c>
-      <c r="R36" s="56" t="s">
+      <c r="R36" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="S36" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="T36" s="56" t="s">
+      <c r="S36" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="T36" s="59" t="s">
         <v>255</v>
       </c>
-      <c r="U36" s="56" t="s">
+      <c r="U36" s="59" t="s">
         <v>204</v>
       </c>
-      <c r="V36" s="57" t="s">
+      <c r="V36" s="60" t="s">
         <v>210</v>
       </c>
       <c r="Y36" s="25" t="s">
@@ -7224,67 +7229,67 @@
       </c>
     </row>
     <row r="37" spans="2:25" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="59" t="s">
+      <c r="B37" s="51" t="s">
         <v>351</v>
       </c>
-      <c r="C37" s="56" t="s">
+      <c r="C37" s="49" t="s">
         <v>205</v>
       </c>
-      <c r="D37" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="E37" s="59" t="s">
+      <c r="D37" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="E37" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="F37" s="56" t="s">
+      <c r="F37" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="G37" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="H37" s="59" t="s">
+      <c r="G37" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="H37" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="I37" s="60" t="s">
+      <c r="I37" s="62" t="s">
         <v>204</v>
       </c>
-      <c r="J37" s="61" t="s">
-        <v>210</v>
-      </c>
-      <c r="K37" s="59" t="s">
+      <c r="J37" s="63" t="s">
+        <v>210</v>
+      </c>
+      <c r="K37" s="51" t="s">
         <v>355</v>
       </c>
-      <c r="L37" s="56" t="s">
+      <c r="L37" s="49" t="s">
         <v>205</v>
       </c>
-      <c r="M37" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="N37" s="59" t="s">
+      <c r="M37" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="N37" s="51" t="s">
         <v>354</v>
       </c>
-      <c r="O37" s="56" t="s">
+      <c r="O37" s="49" t="s">
         <v>205</v>
       </c>
-      <c r="P37" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q37" s="59" t="s">
+      <c r="P37" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q37" s="51" t="s">
         <v>353</v>
       </c>
-      <c r="R37" s="56" t="s">
+      <c r="R37" s="49" t="s">
         <v>205</v>
       </c>
-      <c r="S37" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="T37" s="59" t="s">
+      <c r="S37" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="T37" s="51" t="s">
         <v>352</v>
       </c>
-      <c r="U37" s="56" t="s">
+      <c r="U37" s="49" t="s">
         <v>205</v>
       </c>
-      <c r="V37" s="57" t="s">
+      <c r="V37" s="50" t="s">
         <v>210</v>
       </c>
       <c r="Y37" s="26" t="s">
@@ -7292,133 +7297,133 @@
       </c>
     </row>
     <row r="38" spans="2:25" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="59" t="s">
+      <c r="B38" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="C38" s="59" t="s">
+      <c r="C38" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="D38" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="E38" s="59" t="s">
+      <c r="D38" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="E38" s="39" t="s">
         <v>266</v>
       </c>
-      <c r="F38" s="59" t="s">
+      <c r="F38" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="G38" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="H38" s="59" t="s">
+      <c r="G38" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="H38" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="I38" s="59" t="s">
+      <c r="I38" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="J38" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="K38" s="59" t="s">
+      <c r="J38" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="K38" s="39" t="s">
         <v>266</v>
       </c>
-      <c r="L38" s="59" t="s">
+      <c r="L38" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="M38" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="N38" s="59" t="s">
+      <c r="M38" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="N38" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="O38" s="59" t="s">
+      <c r="O38" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="P38" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q38" s="59" t="s">
+      <c r="P38" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q38" s="39" t="s">
         <v>266</v>
       </c>
-      <c r="R38" s="59" t="s">
+      <c r="R38" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="S38" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="T38" s="59" t="s">
+      <c r="S38" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="T38" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="U38" s="59" t="s">
+      <c r="U38" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="V38" s="57" t="s">
+      <c r="V38" s="38" t="s">
         <v>210</v>
       </c>
       <c r="Y38" s="26"/>
     </row>
     <row r="39" spans="2:25" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="56" t="s">
+      <c r="B39" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="C39" s="59" t="s">
+      <c r="C39" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="D39" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="E39" s="56" t="s">
+      <c r="D39" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="E39" s="29" t="s">
         <v>267</v>
       </c>
-      <c r="F39" s="59" t="s">
+      <c r="F39" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="G39" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="H39" s="56" t="s">
+      <c r="G39" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="H39" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="I39" s="59" t="s">
+      <c r="I39" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="J39" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="K39" s="56" t="s">
+      <c r="J39" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="K39" s="29" t="s">
         <v>267</v>
       </c>
-      <c r="L39" s="59" t="s">
+      <c r="L39" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="M39" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="N39" s="56" t="s">
+      <c r="M39" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="N39" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="O39" s="59" t="s">
+      <c r="O39" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="P39" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q39" s="56" t="s">
+      <c r="P39" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q39" s="29" t="s">
         <v>267</v>
       </c>
-      <c r="R39" s="59" t="s">
+      <c r="R39" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="S39" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="T39" s="56" t="s">
+      <c r="S39" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="T39" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="U39" s="59" t="s">
+      <c r="U39" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="V39" s="57" t="s">
+      <c r="V39" s="38" t="s">
         <v>210</v>
       </c>
       <c r="Y39" s="26" t="s">
@@ -7426,67 +7431,67 @@
       </c>
     </row>
     <row r="40" spans="2:25" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="56" t="s">
+      <c r="B40" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="C40" s="59" t="s">
+      <c r="C40" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="D40" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="E40" s="56" t="s">
+      <c r="D40" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="E40" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="F40" s="59" t="s">
+      <c r="F40" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="G40" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="H40" s="56" t="s">
+      <c r="G40" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="H40" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="I40" s="59" t="s">
+      <c r="I40" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="J40" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="K40" s="56" t="s">
+      <c r="J40" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="K40" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="L40" s="59" t="s">
+      <c r="L40" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="M40" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="N40" s="56" t="s">
+      <c r="M40" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="N40" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="O40" s="59" t="s">
+      <c r="O40" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="P40" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q40" s="56" t="s">
+      <c r="P40" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q40" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="R40" s="59" t="s">
+      <c r="R40" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="S40" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="T40" s="56" t="s">
+      <c r="S40" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="T40" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="U40" s="59" t="s">
+      <c r="U40" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="V40" s="57" t="s">
+      <c r="V40" s="38" t="s">
         <v>210</v>
       </c>
       <c r="Y40" s="26" t="s">
@@ -8416,7 +8421,7 @@
       <c r="B5" t="s">
         <v>198</v>
       </c>
-      <c r="H5" s="36" t="s">
+      <c r="H5" s="32" t="s">
         <v>333</v>
       </c>
     </row>
@@ -8427,7 +8432,7 @@
       <c r="B6" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="H6" s="36" t="s">
+      <c r="H6" s="32" t="s">
         <v>334</v>
       </c>
     </row>
@@ -8471,7 +8476,7 @@
       <c r="B10" t="s">
         <v>198</v>
       </c>
-      <c r="H10" s="37" t="s">
+      <c r="H10" s="33" t="s">
         <v>338</v>
       </c>
     </row>
@@ -8556,7 +8561,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="35" t="s">
         <v>285</v>
       </c>
       <c r="B25" t="s">
@@ -9909,7 +9914,7 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="36" t="s">
         <v>60</v>
       </c>
       <c r="B2">
@@ -9918,7 +9923,7 @@
       <c r="C2">
         <v>104</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="36" t="s">
         <v>60</v>
       </c>
       <c r="G2">
@@ -9929,7 +9934,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="36" t="s">
         <v>61</v>
       </c>
       <c r="B3">
@@ -9938,7 +9943,7 @@
       <c r="C3">
         <v>102</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="F3" s="36" t="s">
         <v>61</v>
       </c>
       <c r="G3">
@@ -9949,16 +9954,16 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="39">
+      <c r="B4" s="35">
         <v>27</v>
       </c>
-      <c r="C4" s="39">
+      <c r="C4" s="35">
         <v>27</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="36" t="s">
         <v>63</v>
       </c>
       <c r="G4">
@@ -9990,7 +9995,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="36" t="s">
         <v>63</v>
       </c>
       <c r="B5">
@@ -9999,7 +10004,7 @@
       <c r="C5">
         <v>31</v>
       </c>
-      <c r="F5" s="41" t="s">
+      <c r="F5" s="37" t="s">
         <v>65</v>
       </c>
       <c r="G5">
@@ -10013,7 +10018,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="35" t="s">
         <v>64</v>
       </c>
       <c r="B6">
@@ -10022,7 +10027,7 @@
       <c r="C6">
         <v>9</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="36" t="s">
         <v>67</v>
       </c>
       <c r="G6">
@@ -10036,7 +10041,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="36" t="s">
         <v>65</v>
       </c>
       <c r="B7">
@@ -10045,7 +10050,7 @@
       <c r="C7">
         <v>160</v>
       </c>
-      <c r="F7" s="41" t="s">
+      <c r="F7" s="37" t="s">
         <v>69</v>
       </c>
       <c r="G7">
@@ -10059,7 +10064,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="35" t="s">
         <v>66</v>
       </c>
       <c r="B8">
@@ -10068,7 +10073,7 @@
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="36" t="s">
         <v>71</v>
       </c>
       <c r="G8">
@@ -10082,7 +10087,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="36" t="s">
         <v>67</v>
       </c>
       <c r="B9">
@@ -10091,7 +10096,7 @@
       <c r="C9">
         <v>161</v>
       </c>
-      <c r="F9" s="40" t="s">
+      <c r="F9" s="36" t="s">
         <v>72</v>
       </c>
       <c r="G9">
@@ -10123,7 +10128,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="35" t="s">
         <v>68</v>
       </c>
       <c r="B10">
@@ -10132,7 +10137,7 @@
       <c r="C10">
         <v>0</v>
       </c>
-      <c r="F10" s="40" t="s">
+      <c r="F10" s="36" t="s">
         <v>75</v>
       </c>
       <c r="G10">
@@ -10164,7 +10169,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="36" t="s">
         <v>69</v>
       </c>
       <c r="B11">
@@ -10173,7 +10178,7 @@
       <c r="C11">
         <v>147</v>
       </c>
-      <c r="F11" s="40" t="s">
+      <c r="F11" s="36" t="s">
         <v>78</v>
       </c>
       <c r="G11">
@@ -10184,7 +10189,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="36" t="s">
         <v>71</v>
       </c>
       <c r="B12">
@@ -10193,7 +10198,7 @@
       <c r="C12">
         <v>285</v>
       </c>
-      <c r="F12" s="40" t="s">
+      <c r="F12" s="36" t="s">
         <v>79</v>
       </c>
       <c r="G12">
@@ -10204,7 +10209,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="35" t="s">
         <v>255</v>
       </c>
       <c r="B13">
@@ -10213,7 +10218,7 @@
       <c r="C13">
         <v>5</v>
       </c>
-      <c r="F13" s="40" t="s">
+      <c r="F13" s="36" t="s">
         <v>82</v>
       </c>
       <c r="G13">
@@ -10224,7 +10229,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="36" t="s">
         <v>72</v>
       </c>
       <c r="B14">
@@ -10233,7 +10238,7 @@
       <c r="C14">
         <v>33</v>
       </c>
-      <c r="F14" s="40" t="s">
+      <c r="F14" s="36" t="s">
         <v>87</v>
       </c>
       <c r="G14">
@@ -10244,7 +10249,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="35" t="s">
         <v>73</v>
       </c>
       <c r="B15">
@@ -10253,7 +10258,7 @@
       <c r="C15">
         <v>0</v>
       </c>
-      <c r="F15" s="40" t="s">
+      <c r="F15" s="36" t="s">
         <v>90</v>
       </c>
       <c r="G15">
@@ -10264,7 +10269,7 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="35" t="s">
         <v>74</v>
       </c>
       <c r="B16">
@@ -10273,7 +10278,7 @@
       <c r="C16">
         <v>31</v>
       </c>
-      <c r="F16" s="40" t="s">
+      <c r="F16" s="36" t="s">
         <v>95</v>
       </c>
       <c r="G16">
@@ -10284,7 +10289,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="36" t="s">
         <v>75</v>
       </c>
       <c r="B17">
@@ -10293,7 +10298,7 @@
       <c r="C17">
         <v>66</v>
       </c>
-      <c r="F17" s="41" t="s">
+      <c r="F17" s="37" t="s">
         <v>97</v>
       </c>
       <c r="G17">
@@ -10304,7 +10309,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="35" t="s">
         <v>76</v>
       </c>
       <c r="B18">
@@ -10313,7 +10318,7 @@
       <c r="C18">
         <v>3</v>
       </c>
-      <c r="F18" s="40" t="s">
+      <c r="F18" s="36" t="s">
         <v>98</v>
       </c>
       <c r="G18">
@@ -10324,7 +10329,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="35" t="s">
         <v>77</v>
       </c>
       <c r="B19">
@@ -10333,7 +10338,7 @@
       <c r="C19">
         <v>0</v>
       </c>
-      <c r="F19" s="41" t="s">
+      <c r="F19" s="37" t="s">
         <v>99</v>
       </c>
       <c r="G19">
@@ -10344,7 +10349,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="36" t="s">
         <v>78</v>
       </c>
       <c r="B20">
@@ -10355,7 +10360,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="36" t="s">
         <v>79</v>
       </c>
       <c r="B21">
@@ -10366,7 +10371,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="35" t="s">
         <v>80</v>
       </c>
       <c r="B22">
@@ -10377,7 +10382,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="39" t="s">
+      <c r="A23" s="35" t="s">
         <v>81</v>
       </c>
       <c r="B23">
@@ -10388,7 +10393,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="40" t="s">
+      <c r="A24" s="36" t="s">
         <v>82</v>
       </c>
       <c r="B24">
@@ -10399,7 +10404,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="35" t="s">
         <v>83</v>
       </c>
       <c r="B25">
@@ -10410,7 +10415,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="39" t="s">
+      <c r="A26" s="35" t="s">
         <v>84</v>
       </c>
       <c r="B26">
@@ -10421,7 +10426,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="39" t="s">
+      <c r="A27" s="35" t="s">
         <v>85</v>
       </c>
       <c r="B27">
@@ -10432,7 +10437,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="39" t="s">
+      <c r="A28" s="35" t="s">
         <v>86</v>
       </c>
       <c r="B28">
@@ -10443,7 +10448,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="40" t="s">
+      <c r="A29" s="36" t="s">
         <v>87</v>
       </c>
       <c r="B29">
@@ -10454,7 +10459,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="39" t="s">
+      <c r="A30" s="35" t="s">
         <v>88</v>
       </c>
       <c r="B30">
@@ -10465,7 +10470,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="39" t="s">
+      <c r="A31" s="35" t="s">
         <v>89</v>
       </c>
       <c r="B31">
@@ -10476,7 +10481,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="36" t="s">
         <v>90</v>
       </c>
       <c r="B32">
@@ -10487,7 +10492,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="39" t="s">
+      <c r="A33" s="35" t="s">
         <v>91</v>
       </c>
       <c r="B33">
@@ -10498,7 +10503,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="39" t="s">
+      <c r="A34" s="35" t="s">
         <v>92</v>
       </c>
       <c r="B34">
@@ -10509,7 +10514,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="39" t="s">
+      <c r="A35" s="35" t="s">
         <v>93</v>
       </c>
       <c r="B35">
@@ -10520,7 +10525,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="39" t="s">
+      <c r="A36" s="35" t="s">
         <v>94</v>
       </c>
       <c r="B36">
@@ -10531,7 +10536,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="40" t="s">
+      <c r="A37" s="36" t="s">
         <v>95</v>
       </c>
       <c r="B37">
@@ -10542,7 +10547,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="39" t="s">
+      <c r="A38" s="35" t="s">
         <v>96</v>
       </c>
       <c r="B38">
@@ -10553,7 +10558,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="40" t="s">
+      <c r="A39" s="36" t="s">
         <v>97</v>
       </c>
       <c r="B39">
@@ -10564,7 +10569,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="40" t="s">
+      <c r="A40" s="36" t="s">
         <v>98</v>
       </c>
       <c r="B40">
@@ -10575,7 +10580,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="40" t="s">
+      <c r="A41" s="36" t="s">
         <v>99</v>
       </c>
       <c r="B41">
@@ -10586,7 +10591,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="39" t="s">
+      <c r="A42" s="35" t="s">
         <v>100</v>
       </c>
       <c r="B42">
@@ -10597,7 +10602,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="39" t="s">
+      <c r="A43" s="35" t="s">
         <v>101</v>
       </c>
       <c r="B43">
@@ -10608,7 +10613,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="39" t="s">
+      <c r="A44" s="35" t="s">
         <v>102</v>
       </c>
       <c r="B44">
@@ -10619,7 +10624,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="39" t="s">
+      <c r="A45" s="35" t="s">
         <v>103</v>
       </c>
       <c r="B45">
@@ -10638,8 +10643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8471A23D-5A87-3143-B749-B5FC9B0305BF}">
   <dimension ref="A1:V797"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:V63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -10721,41 +10726,41 @@
       <c r="V2" s="8"/>
     </row>
     <row r="3" spans="2:22" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="46" t="s">
         <v>189</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="53" t="s">
+      <c r="C3" s="47"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="46" t="s">
         <v>190</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="53" t="s">
+      <c r="F3" s="47"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="46" t="s">
         <v>191</v>
       </c>
-      <c r="I3" s="54"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="53" t="s">
+      <c r="I3" s="47"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="46" t="s">
         <v>192</v>
       </c>
-      <c r="L3" s="54"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="53" t="s">
+      <c r="L3" s="47"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="46" t="s">
         <v>193</v>
       </c>
-      <c r="O3" s="54"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="53" t="s">
+      <c r="O3" s="47"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="46" t="s">
         <v>194</v>
       </c>
-      <c r="R3" s="54"/>
-      <c r="S3" s="55"/>
-      <c r="T3" s="53" t="s">
+      <c r="R3" s="47"/>
+      <c r="S3" s="48"/>
+      <c r="T3" s="46" t="s">
         <v>196</v>
       </c>
-      <c r="U3" s="54"/>
-      <c r="V3" s="55"/>
+      <c r="U3" s="47"/>
+      <c r="V3" s="48"/>
     </row>
     <row r="4" spans="2:22" s="9" customFormat="1" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
@@ -10823,559 +10828,559 @@
       </c>
     </row>
     <row r="5" spans="2:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="49" t="s">
         <v>226</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="49" t="s">
         <v>197</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="31" t="s">
+      <c r="D5" s="50"/>
+      <c r="E5" s="49" t="s">
         <v>226</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="49" t="s">
         <v>197</v>
       </c>
-      <c r="G5" s="32"/>
-      <c r="H5" s="31" t="s">
+      <c r="G5" s="50"/>
+      <c r="H5" s="49" t="s">
         <v>226</v>
       </c>
-      <c r="I5" s="31" t="s">
+      <c r="I5" s="49" t="s">
         <v>197</v>
       </c>
-      <c r="J5" s="32"/>
-      <c r="K5" s="31" t="s">
+      <c r="J5" s="50"/>
+      <c r="K5" s="49" t="s">
         <v>226</v>
       </c>
-      <c r="L5" s="31" t="s">
+      <c r="L5" s="49" t="s">
         <v>197</v>
       </c>
-      <c r="M5" s="32"/>
-      <c r="N5" s="31" t="s">
+      <c r="M5" s="50"/>
+      <c r="N5" s="49" t="s">
         <v>226</v>
       </c>
-      <c r="O5" s="31" t="s">
+      <c r="O5" s="49" t="s">
         <v>197</v>
       </c>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="31" t="s">
+      <c r="P5" s="50"/>
+      <c r="Q5" s="49" t="s">
         <v>226</v>
       </c>
-      <c r="R5" s="31" t="s">
+      <c r="R5" s="49" t="s">
         <v>197</v>
       </c>
-      <c r="S5" s="32"/>
-      <c r="T5" s="31" t="s">
+      <c r="S5" s="50"/>
+      <c r="T5" s="49" t="s">
         <v>226</v>
       </c>
-      <c r="U5" s="31" t="s">
+      <c r="U5" s="49" t="s">
         <v>197</v>
       </c>
-      <c r="V5" s="32"/>
+      <c r="V5" s="50"/>
     </row>
     <row r="6" spans="2:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="49" t="s">
         <v>331</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="49" t="s">
         <v>197</v>
       </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="31" t="s">
+      <c r="D6" s="50"/>
+      <c r="E6" s="49" t="s">
         <v>331</v>
       </c>
-      <c r="F6" s="31" t="s">
+      <c r="F6" s="49" t="s">
         <v>197</v>
       </c>
-      <c r="G6" s="32"/>
-      <c r="H6" s="31" t="s">
+      <c r="G6" s="50"/>
+      <c r="H6" s="49" t="s">
         <v>331</v>
       </c>
-      <c r="I6" s="31" t="s">
+      <c r="I6" s="49" t="s">
         <v>197</v>
       </c>
-      <c r="J6" s="32"/>
-      <c r="K6" s="31" t="s">
+      <c r="J6" s="50"/>
+      <c r="K6" s="49" t="s">
         <v>331</v>
       </c>
-      <c r="L6" s="31" t="s">
+      <c r="L6" s="49" t="s">
         <v>197</v>
       </c>
-      <c r="M6" s="32"/>
-      <c r="N6" s="31" t="s">
+      <c r="M6" s="50"/>
+      <c r="N6" s="49" t="s">
         <v>331</v>
       </c>
-      <c r="O6" s="31" t="s">
+      <c r="O6" s="49" t="s">
         <v>197</v>
       </c>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="31" t="s">
+      <c r="P6" s="50"/>
+      <c r="Q6" s="49" t="s">
         <v>331</v>
       </c>
-      <c r="R6" s="31" t="s">
+      <c r="R6" s="49" t="s">
         <v>197</v>
       </c>
-      <c r="S6" s="32"/>
-      <c r="T6" s="31" t="s">
+      <c r="S6" s="50"/>
+      <c r="T6" s="49" t="s">
         <v>331</v>
       </c>
-      <c r="U6" s="31" t="s">
+      <c r="U6" s="49" t="s">
         <v>197</v>
       </c>
-      <c r="V6" s="32"/>
+      <c r="V6" s="50"/>
     </row>
     <row r="7" spans="2:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="49" t="s">
         <v>275</v>
       </c>
-      <c r="C7" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E7" s="31" t="s">
+      <c r="C7" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="E7" s="49" t="s">
         <v>275</v>
       </c>
-      <c r="F7" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="G7" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="H7" s="31" t="s">
+      <c r="F7" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="G7" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="H7" s="49" t="s">
         <v>275</v>
       </c>
-      <c r="I7" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="J7" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="K7" s="31" t="s">
+      <c r="I7" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="J7" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="K7" s="49" t="s">
         <v>275</v>
       </c>
-      <c r="L7" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="M7" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="N7" s="31" t="s">
+      <c r="L7" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="M7" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="N7" s="49" t="s">
         <v>275</v>
       </c>
-      <c r="O7" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="P7" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q7" s="31" t="s">
+      <c r="O7" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="P7" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q7" s="49" t="s">
         <v>275</v>
       </c>
-      <c r="R7" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="S7" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="T7" s="31" t="s">
+      <c r="R7" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="S7" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="T7" s="49" t="s">
         <v>275</v>
       </c>
-      <c r="U7" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="V7" s="32" t="s">
+      <c r="U7" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="V7" s="50" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="8" spans="2:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="49" t="s">
         <v>345</v>
       </c>
-      <c r="C8" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E8" s="31" t="s">
+      <c r="C8" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="E8" s="49" t="s">
         <v>345</v>
       </c>
-      <c r="F8" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="H8" s="31" t="s">
+      <c r="F8" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="G8" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="H8" s="49" t="s">
         <v>345</v>
       </c>
-      <c r="I8" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="J8" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="K8" s="31" t="s">
+      <c r="I8" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="J8" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="K8" s="49" t="s">
         <v>345</v>
       </c>
-      <c r="L8" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="M8" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="N8" s="31" t="s">
+      <c r="L8" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="M8" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="N8" s="49" t="s">
         <v>345</v>
       </c>
-      <c r="O8" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="P8" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q8" s="31" t="s">
+      <c r="O8" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="P8" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q8" s="49" t="s">
         <v>345</v>
       </c>
-      <c r="R8" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="S8" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="T8" s="31" t="s">
+      <c r="R8" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="S8" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="T8" s="49" t="s">
         <v>345</v>
       </c>
-      <c r="U8" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="V8" s="32" t="s">
+      <c r="U8" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="V8" s="50" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="9" spans="2:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="49" t="s">
         <v>269</v>
       </c>
-      <c r="C9" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E9" s="31" t="s">
+      <c r="C9" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="E9" s="49" t="s">
         <v>269</v>
       </c>
-      <c r="F9" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="G9" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="H9" s="31" t="s">
+      <c r="F9" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="G9" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="H9" s="49" t="s">
         <v>269</v>
       </c>
-      <c r="I9" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="J9" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="K9" s="31" t="s">
+      <c r="I9" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="J9" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="K9" s="49" t="s">
         <v>269</v>
       </c>
-      <c r="L9" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="M9" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="N9" s="31" t="s">
+      <c r="L9" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="M9" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="N9" s="49" t="s">
         <v>269</v>
       </c>
-      <c r="O9" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="P9" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q9" s="31" t="s">
+      <c r="O9" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="P9" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q9" s="49" t="s">
         <v>269</v>
       </c>
-      <c r="R9" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="S9" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="T9" s="31" t="s">
+      <c r="R9" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="S9" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="T9" s="49" t="s">
         <v>269</v>
       </c>
-      <c r="U9" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="V9" s="32" t="s">
+      <c r="U9" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="V9" s="50" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="10" spans="2:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="49" t="s">
         <v>341</v>
       </c>
-      <c r="C10" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="D10" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E10" s="31" t="s">
+      <c r="C10" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="E10" s="49" t="s">
         <v>341</v>
       </c>
-      <c r="F10" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="G10" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="H10" s="31" t="s">
+      <c r="F10" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="G10" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="H10" s="49" t="s">
         <v>341</v>
       </c>
-      <c r="I10" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="J10" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="K10" s="31" t="s">
+      <c r="I10" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="J10" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="K10" s="49" t="s">
         <v>341</v>
       </c>
-      <c r="L10" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="M10" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="N10" s="31" t="s">
+      <c r="L10" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="M10" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="N10" s="49" t="s">
         <v>341</v>
       </c>
-      <c r="O10" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="P10" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q10" s="31" t="s">
+      <c r="O10" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="P10" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q10" s="49" t="s">
         <v>341</v>
       </c>
-      <c r="R10" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="S10" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="T10" s="31" t="s">
+      <c r="R10" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="S10" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="T10" s="49" t="s">
         <v>341</v>
       </c>
-      <c r="U10" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="V10" s="32" t="s">
+      <c r="U10" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="V10" s="50" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="11" spans="2:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="49" t="s">
         <v>343</v>
       </c>
-      <c r="C11" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="D11" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E11" s="31" t="s">
+      <c r="C11" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="E11" s="49" t="s">
         <v>343</v>
       </c>
-      <c r="F11" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="G11" s="32" t="s">
+      <c r="F11" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="G11" s="50" t="s">
         <v>230</v>
       </c>
-      <c r="H11" s="31" t="s">
+      <c r="H11" s="49" t="s">
         <v>343</v>
       </c>
-      <c r="I11" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="J11" s="32" t="s">
+      <c r="I11" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="J11" s="50" t="s">
         <v>230</v>
       </c>
-      <c r="K11" s="31" t="s">
+      <c r="K11" s="49" t="s">
         <v>343</v>
       </c>
-      <c r="L11" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="M11" s="32" t="s">
+      <c r="L11" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="M11" s="50" t="s">
         <v>230</v>
       </c>
-      <c r="N11" s="31" t="s">
+      <c r="N11" s="49" t="s">
         <v>343</v>
       </c>
-      <c r="O11" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="P11" s="32" t="s">
+      <c r="O11" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="P11" s="50" t="s">
         <v>230</v>
       </c>
-      <c r="Q11" s="31" t="s">
+      <c r="Q11" s="49" t="s">
         <v>343</v>
       </c>
-      <c r="R11" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="S11" s="32" t="s">
+      <c r="R11" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="S11" s="50" t="s">
         <v>230</v>
       </c>
-      <c r="T11" s="31" t="s">
+      <c r="T11" s="49" t="s">
         <v>343</v>
       </c>
-      <c r="U11" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="V11" s="32" t="s">
+      <c r="U11" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="V11" s="50" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="12" spans="2:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="49" t="s">
         <v>357</v>
       </c>
-      <c r="C12" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="D12" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E12" s="31" t="s">
+      <c r="C12" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="D12" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="E12" s="49" t="s">
         <v>357</v>
       </c>
-      <c r="F12" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="G12" s="32" t="s">
+      <c r="F12" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="G12" s="50" t="s">
         <v>230</v>
       </c>
-      <c r="H12" s="31" t="s">
+      <c r="H12" s="49" t="s">
         <v>357</v>
       </c>
-      <c r="I12" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="J12" s="32" t="s">
+      <c r="I12" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="J12" s="50" t="s">
         <v>230</v>
       </c>
-      <c r="K12" s="31" t="s">
+      <c r="K12" s="49" t="s">
         <v>357</v>
       </c>
-      <c r="L12" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="M12" s="32" t="s">
+      <c r="L12" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="M12" s="50" t="s">
         <v>230</v>
       </c>
-      <c r="N12" s="31" t="s">
+      <c r="N12" s="49" t="s">
         <v>357</v>
       </c>
-      <c r="O12" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="P12" s="32" t="s">
+      <c r="O12" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="P12" s="50" t="s">
         <v>230</v>
       </c>
-      <c r="Q12" s="31" t="s">
+      <c r="Q12" s="49" t="s">
         <v>357</v>
       </c>
-      <c r="R12" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="S12" s="32" t="s">
+      <c r="R12" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="S12" s="50" t="s">
         <v>230</v>
       </c>
-      <c r="T12" s="31" t="s">
+      <c r="T12" s="49" t="s">
         <v>357</v>
       </c>
-      <c r="U12" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="V12" s="32" t="s">
+      <c r="U12" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="V12" s="50" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="13" spans="2:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="49" t="s">
         <v>344</v>
       </c>
-      <c r="C13" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="D13" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E13" s="31" t="s">
+      <c r="C13" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="D13" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="E13" s="49" t="s">
         <v>344</v>
       </c>
-      <c r="F13" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="G13" s="32" t="s">
+      <c r="F13" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="G13" s="50" t="s">
         <v>230</v>
       </c>
-      <c r="H13" s="31" t="s">
+      <c r="H13" s="49" t="s">
         <v>344</v>
       </c>
-      <c r="I13" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="J13" s="32" t="s">
+      <c r="I13" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="J13" s="50" t="s">
         <v>230</v>
       </c>
-      <c r="K13" s="31" t="s">
+      <c r="K13" s="49" t="s">
         <v>344</v>
       </c>
-      <c r="L13" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="M13" s="32" t="s">
+      <c r="L13" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="M13" s="50" t="s">
         <v>230</v>
       </c>
-      <c r="N13" s="31" t="s">
+      <c r="N13" s="49" t="s">
         <v>344</v>
       </c>
-      <c r="O13" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="P13" s="32" t="s">
+      <c r="O13" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="P13" s="50" t="s">
         <v>230</v>
       </c>
-      <c r="Q13" s="31" t="s">
+      <c r="Q13" s="49" t="s">
         <v>344</v>
       </c>
-      <c r="R13" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="S13" s="32" t="s">
+      <c r="R13" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="S13" s="50" t="s">
         <v>230</v>
       </c>
-      <c r="T13" s="31" t="s">
+      <c r="T13" s="49" t="s">
         <v>344</v>
       </c>
-      <c r="U13" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="V13" s="32" t="s">
+      <c r="U13" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="V13" s="50" t="s">
         <v>230</v>
       </c>
     </row>
@@ -11474,41 +11479,41 @@
       <c r="V17" s="8"/>
     </row>
     <row r="18" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="43" t="s">
         <v>189</v>
       </c>
-      <c r="C18" s="51"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="50" t="s">
+      <c r="C18" s="44"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="43" t="s">
         <v>190</v>
       </c>
-      <c r="F18" s="51"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="50" t="s">
+      <c r="F18" s="44"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="43" t="s">
         <v>191</v>
       </c>
-      <c r="I18" s="51"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="50" t="s">
+      <c r="I18" s="44"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="43" t="s">
         <v>192</v>
       </c>
-      <c r="L18" s="51"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="50" t="s">
+      <c r="L18" s="44"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="43" t="s">
         <v>193</v>
       </c>
-      <c r="O18" s="51"/>
-      <c r="P18" s="52"/>
-      <c r="Q18" s="50" t="s">
+      <c r="O18" s="44"/>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="43" t="s">
         <v>194</v>
       </c>
-      <c r="R18" s="51"/>
-      <c r="S18" s="52"/>
-      <c r="T18" s="50" t="s">
+      <c r="R18" s="44"/>
+      <c r="S18" s="45"/>
+      <c r="T18" s="43" t="s">
         <v>196</v>
       </c>
-      <c r="U18" s="51"/>
-      <c r="V18" s="52"/>
+      <c r="U18" s="44"/>
+      <c r="V18" s="45"/>
     </row>
     <row r="19" spans="1:22" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
@@ -11576,2841 +11581,2841 @@
       </c>
     </row>
     <row r="20" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="49" t="s">
         <v>342</v>
       </c>
-      <c r="C20" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="D20" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E20" s="31" t="s">
+      <c r="C20" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="D20" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="E20" s="49" t="s">
         <v>342</v>
       </c>
-      <c r="F20" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="G20" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="H20" s="31" t="s">
+      <c r="F20" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="G20" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="H20" s="49" t="s">
         <v>342</v>
       </c>
-      <c r="I20" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="J20" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="K20" s="31" t="s">
+      <c r="I20" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="J20" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="K20" s="49" t="s">
         <v>342</v>
       </c>
-      <c r="L20" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="M20" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="N20" s="31" t="s">
+      <c r="L20" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="M20" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="N20" s="49" t="s">
         <v>342</v>
       </c>
-      <c r="O20" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="P20" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q20" s="31" t="s">
+      <c r="O20" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="P20" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q20" s="49" t="s">
         <v>342</v>
       </c>
-      <c r="R20" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="S20" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="T20" s="31" t="s">
+      <c r="R20" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="S20" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="T20" s="49" t="s">
         <v>342</v>
       </c>
-      <c r="U20" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="V20" s="32" t="s">
+      <c r="U20" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="V20" s="50" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="49" t="s">
         <v>333</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="49" t="s">
         <v>197</v>
       </c>
-      <c r="D21" s="32"/>
-      <c r="E21" s="31" t="s">
+      <c r="D21" s="50"/>
+      <c r="E21" s="49" t="s">
         <v>333</v>
       </c>
-      <c r="F21" s="31" t="s">
+      <c r="F21" s="49" t="s">
         <v>197</v>
       </c>
-      <c r="G21" s="32"/>
-      <c r="H21" s="31" t="s">
+      <c r="G21" s="50"/>
+      <c r="H21" s="49" t="s">
         <v>333</v>
       </c>
-      <c r="I21" s="31" t="s">
+      <c r="I21" s="49" t="s">
         <v>197</v>
       </c>
-      <c r="J21" s="32"/>
-      <c r="K21" s="31" t="s">
+      <c r="J21" s="50"/>
+      <c r="K21" s="49" t="s">
         <v>333</v>
       </c>
-      <c r="L21" s="31" t="s">
+      <c r="L21" s="49" t="s">
         <v>197</v>
       </c>
-      <c r="M21" s="32"/>
-      <c r="N21" s="31" t="s">
+      <c r="M21" s="50"/>
+      <c r="N21" s="49" t="s">
         <v>333</v>
       </c>
-      <c r="O21" s="31" t="s">
+      <c r="O21" s="49" t="s">
         <v>197</v>
       </c>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="31" t="s">
+      <c r="P21" s="50"/>
+      <c r="Q21" s="49" t="s">
         <v>333</v>
       </c>
-      <c r="R21" s="31" t="s">
+      <c r="R21" s="49" t="s">
         <v>197</v>
       </c>
-      <c r="S21" s="32"/>
-      <c r="T21" s="31" t="s">
+      <c r="S21" s="50"/>
+      <c r="T21" s="49" t="s">
         <v>333</v>
       </c>
-      <c r="U21" s="31" t="s">
+      <c r="U21" s="49" t="s">
         <v>197</v>
       </c>
-      <c r="V21" s="32"/>
+      <c r="V21" s="50"/>
     </row>
     <row r="22" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="38"/>
-      <c r="B22" s="31" t="s">
+      <c r="A22" s="34"/>
+      <c r="B22" s="49" t="s">
         <v>301</v>
       </c>
-      <c r="C22" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="D22" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E22" s="31" t="s">
+      <c r="C22" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="D22" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="E22" s="49" t="s">
         <v>301</v>
       </c>
-      <c r="F22" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="G22" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="H22" s="31" t="s">
+      <c r="F22" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="G22" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="H22" s="49" t="s">
         <v>301</v>
       </c>
-      <c r="I22" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="J22" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="K22" s="31" t="s">
+      <c r="I22" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="J22" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="K22" s="49" t="s">
         <v>301</v>
       </c>
-      <c r="L22" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="M22" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="N22" s="31" t="s">
+      <c r="L22" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="M22" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="N22" s="49" t="s">
         <v>301</v>
       </c>
-      <c r="O22" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="P22" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q22" s="31" t="s">
+      <c r="O22" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="P22" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q22" s="49" t="s">
         <v>301</v>
       </c>
-      <c r="R22" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="S22" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="T22" s="31" t="s">
+      <c r="R22" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="S22" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="T22" s="49" t="s">
         <v>301</v>
       </c>
-      <c r="U22" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="V22" s="32" t="s">
+      <c r="U22" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="V22" s="50" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="49" t="s">
         <v>306</v>
       </c>
-      <c r="C23" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="D23" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E23" s="31" t="s">
+      <c r="C23" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="D23" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="E23" s="49" t="s">
         <v>307</v>
       </c>
-      <c r="F23" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="G23" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="H23" s="31" t="s">
+      <c r="F23" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="G23" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="H23" s="49" t="s">
         <v>401</v>
       </c>
-      <c r="I23" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="J23" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="K23" s="31" t="s">
+      <c r="I23" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="J23" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="K23" s="49" t="s">
         <v>306</v>
       </c>
-      <c r="L23" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="M23" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="N23" s="31" t="s">
+      <c r="L23" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="M23" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="N23" s="49" t="s">
         <v>307</v>
       </c>
-      <c r="O23" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="P23" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q23" s="31" t="s">
+      <c r="O23" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="P23" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q23" s="49" t="s">
         <v>401</v>
       </c>
-      <c r="R23" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="S23" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="T23" s="31" t="s">
+      <c r="R23" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="S23" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="T23" s="49" t="s">
         <v>306</v>
       </c>
-      <c r="U23" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="V23" s="32" t="s">
+      <c r="U23" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="V23" s="50" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="38"/>
-      <c r="B24" s="31" t="s">
+      <c r="A24" s="34"/>
+      <c r="B24" s="49" t="s">
         <v>158</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="D24" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E24" s="31" t="s">
+      <c r="D24" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="E24" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="F24" s="35" t="s">
+      <c r="F24" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="G24" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="H24" s="31" t="s">
+      <c r="G24" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="H24" s="49" t="s">
         <v>158</v>
       </c>
-      <c r="I24" s="31" t="s">
+      <c r="I24" s="49" t="s">
         <v>206</v>
       </c>
-      <c r="J24" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="K24" s="31" t="s">
+      <c r="J24" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="K24" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="L24" s="35" t="s">
+      <c r="L24" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="M24" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="N24" s="31" t="s">
+      <c r="M24" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="N24" s="49" t="s">
         <v>158</v>
       </c>
-      <c r="O24" s="35" t="s">
+      <c r="O24" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="P24" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q24" s="31" t="s">
+      <c r="P24" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q24" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="R24" s="35" t="s">
+      <c r="R24" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="S24" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="T24" s="31" t="s">
+      <c r="S24" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="T24" s="49" t="s">
         <v>158</v>
       </c>
-      <c r="U24" s="35" t="s">
+      <c r="U24" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="V24" s="32" t="s">
+      <c r="V24" s="50" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="C25" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="D25" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E25" s="20" t="s">
+      <c r="D25" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="E25" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="F25" s="31" t="s">
+      <c r="F25" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="G25" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="H25" s="46" t="s">
+      <c r="G25" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="H25" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="I25" s="31" t="s">
+      <c r="I25" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="J25" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="K25" s="46" t="s">
+      <c r="J25" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="K25" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="L25" s="31" t="s">
+      <c r="L25" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="M25" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="N25" s="20" t="s">
+      <c r="M25" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="N25" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="O25" s="31" t="s">
+      <c r="O25" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="P25" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q25" s="20" t="s">
+      <c r="P25" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q25" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="R25" s="31" t="s">
+      <c r="R25" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="S25" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="T25" s="20" t="s">
+      <c r="S25" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="T25" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="U25" s="31" t="s">
+      <c r="U25" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="V25" s="32" t="s">
+      <c r="V25" s="50" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="49" t="s">
         <v>340</v>
       </c>
-      <c r="C26" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="D26" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E26" s="31" t="s">
+      <c r="C26" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="D26" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="E26" s="49" t="s">
         <v>340</v>
       </c>
-      <c r="F26" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="G26" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="H26" s="31" t="s">
+      <c r="F26" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="G26" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="H26" s="49" t="s">
         <v>340</v>
       </c>
-      <c r="I26" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="J26" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="K26" s="31" t="s">
+      <c r="I26" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="J26" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="K26" s="49" t="s">
         <v>340</v>
       </c>
-      <c r="L26" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="M26" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="N26" s="31" t="s">
+      <c r="L26" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="M26" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="N26" s="49" t="s">
         <v>340</v>
       </c>
-      <c r="O26" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="P26" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q26" s="31" t="s">
+      <c r="O26" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="P26" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q26" s="49" t="s">
         <v>340</v>
       </c>
-      <c r="R26" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="S26" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="T26" s="31" t="s">
+      <c r="R26" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="S26" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="T26" s="49" t="s">
         <v>340</v>
       </c>
-      <c r="U26" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="V26" s="32" t="s">
+      <c r="U26" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="V26" s="50" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="49" t="s">
         <v>303</v>
       </c>
-      <c r="C27" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="D27" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E27" s="31" t="s">
+      <c r="C27" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="D27" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="E27" s="49" t="s">
         <v>303</v>
       </c>
-      <c r="F27" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="G27" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="H27" s="31" t="s">
+      <c r="F27" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="G27" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="H27" s="49" t="s">
         <v>303</v>
       </c>
-      <c r="I27" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="J27" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="K27" s="31" t="s">
+      <c r="I27" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="J27" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="K27" s="49" t="s">
         <v>303</v>
       </c>
-      <c r="L27" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="M27" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="N27" s="31" t="s">
+      <c r="L27" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="M27" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="N27" s="49" t="s">
         <v>303</v>
       </c>
-      <c r="O27" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="P27" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q27" s="31" t="s">
+      <c r="O27" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="P27" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q27" s="49" t="s">
         <v>303</v>
       </c>
-      <c r="R27" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="S27" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="T27" s="31" t="s">
+      <c r="R27" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="S27" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="T27" s="49" t="s">
         <v>303</v>
       </c>
-      <c r="U27" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="V27" s="32" t="s">
+      <c r="U27" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="V27" s="50" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="49" t="s">
         <v>400</v>
       </c>
-      <c r="C28" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="D28" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E28" s="31" t="s">
+      <c r="C28" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="D28" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="E28" s="49" t="s">
         <v>380</v>
       </c>
-      <c r="F28" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="G28" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="H28" s="31" t="s">
+      <c r="F28" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="G28" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="H28" s="49" t="s">
         <v>404</v>
       </c>
-      <c r="I28" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="J28" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="K28" s="31" t="s">
+      <c r="I28" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="J28" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="K28" s="49" t="s">
         <v>400</v>
       </c>
-      <c r="L28" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="M28" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="N28" s="31" t="s">
+      <c r="L28" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="M28" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="N28" s="49" t="s">
         <v>380</v>
       </c>
-      <c r="O28" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="P28" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q28" s="31" t="s">
+      <c r="O28" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="P28" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q28" s="49" t="s">
         <v>404</v>
       </c>
-      <c r="R28" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="S28" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="T28" s="31" t="s">
+      <c r="R28" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="S28" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="T28" s="49" t="s">
         <v>400</v>
       </c>
-      <c r="U28" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="V28" s="32" t="s">
+      <c r="U28" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="V28" s="50" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="51" t="s">
         <v>148</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="D29" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E29" s="35" t="s">
+      <c r="D29" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="E29" s="51" t="s">
         <v>266</v>
       </c>
-      <c r="F29" s="35" t="s">
+      <c r="F29" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="G29" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="H29" s="31" t="s">
+      <c r="G29" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="H29" s="49" t="s">
         <v>148</v>
       </c>
-      <c r="I29" s="31" t="s">
+      <c r="I29" s="49" t="s">
         <v>206</v>
       </c>
-      <c r="J29" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="K29" s="31" t="s">
+      <c r="J29" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="K29" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="L29" s="35" t="s">
+      <c r="L29" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="M29" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="N29" s="35" t="s">
+      <c r="M29" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="N29" s="51" t="s">
         <v>148</v>
       </c>
-      <c r="O29" s="35" t="s">
+      <c r="O29" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="P29" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q29" s="35" t="s">
+      <c r="P29" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q29" s="51" t="s">
         <v>266</v>
       </c>
-      <c r="R29" s="35" t="s">
+      <c r="R29" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="S29" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="T29" s="35" t="s">
+      <c r="S29" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="T29" s="51" t="s">
         <v>148</v>
       </c>
-      <c r="U29" s="35" t="s">
+      <c r="U29" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="V29" s="32" t="s">
+      <c r="V29" s="50" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="31" t="s">
+      <c r="C30" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="D30" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E30" s="31" t="s">
+      <c r="D30" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="E30" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="F30" s="31" t="s">
+      <c r="F30" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="G30" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="H30" s="31" t="s">
+      <c r="G30" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="H30" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="I30" s="31" t="s">
+      <c r="I30" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="J30" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="K30" s="31" t="s">
+      <c r="J30" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="K30" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="L30" s="31" t="s">
+      <c r="L30" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="M30" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="N30" s="31" t="s">
+      <c r="M30" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="N30" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="O30" s="31" t="s">
+      <c r="O30" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="P30" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q30" s="31" t="s">
+      <c r="P30" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q30" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="R30" s="31" t="s">
+      <c r="R30" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="S30" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="T30" s="31" t="s">
+      <c r="S30" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="T30" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="U30" s="31" t="s">
+      <c r="U30" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="V30" s="32" t="s">
+      <c r="V30" s="50" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="43" t="s">
+      <c r="B31" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="31" t="s">
+      <c r="C31" s="49" t="s">
         <v>202</v>
       </c>
-      <c r="D31" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E31" s="43" t="s">
+      <c r="D31" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="E31" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="F31" s="31" t="s">
+      <c r="F31" s="49" t="s">
         <v>202</v>
       </c>
-      <c r="G31" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="H31" s="43" t="s">
+      <c r="G31" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="H31" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="I31" s="31" t="s">
+      <c r="I31" s="49" t="s">
         <v>202</v>
       </c>
-      <c r="J31" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="K31" s="43" t="s">
+      <c r="J31" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="K31" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="L31" s="31" t="s">
+      <c r="L31" s="49" t="s">
         <v>202</v>
       </c>
-      <c r="M31" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="N31" s="43" t="s">
+      <c r="M31" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="N31" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="O31" s="31" t="s">
+      <c r="O31" s="49" t="s">
         <v>202</v>
       </c>
-      <c r="P31" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q31" s="43" t="s">
+      <c r="P31" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q31" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="R31" s="31" t="s">
+      <c r="R31" s="49" t="s">
         <v>202</v>
       </c>
-      <c r="S31" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="T31" s="43" t="s">
+      <c r="S31" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="T31" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="U31" s="31" t="s">
+      <c r="U31" s="49" t="s">
         <v>202</v>
       </c>
-      <c r="V31" s="32" t="s">
+      <c r="V31" s="50" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="49" t="s">
         <v>358</v>
       </c>
-      <c r="C32" s="31" t="s">
+      <c r="C32" s="49" t="s">
         <v>199</v>
       </c>
-      <c r="D32" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E32" s="31" t="s">
+      <c r="D32" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="E32" s="49" t="s">
         <v>358</v>
       </c>
-      <c r="F32" s="31" t="s">
+      <c r="F32" s="49" t="s">
         <v>199</v>
       </c>
-      <c r="G32" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="H32" s="31" t="s">
+      <c r="G32" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="H32" s="49" t="s">
         <v>358</v>
       </c>
-      <c r="I32" s="31" t="s">
+      <c r="I32" s="49" t="s">
         <v>199</v>
       </c>
-      <c r="J32" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="K32" s="31" t="s">
+      <c r="J32" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="K32" s="49" t="s">
         <v>358</v>
       </c>
-      <c r="L32" s="31" t="s">
+      <c r="L32" s="49" t="s">
         <v>199</v>
       </c>
-      <c r="M32" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="N32" s="31" t="s">
+      <c r="M32" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="N32" s="49" t="s">
         <v>358</v>
       </c>
-      <c r="O32" s="31" t="s">
+      <c r="O32" s="49" t="s">
         <v>199</v>
       </c>
-      <c r="P32" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q32" s="31" t="s">
+      <c r="P32" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q32" s="49" t="s">
         <v>358</v>
       </c>
-      <c r="R32" s="31" t="s">
+      <c r="R32" s="49" t="s">
         <v>199</v>
       </c>
-      <c r="S32" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="T32" s="31" t="s">
+      <c r="S32" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="T32" s="49" t="s">
         <v>358</v>
       </c>
-      <c r="U32" s="31" t="s">
+      <c r="U32" s="49" t="s">
         <v>199</v>
       </c>
-      <c r="V32" s="32" t="s">
+      <c r="V32" s="50" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="49" t="s">
         <v>300</v>
       </c>
-      <c r="C33" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="D33" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E33" s="31" t="s">
+      <c r="C33" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="D33" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="E33" s="49" t="s">
         <v>300</v>
       </c>
-      <c r="F33" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="G33" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="H33" s="31" t="s">
+      <c r="F33" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="G33" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="H33" s="49" t="s">
         <v>300</v>
       </c>
-      <c r="I33" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="J33" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="K33" s="31" t="s">
+      <c r="I33" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="J33" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="K33" s="49" t="s">
         <v>300</v>
       </c>
-      <c r="L33" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="M33" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="N33" s="31" t="s">
+      <c r="L33" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="M33" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="N33" s="49" t="s">
         <v>300</v>
       </c>
-      <c r="O33" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="P33" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q33" s="31" t="s">
+      <c r="O33" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="P33" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q33" s="49" t="s">
         <v>300</v>
       </c>
-      <c r="R33" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="S33" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="T33" s="31" t="s">
+      <c r="R33" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="S33" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="T33" s="49" t="s">
         <v>300</v>
       </c>
-      <c r="U33" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="V33" s="32" t="s">
+      <c r="U33" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="V33" s="50" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="34" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="49" t="s">
         <v>296</v>
       </c>
-      <c r="C34" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="D34" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E34" s="31" t="s">
+      <c r="C34" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="D34" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="E34" s="49" t="s">
         <v>308</v>
       </c>
-      <c r="F34" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="G34" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="H34" s="31" t="s">
+      <c r="F34" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="G34" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="H34" s="49" t="s">
         <v>304</v>
       </c>
-      <c r="I34" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="J34" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="K34" s="31" t="s">
+      <c r="I34" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="J34" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="K34" s="49" t="s">
         <v>296</v>
       </c>
-      <c r="L34" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="M34" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="N34" s="31" t="s">
+      <c r="L34" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="M34" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="N34" s="49" t="s">
         <v>308</v>
       </c>
-      <c r="O34" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="P34" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q34" s="31" t="s">
+      <c r="O34" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="P34" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q34" s="49" t="s">
         <v>304</v>
       </c>
-      <c r="R34" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="S34" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="T34" s="31" t="s">
+      <c r="R34" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="S34" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="T34" s="49" t="s">
         <v>296</v>
       </c>
-      <c r="U34" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="V34" s="32" t="s">
+      <c r="U34" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="V34" s="50" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="35" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="38"/>
-      <c r="B35" s="35" t="s">
+      <c r="A35" s="34"/>
+      <c r="B35" s="51" t="s">
         <v>152</v>
       </c>
-      <c r="C35" s="35" t="s">
+      <c r="C35" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="D35" s="44" t="s">
-        <v>210</v>
-      </c>
-      <c r="E35" s="45" t="s">
+      <c r="D35" s="55" t="s">
+        <v>210</v>
+      </c>
+      <c r="E35" s="56" t="s">
         <v>153</v>
       </c>
-      <c r="F35" s="35" t="s">
+      <c r="F35" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="G35" s="44" t="s">
-        <v>210</v>
-      </c>
-      <c r="H35" s="31" t="s">
+      <c r="G35" s="55" t="s">
+        <v>210</v>
+      </c>
+      <c r="H35" s="49" t="s">
         <v>152</v>
       </c>
-      <c r="I35" s="31" t="s">
+      <c r="I35" s="49" t="s">
         <v>206</v>
       </c>
-      <c r="J35" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="K35" s="31" t="s">
+      <c r="J35" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="K35" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="L35" s="35" t="s">
+      <c r="L35" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="M35" s="44" t="s">
-        <v>210</v>
-      </c>
-      <c r="N35" s="35" t="s">
+      <c r="M35" s="55" t="s">
+        <v>210</v>
+      </c>
+      <c r="N35" s="51" t="s">
         <v>152</v>
       </c>
-      <c r="O35" s="35" t="s">
+      <c r="O35" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="P35" s="44" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q35" s="45" t="s">
+      <c r="P35" s="55" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q35" s="56" t="s">
         <v>153</v>
       </c>
-      <c r="R35" s="35" t="s">
+      <c r="R35" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="S35" s="44" t="s">
-        <v>210</v>
-      </c>
-      <c r="T35" s="35" t="s">
+      <c r="S35" s="55" t="s">
+        <v>210</v>
+      </c>
+      <c r="T35" s="51" t="s">
         <v>152</v>
       </c>
-      <c r="U35" s="35" t="s">
+      <c r="U35" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="V35" s="44" t="s">
+      <c r="V35" s="55" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="43" t="s">
+      <c r="B36" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="31" t="s">
+      <c r="C36" s="49" t="s">
         <v>202</v>
       </c>
-      <c r="D36" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E36" s="43" t="s">
+      <c r="D36" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="E36" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="F36" s="31" t="s">
+      <c r="F36" s="49" t="s">
         <v>202</v>
       </c>
-      <c r="G36" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="H36" s="43" t="s">
+      <c r="G36" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="H36" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="I36" s="31" t="s">
+      <c r="I36" s="49" t="s">
         <v>202</v>
       </c>
-      <c r="J36" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="K36" s="43" t="s">
+      <c r="J36" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="K36" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="L36" s="31" t="s">
+      <c r="L36" s="49" t="s">
         <v>202</v>
       </c>
-      <c r="M36" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="N36" s="43" t="s">
+      <c r="M36" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="N36" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="O36" s="31" t="s">
+      <c r="O36" s="49" t="s">
         <v>202</v>
       </c>
-      <c r="P36" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q36" s="43" t="s">
+      <c r="P36" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q36" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="R36" s="31" t="s">
+      <c r="R36" s="49" t="s">
         <v>202</v>
       </c>
-      <c r="S36" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="T36" s="43" t="s">
+      <c r="S36" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="T36" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="U36" s="31" t="s">
+      <c r="U36" s="49" t="s">
         <v>202</v>
       </c>
-      <c r="V36" s="32" t="s">
+      <c r="V36" s="50" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="37" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="31" t="s">
+      <c r="B37" s="49" t="s">
         <v>299</v>
       </c>
-      <c r="C37" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="D37" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E37" s="31" t="s">
+      <c r="C37" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="D37" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="E37" s="49" t="s">
         <v>295</v>
       </c>
-      <c r="F37" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="G37" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="H37" s="31" t="s">
+      <c r="F37" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="G37" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="H37" s="49" t="s">
         <v>298</v>
       </c>
-      <c r="I37" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="J37" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="K37" s="31" t="s">
+      <c r="I37" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="J37" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="K37" s="49" t="s">
         <v>299</v>
       </c>
-      <c r="L37" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="M37" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="N37" s="31" t="s">
+      <c r="L37" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="M37" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="N37" s="49" t="s">
         <v>295</v>
       </c>
-      <c r="O37" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="P37" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q37" s="31" t="s">
+      <c r="O37" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="P37" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q37" s="49" t="s">
         <v>298</v>
       </c>
-      <c r="R37" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="S37" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="T37" s="31" t="s">
+      <c r="R37" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="S37" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="T37" s="49" t="s">
         <v>299</v>
       </c>
-      <c r="U37" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="V37" s="32" t="s">
+      <c r="U37" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="V37" s="50" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="31" t="s">
+      <c r="B38" s="49" t="s">
         <v>302</v>
       </c>
-      <c r="C38" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="D38" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E38" s="31" t="s">
+      <c r="C38" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="D38" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="E38" s="49" t="s">
         <v>309</v>
       </c>
-      <c r="F38" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="G38" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="H38" s="31" t="s">
+      <c r="F38" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="G38" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="H38" s="49" t="s">
         <v>377</v>
       </c>
-      <c r="I38" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="J38" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="K38" s="31" t="s">
+      <c r="I38" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="J38" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="K38" s="49" t="s">
         <v>302</v>
       </c>
-      <c r="L38" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="M38" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="N38" s="31" t="s">
+      <c r="L38" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="M38" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="N38" s="49" t="s">
         <v>309</v>
       </c>
-      <c r="O38" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="P38" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q38" s="31" t="s">
+      <c r="O38" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="P38" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q38" s="49" t="s">
         <v>377</v>
       </c>
-      <c r="R38" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="S38" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="T38" s="31" t="s">
+      <c r="R38" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="S38" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="T38" s="49" t="s">
         <v>302</v>
       </c>
-      <c r="U38" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="V38" s="32" t="s">
+      <c r="U38" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="V38" s="50" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="39" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="31" t="s">
+      <c r="B39" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="C39" s="31" t="s">
+      <c r="C39" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="D39" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E39" s="31" t="s">
+      <c r="D39" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="E39" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="F39" s="31" t="s">
+      <c r="F39" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="G39" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="H39" s="31" t="s">
+      <c r="G39" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="H39" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="I39" s="31" t="s">
+      <c r="I39" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="J39" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="K39" s="31" t="s">
+      <c r="J39" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="K39" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="L39" s="31" t="s">
+      <c r="L39" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="M39" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="N39" s="31" t="s">
+      <c r="M39" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="N39" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="O39" s="31" t="s">
+      <c r="O39" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="P39" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q39" s="31" t="s">
+      <c r="P39" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q39" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="R39" s="31" t="s">
+      <c r="R39" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="S39" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="T39" s="31" t="s">
+      <c r="S39" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="T39" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="U39" s="31" t="s">
+      <c r="U39" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="V39" s="32" t="s">
+      <c r="V39" s="50" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="33" t="s">
+      <c r="B40" s="57" t="s">
         <v>334</v>
       </c>
-      <c r="C40" s="31" t="s">
+      <c r="C40" s="49" t="s">
         <v>197</v>
       </c>
-      <c r="D40" s="32"/>
-      <c r="E40" s="33" t="s">
+      <c r="D40" s="50"/>
+      <c r="E40" s="57" t="s">
         <v>334</v>
       </c>
-      <c r="F40" s="31" t="s">
+      <c r="F40" s="49" t="s">
         <v>197</v>
       </c>
-      <c r="G40" s="32"/>
-      <c r="H40" s="33" t="s">
+      <c r="G40" s="50"/>
+      <c r="H40" s="57" t="s">
         <v>334</v>
       </c>
-      <c r="I40" s="31" t="s">
+      <c r="I40" s="49" t="s">
         <v>197</v>
       </c>
-      <c r="J40" s="32"/>
-      <c r="K40" s="33" t="s">
+      <c r="J40" s="50"/>
+      <c r="K40" s="57" t="s">
         <v>334</v>
       </c>
-      <c r="L40" s="31" t="s">
+      <c r="L40" s="49" t="s">
         <v>197</v>
       </c>
-      <c r="M40" s="32"/>
-      <c r="N40" s="33" t="s">
+      <c r="M40" s="50"/>
+      <c r="N40" s="57" t="s">
         <v>334</v>
       </c>
-      <c r="O40" s="31" t="s">
+      <c r="O40" s="49" t="s">
         <v>197</v>
       </c>
-      <c r="P40" s="32"/>
-      <c r="Q40" s="33" t="s">
+      <c r="P40" s="50"/>
+      <c r="Q40" s="57" t="s">
         <v>334</v>
       </c>
-      <c r="R40" s="31" t="s">
+      <c r="R40" s="49" t="s">
         <v>197</v>
       </c>
-      <c r="S40" s="32"/>
-      <c r="T40" s="33" t="s">
+      <c r="S40" s="50"/>
+      <c r="T40" s="57" t="s">
         <v>334</v>
       </c>
-      <c r="U40" s="31" t="s">
+      <c r="U40" s="49" t="s">
         <v>197</v>
       </c>
-      <c r="V40" s="32"/>
+      <c r="V40" s="50"/>
     </row>
     <row r="41" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="31" t="s">
+      <c r="B41" s="49" t="s">
         <v>393</v>
       </c>
-      <c r="C41" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="D41" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E41" s="31" t="s">
+      <c r="C41" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="D41" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="E41" s="49" t="s">
         <v>393</v>
       </c>
-      <c r="F41" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="G41" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="H41" s="31" t="s">
+      <c r="F41" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="G41" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="H41" s="49" t="s">
         <v>393</v>
       </c>
-      <c r="I41" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="J41" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="K41" s="31" t="s">
+      <c r="I41" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="J41" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="K41" s="49" t="s">
         <v>393</v>
       </c>
-      <c r="L41" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="M41" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="N41" s="31" t="s">
+      <c r="L41" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="M41" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="N41" s="49" t="s">
         <v>393</v>
       </c>
-      <c r="O41" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="P41" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q41" s="31" t="s">
+      <c r="O41" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="P41" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q41" s="49" t="s">
         <v>393</v>
       </c>
-      <c r="R41" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="S41" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="T41" s="31" t="s">
+      <c r="R41" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="S41" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="T41" s="49" t="s">
         <v>393</v>
       </c>
-      <c r="U41" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="V41" s="32" t="s">
+      <c r="U41" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="V41" s="50" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="31" t="s">
+      <c r="B42" s="49" t="s">
         <v>397</v>
       </c>
-      <c r="C42" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="D42" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E42" s="31" t="s">
+      <c r="C42" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="D42" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="E42" s="49" t="s">
         <v>403</v>
       </c>
-      <c r="F42" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="G42" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="H42" s="31" t="s">
+      <c r="F42" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="G42" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="H42" s="49" t="s">
         <v>394</v>
       </c>
-      <c r="I42" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="J42" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="K42" s="31" t="s">
+      <c r="I42" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="J42" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="K42" s="49" t="s">
         <v>397</v>
       </c>
-      <c r="L42" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="M42" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="N42" s="31" t="s">
+      <c r="L42" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="M42" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="N42" s="49" t="s">
         <v>403</v>
       </c>
-      <c r="O42" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="P42" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q42" s="31" t="s">
+      <c r="O42" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="P42" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q42" s="49" t="s">
         <v>394</v>
       </c>
-      <c r="R42" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="S42" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="T42" s="31" t="s">
+      <c r="R42" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="S42" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="T42" s="49" t="s">
         <v>397</v>
       </c>
-      <c r="U42" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="V42" s="32" t="s">
+      <c r="U42" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="V42" s="50" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="43" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="31" t="s">
+      <c r="B43" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="C43" s="35" t="s">
+      <c r="C43" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="D43" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E43" s="31" t="s">
+      <c r="D43" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="E43" s="49" t="s">
         <v>267</v>
       </c>
-      <c r="F43" s="35" t="s">
+      <c r="F43" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="G43" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="H43" s="31" t="s">
+      <c r="G43" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="H43" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="I43" s="31" t="s">
+      <c r="I43" s="49" t="s">
         <v>206</v>
       </c>
-      <c r="J43" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="K43" s="31" t="s">
+      <c r="J43" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="K43" s="49" t="s">
         <v>267</v>
       </c>
-      <c r="L43" s="35" t="s">
+      <c r="L43" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="M43" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="N43" s="31" t="s">
+      <c r="M43" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="N43" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="O43" s="35" t="s">
+      <c r="O43" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="P43" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q43" s="31" t="s">
+      <c r="P43" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q43" s="49" t="s">
         <v>267</v>
       </c>
-      <c r="R43" s="35" t="s">
+      <c r="R43" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="S43" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="T43" s="31" t="s">
+      <c r="S43" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="T43" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="U43" s="35" t="s">
+      <c r="U43" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="V43" s="32" t="s">
+      <c r="V43" s="50" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="44" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="31" t="s">
+      <c r="B44" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="C44" s="31" t="s">
+      <c r="C44" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="D44" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E44" s="31" t="s">
+      <c r="D44" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="E44" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="F44" s="31" t="s">
+      <c r="F44" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="G44" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="H44" s="31" t="s">
+      <c r="G44" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="H44" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="I44" s="31" t="s">
+      <c r="I44" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="J44" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="K44" s="31" t="s">
+      <c r="J44" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="K44" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="L44" s="31" t="s">
+      <c r="L44" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="M44" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="N44" s="31" t="s">
+      <c r="M44" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="N44" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="O44" s="31" t="s">
+      <c r="O44" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="P44" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q44" s="31" t="s">
+      <c r="P44" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q44" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="R44" s="31" t="s">
+      <c r="R44" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="S44" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="T44" s="31" t="s">
+      <c r="S44" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="T44" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="U44" s="31" t="s">
+      <c r="U44" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="V44" s="32" t="s">
+      <c r="V44" s="50" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="45" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="38"/>
-      <c r="B45" s="20" t="s">
+      <c r="A45" s="34"/>
+      <c r="B45" s="52" t="s">
         <v>274</v>
       </c>
-      <c r="C45" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="D45" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E45" s="20" t="s">
+      <c r="C45" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="D45" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="E45" s="52" t="s">
         <v>274</v>
       </c>
-      <c r="F45" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="G45" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="H45" s="20" t="s">
+      <c r="F45" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="G45" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="H45" s="52" t="s">
         <v>274</v>
       </c>
-      <c r="I45" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="J45" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="K45" s="20" t="s">
+      <c r="I45" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="J45" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="K45" s="52" t="s">
         <v>274</v>
       </c>
-      <c r="L45" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="M45" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="N45" s="20" t="s">
+      <c r="L45" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="M45" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="N45" s="52" t="s">
         <v>274</v>
       </c>
-      <c r="O45" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="P45" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q45" s="20" t="s">
+      <c r="O45" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="P45" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q45" s="52" t="s">
         <v>274</v>
       </c>
-      <c r="R45" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="S45" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="T45" s="20" t="s">
+      <c r="R45" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="S45" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="T45" s="52" t="s">
         <v>274</v>
       </c>
-      <c r="U45" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="V45" s="32" t="s">
+      <c r="U45" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="V45" s="50" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="31" t="s">
+      <c r="B46" s="49" t="s">
         <v>297</v>
       </c>
-      <c r="C46" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="D46" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E46" s="31" t="s">
+      <c r="C46" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="D46" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="E46" s="49" t="s">
         <v>297</v>
       </c>
-      <c r="F46" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="G46" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="H46" s="31" t="s">
+      <c r="F46" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="G46" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="H46" s="49" t="s">
         <v>297</v>
       </c>
-      <c r="I46" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="J46" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="K46" s="31" t="s">
+      <c r="I46" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="J46" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="K46" s="49" t="s">
         <v>297</v>
       </c>
-      <c r="L46" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="M46" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="N46" s="31" t="s">
+      <c r="L46" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="M46" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="N46" s="49" t="s">
         <v>297</v>
       </c>
-      <c r="O46" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="P46" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q46" s="31" t="s">
+      <c r="O46" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="P46" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q46" s="49" t="s">
         <v>297</v>
       </c>
-      <c r="R46" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="S46" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="T46" s="31" t="s">
+      <c r="R46" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="S46" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="T46" s="49" t="s">
         <v>297</v>
       </c>
-      <c r="U46" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="V46" s="32" t="s">
+      <c r="U46" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="V46" s="50" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="47" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="31" t="s">
+      <c r="B47" s="49" t="s">
         <v>386</v>
       </c>
-      <c r="C47" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="D47" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E47" s="31" t="s">
+      <c r="C47" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="D47" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="E47" s="49" t="s">
         <v>385</v>
       </c>
-      <c r="F47" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="G47" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="H47" s="31" t="s">
+      <c r="F47" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="G47" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="H47" s="49" t="s">
         <v>384</v>
       </c>
-      <c r="I47" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="J47" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="K47" s="31" t="s">
+      <c r="I47" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="J47" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="K47" s="49" t="s">
         <v>386</v>
       </c>
-      <c r="L47" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="M47" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="N47" s="31" t="s">
+      <c r="L47" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="M47" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="N47" s="49" t="s">
         <v>385</v>
       </c>
-      <c r="O47" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="P47" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q47" s="31" t="s">
+      <c r="O47" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="P47" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q47" s="49" t="s">
         <v>384</v>
       </c>
-      <c r="R47" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="S47" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="T47" s="31" t="s">
+      <c r="R47" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="S47" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="T47" s="49" t="s">
         <v>386</v>
       </c>
-      <c r="U47" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="V47" s="32" t="s">
+      <c r="U47" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="V47" s="50" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="48" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="31" t="s">
+      <c r="B48" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="C48" s="35" t="s">
+      <c r="C48" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="D48" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E48" s="31" t="s">
+      <c r="D48" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="E48" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="F48" s="35" t="s">
+      <c r="F48" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="G48" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="H48" s="31" t="s">
+      <c r="G48" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="H48" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="I48" s="31" t="s">
+      <c r="I48" s="49" t="s">
         <v>206</v>
       </c>
-      <c r="J48" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="K48" s="31" t="s">
+      <c r="J48" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="K48" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="L48" s="35" t="s">
+      <c r="L48" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="M48" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="N48" s="31" t="s">
+      <c r="M48" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="N48" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="O48" s="35" t="s">
+      <c r="O48" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="P48" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q48" s="31" t="s">
+      <c r="P48" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q48" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="R48" s="35" t="s">
+      <c r="R48" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="S48" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="T48" s="31" t="s">
+      <c r="S48" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="T48" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="U48" s="31" t="s">
+      <c r="U48" s="49" t="s">
         <v>206</v>
       </c>
-      <c r="V48" s="32" t="s">
+      <c r="V48" s="50" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="49" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="38"/>
-      <c r="B49" s="42" t="s">
+      <c r="A49" s="34"/>
+      <c r="B49" s="58" t="s">
         <v>283</v>
       </c>
-      <c r="C49" s="31" t="s">
+      <c r="C49" s="49" t="s">
         <v>200</v>
       </c>
-      <c r="D49" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E49" s="31" t="s">
+      <c r="D49" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="E49" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="F49" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="G49" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="H49" s="31" t="s">
+      <c r="F49" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="G49" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="H49" s="49" t="s">
         <v>359</v>
       </c>
-      <c r="I49" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="J49" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="K49" s="31" t="s">
+      <c r="I49" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="J49" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="K49" s="49" t="s">
         <v>283</v>
       </c>
-      <c r="L49" s="31" t="s">
+      <c r="L49" s="49" t="s">
         <v>200</v>
       </c>
-      <c r="M49" s="32" t="s">
+      <c r="M49" s="50" t="s">
         <v>230</v>
       </c>
-      <c r="N49" s="31" t="s">
+      <c r="N49" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="O49" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="P49" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q49" s="31" t="s">
+      <c r="O49" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="P49" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q49" s="49" t="s">
         <v>359</v>
       </c>
-      <c r="R49" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="S49" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="T49" s="31" t="s">
+      <c r="R49" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="S49" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="T49" s="49" t="s">
         <v>283</v>
       </c>
-      <c r="U49" s="31" t="s">
+      <c r="U49" s="49" t="s">
         <v>200</v>
       </c>
-      <c r="V49" s="32" t="s">
+      <c r="V49" s="50" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="50" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="31" t="s">
+      <c r="B50" s="49" t="s">
         <v>399</v>
       </c>
-      <c r="C50" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="D50" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E50" s="31" t="s">
+      <c r="C50" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="D50" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="E50" s="49" t="s">
         <v>398</v>
       </c>
-      <c r="F50" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="G50" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="H50" s="31" t="s">
+      <c r="F50" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="G50" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="H50" s="49" t="s">
         <v>402</v>
       </c>
-      <c r="I50" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="J50" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="K50" s="31" t="s">
+      <c r="I50" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="J50" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="K50" s="49" t="s">
         <v>399</v>
       </c>
-      <c r="L50" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="M50" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="N50" s="31" t="s">
+      <c r="L50" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="M50" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="N50" s="49" t="s">
         <v>398</v>
       </c>
-      <c r="O50" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="P50" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q50" s="31" t="s">
+      <c r="O50" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="P50" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q50" s="49" t="s">
         <v>402</v>
       </c>
-      <c r="R50" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="S50" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="T50" s="31" t="s">
+      <c r="R50" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="S50" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="T50" s="49" t="s">
         <v>399</v>
       </c>
-      <c r="U50" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="V50" s="32" t="s">
+      <c r="U50" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="V50" s="50" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="51" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="31" t="s">
+      <c r="B51" s="49" t="s">
         <v>378</v>
       </c>
-      <c r="C51" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="D51" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E51" s="31" t="s">
+      <c r="C51" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="D51" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="E51" s="49" t="s">
         <v>305</v>
       </c>
-      <c r="F51" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="G51" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="H51" s="31" t="s">
+      <c r="F51" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="G51" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="H51" s="49" t="s">
         <v>379</v>
       </c>
-      <c r="I51" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="J51" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="K51" s="31" t="s">
+      <c r="I51" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="J51" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="K51" s="49" t="s">
         <v>378</v>
       </c>
-      <c r="L51" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="M51" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="N51" s="31" t="s">
+      <c r="L51" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="M51" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="N51" s="49" t="s">
         <v>305</v>
       </c>
-      <c r="O51" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="P51" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q51" s="31" t="s">
+      <c r="O51" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="P51" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q51" s="49" t="s">
         <v>379</v>
       </c>
-      <c r="R51" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="S51" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="T51" s="31" t="s">
+      <c r="R51" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="S51" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="T51" s="49" t="s">
         <v>378</v>
       </c>
-      <c r="U51" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="V51" s="32" t="s">
+      <c r="U51" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="V51" s="50" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="52" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="31" t="s">
+      <c r="B52" s="49" t="s">
         <v>381</v>
       </c>
-      <c r="C52" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="D52" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E52" s="31" t="s">
+      <c r="C52" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="D52" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="E52" s="49" t="s">
         <v>382</v>
       </c>
-      <c r="F52" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="G52" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="H52" s="31" t="s">
+      <c r="F52" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="G52" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="H52" s="49" t="s">
         <v>383</v>
       </c>
-      <c r="I52" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="J52" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="K52" s="31" t="s">
+      <c r="I52" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="J52" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="K52" s="49" t="s">
         <v>381</v>
       </c>
-      <c r="L52" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="M52" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="N52" s="31" t="s">
+      <c r="L52" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="M52" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="N52" s="49" t="s">
         <v>382</v>
       </c>
-      <c r="O52" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="P52" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q52" s="31" t="s">
+      <c r="O52" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="P52" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q52" s="49" t="s">
         <v>383</v>
       </c>
-      <c r="R52" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="S52" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="T52" s="31" t="s">
+      <c r="R52" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="S52" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="T52" s="49" t="s">
         <v>381</v>
       </c>
-      <c r="U52" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="V52" s="32" t="s">
+      <c r="U52" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="V52" s="50" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="53" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="38"/>
-      <c r="B53" s="31" t="s">
+      <c r="A53" s="34"/>
+      <c r="B53" s="49" t="s">
         <v>160</v>
       </c>
-      <c r="C53" s="31" t="s">
+      <c r="C53" s="49" t="s">
         <v>206</v>
       </c>
-      <c r="D53" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E53" s="31" t="s">
+      <c r="D53" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="E53" s="49" t="s">
         <v>374</v>
       </c>
-      <c r="F53" s="31" t="s">
+      <c r="F53" s="49" t="s">
         <v>206</v>
       </c>
-      <c r="G53" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="H53" s="31" t="s">
+      <c r="G53" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="H53" s="49" t="s">
         <v>160</v>
       </c>
-      <c r="I53" s="31" t="s">
+      <c r="I53" s="49" t="s">
         <v>206</v>
       </c>
-      <c r="J53" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="K53" s="31" t="s">
+      <c r="J53" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="K53" s="49" t="s">
         <v>374</v>
       </c>
-      <c r="L53" s="31" t="s">
+      <c r="L53" s="49" t="s">
         <v>206</v>
       </c>
-      <c r="M53" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="N53" s="31" t="s">
+      <c r="M53" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="N53" s="49" t="s">
         <v>160</v>
       </c>
-      <c r="O53" s="31" t="s">
+      <c r="O53" s="49" t="s">
         <v>206</v>
       </c>
-      <c r="P53" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q53" s="31" t="s">
+      <c r="P53" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q53" s="49" t="s">
         <v>374</v>
       </c>
-      <c r="R53" s="31" t="s">
+      <c r="R53" s="49" t="s">
         <v>206</v>
       </c>
-      <c r="S53" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="T53" s="31" t="s">
+      <c r="S53" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="T53" s="49" t="s">
         <v>160</v>
       </c>
-      <c r="U53" s="31" t="s">
+      <c r="U53" s="49" t="s">
         <v>206</v>
       </c>
-      <c r="V53" s="32" t="s">
+      <c r="V53" s="50" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="54" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="31" t="s">
+      <c r="B54" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="C54" s="31" t="s">
+      <c r="C54" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="D54" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E54" s="31" t="s">
+      <c r="D54" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="E54" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="F54" s="31" t="s">
+      <c r="F54" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="G54" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="H54" s="31" t="s">
+      <c r="G54" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="H54" s="49" t="s">
         <v>253</v>
       </c>
-      <c r="I54" s="31" t="s">
+      <c r="I54" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="J54" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="K54" s="31" t="s">
+      <c r="J54" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="K54" s="49" t="s">
         <v>254</v>
       </c>
-      <c r="L54" s="31" t="s">
+      <c r="L54" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="M54" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="N54" s="31" t="s">
+      <c r="M54" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="N54" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="O54" s="31" t="s">
+      <c r="O54" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="P54" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q54" s="31" t="s">
+      <c r="P54" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q54" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="R54" s="31" t="s">
+      <c r="R54" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="S54" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="T54" s="31" t="s">
+      <c r="S54" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="T54" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="U54" s="31" t="s">
+      <c r="U54" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="V54" s="32" t="s">
+      <c r="V54" s="50" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="55" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="31" t="s">
+      <c r="B55" s="49" t="s">
         <v>360</v>
       </c>
-      <c r="C55" s="31" t="s">
+      <c r="C55" s="49" t="s">
         <v>199</v>
       </c>
-      <c r="D55" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E55" s="31" t="s">
+      <c r="D55" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="E55" s="49" t="s">
         <v>361</v>
       </c>
-      <c r="F55" s="31" t="s">
+      <c r="F55" s="49" t="s">
         <v>199</v>
       </c>
-      <c r="G55" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="H55" s="31" t="s">
+      <c r="G55" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="H55" s="49" t="s">
         <v>362</v>
       </c>
-      <c r="I55" s="31" t="s">
+      <c r="I55" s="49" t="s">
         <v>199</v>
       </c>
-      <c r="J55" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="K55" s="31" t="s">
+      <c r="J55" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="K55" s="49" t="s">
         <v>360</v>
       </c>
-      <c r="L55" s="31" t="s">
+      <c r="L55" s="49" t="s">
         <v>199</v>
       </c>
-      <c r="M55" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="N55" s="31" t="s">
+      <c r="M55" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="N55" s="49" t="s">
         <v>361</v>
       </c>
-      <c r="O55" s="31" t="s">
+      <c r="O55" s="49" t="s">
         <v>199</v>
       </c>
-      <c r="P55" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q55" s="31" t="s">
+      <c r="P55" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q55" s="49" t="s">
         <v>362</v>
       </c>
-      <c r="R55" s="31" t="s">
+      <c r="R55" s="49" t="s">
         <v>199</v>
       </c>
-      <c r="S55" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="T55" s="31" t="s">
+      <c r="S55" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="T55" s="49" t="s">
         <v>360</v>
       </c>
-      <c r="U55" s="31" t="s">
+      <c r="U55" s="49" t="s">
         <v>199</v>
       </c>
-      <c r="V55" s="32" t="s">
+      <c r="V55" s="50" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="56" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="38"/>
-      <c r="B56" s="31" t="s">
+      <c r="A56" s="34"/>
+      <c r="B56" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="C56" s="31" t="s">
+      <c r="C56" s="49" t="s">
         <v>206</v>
       </c>
-      <c r="D56" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E56" s="31" t="s">
+      <c r="D56" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="E56" s="49" t="s">
         <v>375</v>
       </c>
-      <c r="F56" s="31" t="s">
+      <c r="F56" s="49" t="s">
         <v>206</v>
       </c>
-      <c r="G56" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="H56" s="31" t="s">
+      <c r="G56" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="H56" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="I56" s="31" t="s">
+      <c r="I56" s="49" t="s">
         <v>206</v>
       </c>
-      <c r="J56" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="K56" s="31" t="s">
+      <c r="J56" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="K56" s="49" t="s">
         <v>375</v>
       </c>
-      <c r="L56" s="31" t="s">
+      <c r="L56" s="49" t="s">
         <v>206</v>
       </c>
-      <c r="M56" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="N56" s="31" t="s">
+      <c r="M56" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="N56" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="O56" s="31" t="s">
+      <c r="O56" s="49" t="s">
         <v>206</v>
       </c>
-      <c r="P56" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q56" s="31" t="s">
+      <c r="P56" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q56" s="49" t="s">
         <v>375</v>
       </c>
-      <c r="R56" s="31" t="s">
+      <c r="R56" s="49" t="s">
         <v>206</v>
       </c>
-      <c r="S56" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="T56" s="31" t="s">
+      <c r="S56" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="T56" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="U56" s="31" t="s">
+      <c r="U56" s="49" t="s">
         <v>206</v>
       </c>
-      <c r="V56" s="32" t="s">
+      <c r="V56" s="50" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="57" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="31" t="s">
+      <c r="B57" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="C57" s="31" t="s">
+      <c r="C57" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="D57" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E57" s="35" t="s">
+      <c r="D57" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="E57" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="F57" s="31" t="s">
+      <c r="F57" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="G57" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="H57" s="31" t="s">
+      <c r="G57" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="H57" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="I57" s="31" t="s">
+      <c r="I57" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="J57" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="K57" s="31" t="s">
+      <c r="J57" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="K57" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="L57" s="31" t="s">
+      <c r="L57" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="M57" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="N57" s="35" t="s">
+      <c r="M57" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="N57" s="51" t="s">
         <v>372</v>
       </c>
-      <c r="O57" s="31" t="s">
+      <c r="O57" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="P57" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q57" s="35" t="s">
+      <c r="P57" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q57" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="R57" s="31" t="s">
+      <c r="R57" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="S57" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="T57" s="35" t="s">
+      <c r="S57" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="T57" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="U57" s="31" t="s">
+      <c r="U57" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="V57" s="32" t="s">
+      <c r="V57" s="50" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="58" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="35" t="s">
+      <c r="B58" s="51" t="s">
         <v>363</v>
       </c>
-      <c r="C58" s="31" t="s">
+      <c r="C58" s="49" t="s">
         <v>202</v>
       </c>
-      <c r="D58" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E58" s="35" t="s">
+      <c r="D58" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="E58" s="51" t="s">
         <v>363</v>
       </c>
-      <c r="F58" s="31" t="s">
+      <c r="F58" s="49" t="s">
         <v>202</v>
       </c>
-      <c r="G58" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="H58" s="35" t="s">
+      <c r="G58" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="H58" s="51" t="s">
         <v>363</v>
       </c>
-      <c r="I58" s="31" t="s">
+      <c r="I58" s="49" t="s">
         <v>202</v>
       </c>
-      <c r="J58" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="K58" s="35" t="s">
+      <c r="J58" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="K58" s="51" t="s">
         <v>363</v>
       </c>
-      <c r="L58" s="31" t="s">
+      <c r="L58" s="49" t="s">
         <v>202</v>
       </c>
-      <c r="M58" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="N58" s="35" t="s">
+      <c r="M58" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="N58" s="51" t="s">
         <v>363</v>
       </c>
-      <c r="O58" s="31" t="s">
+      <c r="O58" s="49" t="s">
         <v>202</v>
       </c>
-      <c r="P58" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q58" s="35" t="s">
+      <c r="P58" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q58" s="51" t="s">
         <v>363</v>
       </c>
-      <c r="R58" s="31" t="s">
+      <c r="R58" s="49" t="s">
         <v>202</v>
       </c>
-      <c r="S58" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="T58" s="35" t="s">
+      <c r="S58" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="T58" s="51" t="s">
         <v>363</v>
       </c>
-      <c r="U58" s="31" t="s">
+      <c r="U58" s="49" t="s">
         <v>202</v>
       </c>
-      <c r="V58" s="32" t="s">
+      <c r="V58" s="50" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="59" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="31" t="s">
+      <c r="B59" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C59" s="31" t="s">
+      <c r="C59" s="49" t="s">
         <v>202</v>
       </c>
-      <c r="D59" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E59" s="31" t="s">
+      <c r="D59" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="E59" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="F59" s="31" t="s">
+      <c r="F59" s="49" t="s">
         <v>202</v>
       </c>
-      <c r="G59" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="H59" s="31" t="s">
+      <c r="G59" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="H59" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="I59" s="31" t="s">
+      <c r="I59" s="49" t="s">
         <v>202</v>
       </c>
-      <c r="J59" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="K59" s="31" t="s">
+      <c r="J59" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="K59" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="L59" s="31" t="s">
+      <c r="L59" s="49" t="s">
         <v>202</v>
       </c>
-      <c r="M59" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="N59" s="31" t="s">
+      <c r="M59" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="N59" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="O59" s="31" t="s">
+      <c r="O59" s="49" t="s">
         <v>202</v>
       </c>
-      <c r="P59" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q59" s="31" t="s">
+      <c r="P59" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q59" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="R59" s="31" t="s">
+      <c r="R59" s="49" t="s">
         <v>202</v>
       </c>
-      <c r="S59" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="T59" s="31" t="s">
+      <c r="S59" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="T59" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="U59" s="31" t="s">
+      <c r="U59" s="49" t="s">
         <v>202</v>
       </c>
-      <c r="V59" s="32" t="s">
+      <c r="V59" s="50" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="60" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="31" t="s">
+      <c r="B60" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="C60" s="31" t="s">
+      <c r="C60" s="49" t="s">
         <v>206</v>
       </c>
-      <c r="D60" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E60" s="31" t="s">
+      <c r="D60" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="E60" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="F60" s="31" t="s">
+      <c r="F60" s="49" t="s">
         <v>206</v>
       </c>
-      <c r="G60" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="H60" s="31" t="s">
+      <c r="G60" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="H60" s="49" t="s">
         <v>373</v>
       </c>
-      <c r="I60" s="31" t="s">
+      <c r="I60" s="49" t="s">
         <v>206</v>
       </c>
-      <c r="J60" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="K60" s="31" t="s">
+      <c r="J60" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="K60" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="L60" s="31" t="s">
+      <c r="L60" s="49" t="s">
         <v>206</v>
       </c>
-      <c r="M60" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="N60" s="31" t="s">
+      <c r="M60" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="N60" s="49" t="s">
         <v>376</v>
       </c>
-      <c r="O60" s="31" t="s">
+      <c r="O60" s="49" t="s">
         <v>206</v>
       </c>
-      <c r="P60" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q60" s="31" t="s">
+      <c r="P60" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q60" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="R60" s="31" t="s">
+      <c r="R60" s="49" t="s">
         <v>206</v>
       </c>
-      <c r="S60" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="T60" s="31" t="s">
+      <c r="S60" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="T60" s="49" t="s">
         <v>165</v>
       </c>
-      <c r="U60" s="31" t="s">
+      <c r="U60" s="49" t="s">
         <v>206</v>
       </c>
-      <c r="V60" s="32" t="s">
+      <c r="V60" s="50" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="61" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="31" t="s">
+      <c r="B61" s="49" t="s">
         <v>390</v>
       </c>
-      <c r="C61" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="D61" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E61" s="31" t="s">
+      <c r="C61" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="D61" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="E61" s="49" t="s">
         <v>391</v>
       </c>
-      <c r="F61" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="G61" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="H61" s="31" t="s">
+      <c r="F61" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="G61" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="H61" s="49" t="s">
         <v>392</v>
       </c>
-      <c r="I61" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="J61" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="K61" s="31" t="s">
+      <c r="I61" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="J61" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="K61" s="49" t="s">
         <v>390</v>
       </c>
-      <c r="L61" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="M61" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="N61" s="31" t="s">
+      <c r="L61" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="M61" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="N61" s="49" t="s">
         <v>391</v>
       </c>
-      <c r="O61" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="P61" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q61" s="31" t="s">
+      <c r="O61" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="P61" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q61" s="49" t="s">
         <v>392</v>
       </c>
-      <c r="R61" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="S61" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="T61" s="31" t="s">
+      <c r="R61" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="S61" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="T61" s="49" t="s">
         <v>390</v>
       </c>
-      <c r="U61" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="V61" s="32" t="s">
+      <c r="U61" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="V61" s="50" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="62" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="31" t="s">
+      <c r="B62" s="49" t="s">
         <v>405</v>
       </c>
-      <c r="C62" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="D62" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E62" s="31" t="s">
+      <c r="C62" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="D62" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="E62" s="49" t="s">
         <v>406</v>
       </c>
-      <c r="F62" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="G62" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="H62" s="31" t="s">
+      <c r="F62" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="G62" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="H62" s="49" t="s">
         <v>395</v>
       </c>
-      <c r="I62" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="J62" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="K62" s="31" t="s">
+      <c r="I62" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="J62" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="K62" s="49" t="s">
         <v>405</v>
       </c>
-      <c r="L62" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="M62" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="N62" s="31" t="s">
+      <c r="L62" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="M62" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="N62" s="49" t="s">
         <v>406</v>
       </c>
-      <c r="O62" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="P62" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q62" s="31" t="s">
+      <c r="O62" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="P62" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q62" s="49" t="s">
         <v>395</v>
       </c>
-      <c r="R62" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="S62" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="T62" s="31" t="s">
+      <c r="R62" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="S62" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="T62" s="49" t="s">
         <v>405</v>
       </c>
-      <c r="U62" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="V62" s="32" t="s">
+      <c r="U62" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="V62" s="50" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="63" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="31" t="s">
+      <c r="B63" s="49" t="s">
         <v>389</v>
       </c>
-      <c r="C63" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="D63" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E63" s="31" t="s">
+      <c r="C63" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="D63" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="E63" s="49" t="s">
         <v>388</v>
       </c>
-      <c r="F63" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="G63" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="H63" s="31" t="s">
+      <c r="F63" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="G63" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="H63" s="49" t="s">
         <v>387</v>
       </c>
-      <c r="I63" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="J63" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="K63" s="31" t="s">
+      <c r="I63" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="J63" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="K63" s="49" t="s">
         <v>389</v>
       </c>
-      <c r="L63" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="M63" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="N63" s="31" t="s">
+      <c r="L63" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="M63" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="N63" s="49" t="s">
         <v>388</v>
       </c>
-      <c r="O63" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="P63" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q63" s="31" t="s">
+      <c r="O63" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="P63" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q63" s="49" t="s">
         <v>387</v>
       </c>
-      <c r="R63" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="S63" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="T63" s="31" t="s">
+      <c r="R63" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="S63" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="T63" s="49" t="s">
         <v>389</v>
       </c>
-      <c r="U63" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="V63" s="32" t="s">
+      <c r="U63" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="V63" s="50" t="s">
         <v>210</v>
       </c>
     </row>

--- a/MASTER Collection Schedule.xlsx
+++ b/MASTER Collection Schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10117"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brandon.travis/Development/GitHub/pmm-config/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brandontravis/Development/pmm-config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7198D9D0-443F-FC42-AC3A-D13570014459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277132AA-49A5-254D-8B49-95E99315A72D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="21380" activeTab="2" xr2:uid="{34EAF699-62FB-4548-AC27-08363F05758A}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="48420" windowHeight="27320" activeTab="2" xr2:uid="{34EAF699-62FB-4548-AC27-08363F05758A}"/>
   </bookViews>
   <sheets>
     <sheet name="Movies" sheetId="1" r:id="rId1"/>
@@ -1722,7 +1722,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1773,6 +1773,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1800,29 +1814,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2154,10 +2148,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="40"/>
+      <c r="D1" s="48"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -5077,8 +5071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{961870A6-6628-8840-AC00-0AEFD098BBAD}">
   <dimension ref="B1:Z800"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G35" sqref="E35:G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -5160,45 +5154,45 @@
       <c r="V2" s="8"/>
     </row>
     <row r="3" spans="2:26" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="54" t="s">
         <v>189</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="46" t="s">
+      <c r="C3" s="55"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="54" t="s">
         <v>190</v>
       </c>
-      <c r="F3" s="47"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="46" t="s">
+      <c r="F3" s="55"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="54" t="s">
         <v>191</v>
       </c>
-      <c r="I3" s="47"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="46" t="s">
+      <c r="I3" s="55"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="54" t="s">
         <v>192</v>
       </c>
-      <c r="L3" s="47"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="46" t="s">
+      <c r="L3" s="55"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="54" t="s">
         <v>193</v>
       </c>
-      <c r="O3" s="47"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="46" t="s">
+      <c r="O3" s="55"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="54" t="s">
         <v>194</v>
       </c>
-      <c r="R3" s="47"/>
-      <c r="S3" s="48"/>
-      <c r="T3" s="46" t="s">
+      <c r="R3" s="55"/>
+      <c r="S3" s="56"/>
+      <c r="T3" s="54" t="s">
         <v>196</v>
       </c>
-      <c r="U3" s="47"/>
-      <c r="V3" s="48"/>
-      <c r="Y3" s="41" t="s">
+      <c r="U3" s="55"/>
+      <c r="V3" s="56"/>
+      <c r="Y3" s="49" t="s">
         <v>208</v>
       </c>
-      <c r="Z3" s="42"/>
+      <c r="Z3" s="50"/>
     </row>
     <row r="4" spans="2:26" s="9" customFormat="1" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
@@ -5272,55 +5266,55 @@
       </c>
     </row>
     <row r="5" spans="2:26" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="45" t="s">
         <v>226</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="45" t="s">
         <v>197</v>
       </c>
-      <c r="D5" s="60"/>
-      <c r="E5" s="59" t="s">
+      <c r="D5" s="46"/>
+      <c r="E5" s="45" t="s">
         <v>226</v>
       </c>
-      <c r="F5" s="59" t="s">
+      <c r="F5" s="45" t="s">
         <v>197</v>
       </c>
-      <c r="G5" s="60"/>
-      <c r="H5" s="59" t="s">
+      <c r="G5" s="46"/>
+      <c r="H5" s="45" t="s">
         <v>226</v>
       </c>
-      <c r="I5" s="59" t="s">
+      <c r="I5" s="45" t="s">
         <v>197</v>
       </c>
-      <c r="J5" s="60"/>
-      <c r="K5" s="59" t="s">
+      <c r="J5" s="46"/>
+      <c r="K5" s="45" t="s">
         <v>226</v>
       </c>
-      <c r="L5" s="59" t="s">
+      <c r="L5" s="45" t="s">
         <v>197</v>
       </c>
-      <c r="M5" s="60"/>
-      <c r="N5" s="59" t="s">
+      <c r="M5" s="46"/>
+      <c r="N5" s="45" t="s">
         <v>226</v>
       </c>
-      <c r="O5" s="59" t="s">
+      <c r="O5" s="45" t="s">
         <v>197</v>
       </c>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="59" t="s">
+      <c r="P5" s="46"/>
+      <c r="Q5" s="45" t="s">
         <v>226</v>
       </c>
-      <c r="R5" s="59" t="s">
+      <c r="R5" s="45" t="s">
         <v>197</v>
       </c>
-      <c r="S5" s="60"/>
-      <c r="T5" s="59" t="s">
+      <c r="S5" s="46"/>
+      <c r="T5" s="45" t="s">
         <v>226</v>
       </c>
-      <c r="U5" s="59" t="s">
+      <c r="U5" s="45" t="s">
         <v>197</v>
       </c>
-      <c r="V5" s="60"/>
+      <c r="V5" s="46"/>
       <c r="Y5" s="14" t="s">
         <v>32</v>
       </c>
@@ -5329,55 +5323,55 @@
       </c>
     </row>
     <row r="6" spans="2:26" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="45" t="s">
         <v>197</v>
       </c>
-      <c r="D6" s="60"/>
-      <c r="E6" s="59" t="s">
+      <c r="D6" s="46"/>
+      <c r="E6" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="59" t="s">
+      <c r="F6" s="45" t="s">
         <v>197</v>
       </c>
-      <c r="G6" s="60"/>
-      <c r="H6" s="59" t="s">
+      <c r="G6" s="46"/>
+      <c r="H6" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="59" t="s">
+      <c r="I6" s="45" t="s">
         <v>197</v>
       </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="59" t="s">
+      <c r="J6" s="46"/>
+      <c r="K6" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="59" t="s">
+      <c r="L6" s="45" t="s">
         <v>197</v>
       </c>
-      <c r="M6" s="60"/>
-      <c r="N6" s="59" t="s">
+      <c r="M6" s="46"/>
+      <c r="N6" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="O6" s="59" t="s">
+      <c r="O6" s="45" t="s">
         <v>197</v>
       </c>
-      <c r="P6" s="60"/>
-      <c r="Q6" s="59" t="s">
+      <c r="P6" s="46"/>
+      <c r="Q6" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="R6" s="59" t="s">
+      <c r="R6" s="45" t="s">
         <v>197</v>
       </c>
-      <c r="S6" s="60"/>
-      <c r="T6" s="59" t="s">
+      <c r="S6" s="46"/>
+      <c r="T6" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="U6" s="59" t="s">
+      <c r="U6" s="45" t="s">
         <v>197</v>
       </c>
-      <c r="V6" s="60"/>
+      <c r="V6" s="46"/>
       <c r="Y6" s="12" t="s">
         <v>229</v>
       </c>
@@ -5386,67 +5380,67 @@
       </c>
     </row>
     <row r="7" spans="2:26" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="45" t="s">
         <v>225</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="45" t="s">
         <v>201</v>
       </c>
-      <c r="D7" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="E7" s="59" t="s">
+      <c r="D7" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="E7" s="45" t="s">
         <v>225</v>
       </c>
-      <c r="F7" s="59" t="s">
+      <c r="F7" s="45" t="s">
         <v>201</v>
       </c>
-      <c r="G7" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="H7" s="59" t="s">
+      <c r="G7" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="H7" s="45" t="s">
         <v>225</v>
       </c>
-      <c r="I7" s="59" t="s">
+      <c r="I7" s="45" t="s">
         <v>201</v>
       </c>
-      <c r="J7" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="K7" s="59" t="s">
+      <c r="J7" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="K7" s="45" t="s">
         <v>225</v>
       </c>
-      <c r="L7" s="59" t="s">
+      <c r="L7" s="45" t="s">
         <v>201</v>
       </c>
-      <c r="M7" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="N7" s="59" t="s">
+      <c r="M7" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="N7" s="45" t="s">
         <v>225</v>
       </c>
-      <c r="O7" s="59" t="s">
+      <c r="O7" s="45" t="s">
         <v>201</v>
       </c>
-      <c r="P7" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q7" s="59" t="s">
+      <c r="P7" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q7" s="45" t="s">
         <v>225</v>
       </c>
-      <c r="R7" s="59" t="s">
+      <c r="R7" s="45" t="s">
         <v>201</v>
       </c>
-      <c r="S7" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="T7" s="59" t="s">
+      <c r="S7" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="T7" s="45" t="s">
         <v>225</v>
       </c>
-      <c r="U7" s="59" t="s">
+      <c r="U7" s="45" t="s">
         <v>201</v>
       </c>
-      <c r="V7" s="60" t="s">
+      <c r="V7" s="46" t="s">
         <v>210</v>
       </c>
       <c r="Y7" s="14" t="s">
@@ -5457,55 +5451,55 @@
       </c>
     </row>
     <row r="8" spans="2:26" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="45" t="s">
         <v>182</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="45" t="s">
         <v>197</v>
       </c>
-      <c r="D8" s="60"/>
-      <c r="E8" s="59" t="s">
+      <c r="D8" s="46"/>
+      <c r="E8" s="45" t="s">
         <v>182</v>
       </c>
-      <c r="F8" s="59" t="s">
+      <c r="F8" s="45" t="s">
         <v>197</v>
       </c>
-      <c r="G8" s="60"/>
-      <c r="H8" s="59" t="s">
+      <c r="G8" s="46"/>
+      <c r="H8" s="45" t="s">
         <v>182</v>
       </c>
-      <c r="I8" s="59" t="s">
+      <c r="I8" s="45" t="s">
         <v>197</v>
       </c>
-      <c r="J8" s="60"/>
-      <c r="K8" s="59" t="s">
+      <c r="J8" s="46"/>
+      <c r="K8" s="45" t="s">
         <v>182</v>
       </c>
-      <c r="L8" s="59" t="s">
+      <c r="L8" s="45" t="s">
         <v>197</v>
       </c>
-      <c r="M8" s="60"/>
-      <c r="N8" s="59" t="s">
+      <c r="M8" s="46"/>
+      <c r="N8" s="45" t="s">
         <v>182</v>
       </c>
-      <c r="O8" s="59" t="s">
+      <c r="O8" s="45" t="s">
         <v>197</v>
       </c>
-      <c r="P8" s="60"/>
-      <c r="Q8" s="59" t="s">
+      <c r="P8" s="46"/>
+      <c r="Q8" s="45" t="s">
         <v>182</v>
       </c>
-      <c r="R8" s="59" t="s">
+      <c r="R8" s="45" t="s">
         <v>197</v>
       </c>
-      <c r="S8" s="60"/>
-      <c r="T8" s="59" t="s">
+      <c r="S8" s="46"/>
+      <c r="T8" s="45" t="s">
         <v>182</v>
       </c>
-      <c r="U8" s="59" t="s">
+      <c r="U8" s="45" t="s">
         <v>197</v>
       </c>
-      <c r="V8" s="60"/>
+      <c r="V8" s="46"/>
       <c r="Y8" s="14" t="s">
         <v>36</v>
       </c>
@@ -5514,67 +5508,67 @@
       </c>
     </row>
     <row r="9" spans="2:26" s="30" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="D9" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="E9" s="59" t="s">
+      <c r="C9" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="E9" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="G9" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="H9" s="59" t="s">
+      <c r="F9" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="G9" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="H9" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="J9" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="K9" s="59" t="s">
+      <c r="I9" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="J9" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="K9" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="L9" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="M9" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="N9" s="59" t="s">
+      <c r="L9" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="M9" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="N9" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="O9" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="P9" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q9" s="59" t="s">
+      <c r="O9" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="P9" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q9" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="R9" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="S9" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="T9" s="59" t="s">
+      <c r="R9" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="S9" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="T9" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="U9" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="V9" s="60" t="s">
+      <c r="U9" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="V9" s="46" t="s">
         <v>210</v>
       </c>
       <c r="Y9" s="14" t="s">
@@ -5585,67 +5579,67 @@
       </c>
     </row>
     <row r="10" spans="2:26" s="30" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="45" t="s">
         <v>224</v>
       </c>
-      <c r="C10" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="D10" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="E10" s="59" t="s">
+      <c r="C10" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="E10" s="45" t="s">
         <v>224</v>
       </c>
-      <c r="F10" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="G10" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="H10" s="59" t="s">
+      <c r="F10" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="G10" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="H10" s="45" t="s">
         <v>224</v>
       </c>
-      <c r="I10" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="J10" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="K10" s="59" t="s">
+      <c r="I10" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="J10" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="K10" s="45" t="s">
         <v>224</v>
       </c>
-      <c r="L10" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="M10" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="N10" s="59" t="s">
+      <c r="L10" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="M10" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="N10" s="45" t="s">
         <v>224</v>
       </c>
-      <c r="O10" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="P10" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q10" s="59" t="s">
+      <c r="O10" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="P10" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q10" s="45" t="s">
         <v>224</v>
       </c>
-      <c r="R10" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="S10" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="T10" s="59" t="s">
+      <c r="R10" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="S10" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="T10" s="45" t="s">
         <v>224</v>
       </c>
-      <c r="U10" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="V10" s="60" t="s">
+      <c r="U10" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="V10" s="46" t="s">
         <v>210</v>
       </c>
       <c r="Y10" s="14" t="s">
@@ -5656,67 +5650,67 @@
       </c>
     </row>
     <row r="11" spans="2:26" s="30" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="D11" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="E11" s="59" t="s">
+      <c r="C11" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="E11" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="G11" s="60" t="s">
+      <c r="F11" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="G11" s="46" t="s">
         <v>230</v>
       </c>
-      <c r="H11" s="59" t="s">
+      <c r="H11" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="J11" s="60" t="s">
+      <c r="I11" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="J11" s="46" t="s">
         <v>230</v>
       </c>
-      <c r="K11" s="59" t="s">
+      <c r="K11" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="L11" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="M11" s="60" t="s">
+      <c r="L11" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="M11" s="46" t="s">
         <v>230</v>
       </c>
-      <c r="N11" s="59" t="s">
+      <c r="N11" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="O11" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="P11" s="60" t="s">
+      <c r="O11" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="P11" s="46" t="s">
         <v>230</v>
       </c>
-      <c r="Q11" s="59" t="s">
+      <c r="Q11" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="R11" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="S11" s="60" t="s">
+      <c r="R11" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="S11" s="46" t="s">
         <v>230</v>
       </c>
-      <c r="T11" s="59" t="s">
+      <c r="T11" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="U11" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="V11" s="60" t="s">
+      <c r="U11" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="V11" s="46" t="s">
         <v>230</v>
       </c>
       <c r="Y11" s="29" t="s">
@@ -5727,67 +5721,67 @@
       </c>
     </row>
     <row r="12" spans="2:26" s="30" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="D12" s="60" t="s">
+      <c r="C12" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="D12" s="46" t="s">
         <v>230</v>
       </c>
-      <c r="E12" s="59" t="s">
+      <c r="E12" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="G12" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="H12" s="59" t="s">
+      <c r="F12" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="G12" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="H12" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="J12" s="60" t="s">
+      <c r="I12" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="J12" s="46" t="s">
         <v>230</v>
       </c>
-      <c r="K12" s="59" t="s">
+      <c r="K12" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="L12" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="M12" s="60" t="s">
+      <c r="L12" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="M12" s="46" t="s">
         <v>230</v>
       </c>
-      <c r="N12" s="59" t="s">
+      <c r="N12" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="O12" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="P12" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q12" s="59" t="s">
+      <c r="O12" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="P12" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q12" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="R12" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="S12" s="60" t="s">
+      <c r="R12" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="S12" s="46" t="s">
         <v>230</v>
       </c>
-      <c r="T12" s="59" t="s">
+      <c r="T12" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="U12" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="V12" s="60" t="s">
+      <c r="U12" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="V12" s="46" t="s">
         <v>230</v>
       </c>
       <c r="Y12" s="14" t="s">
@@ -5798,67 +5792,67 @@
       </c>
     </row>
     <row r="13" spans="2:26" s="30" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="D13" s="60" t="s">
+      <c r="C13" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="D13" s="46" t="s">
         <v>230</v>
       </c>
-      <c r="E13" s="59" t="s">
+      <c r="E13" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="G13" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="H13" s="59" t="s">
+      <c r="F13" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="G13" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="H13" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="J13" s="60" t="s">
+      <c r="I13" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="J13" s="46" t="s">
         <v>230</v>
       </c>
-      <c r="K13" s="59" t="s">
+      <c r="K13" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="L13" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="M13" s="60" t="s">
+      <c r="L13" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="M13" s="46" t="s">
         <v>230</v>
       </c>
-      <c r="N13" s="59" t="s">
+      <c r="N13" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="O13" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="P13" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q13" s="59" t="s">
+      <c r="O13" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="P13" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q13" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="R13" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="S13" s="60" t="s">
+      <c r="R13" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="S13" s="46" t="s">
         <v>230</v>
       </c>
-      <c r="T13" s="59" t="s">
+      <c r="T13" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="U13" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="V13" s="60" t="s">
+      <c r="U13" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="V13" s="46" t="s">
         <v>230</v>
       </c>
       <c r="Y13" s="14" t="s">
@@ -5981,41 +5975,41 @@
       <c r="V17" s="8"/>
     </row>
     <row r="18" spans="2:25" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="51" t="s">
         <v>189</v>
       </c>
-      <c r="C18" s="44"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="43" t="s">
+      <c r="C18" s="52"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="51" t="s">
         <v>190</v>
       </c>
-      <c r="F18" s="44"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="43" t="s">
+      <c r="F18" s="52"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="51" t="s">
         <v>191</v>
       </c>
-      <c r="I18" s="44"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="43" t="s">
+      <c r="I18" s="52"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="51" t="s">
         <v>192</v>
       </c>
-      <c r="L18" s="44"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="43" t="s">
+      <c r="L18" s="52"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="51" t="s">
         <v>193</v>
       </c>
-      <c r="O18" s="44"/>
-      <c r="P18" s="45"/>
-      <c r="Q18" s="43" t="s">
+      <c r="O18" s="52"/>
+      <c r="P18" s="53"/>
+      <c r="Q18" s="51" t="s">
         <v>194</v>
       </c>
-      <c r="R18" s="44"/>
-      <c r="S18" s="45"/>
-      <c r="T18" s="43" t="s">
+      <c r="R18" s="52"/>
+      <c r="S18" s="53"/>
+      <c r="T18" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="U18" s="44"/>
-      <c r="V18" s="45"/>
+      <c r="U18" s="52"/>
+      <c r="V18" s="53"/>
     </row>
     <row r="19" spans="2:25" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
@@ -6083,197 +6077,197 @@
       </c>
     </row>
     <row r="20" spans="2:25" s="30" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="59" t="s">
+      <c r="B20" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="D20" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="E20" s="59" t="s">
+      <c r="C20" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="D20" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="E20" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="F20" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="G20" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="H20" s="59" t="s">
+      <c r="F20" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="G20" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="H20" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="I20" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="J20" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="K20" s="59" t="s">
+      <c r="I20" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="J20" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="K20" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="L20" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="M20" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="N20" s="59" t="s">
+      <c r="L20" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="M20" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="N20" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="O20" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="P20" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q20" s="59" t="s">
+      <c r="O20" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="P20" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q20" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="R20" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="S20" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="T20" s="59" t="s">
+      <c r="R20" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="S20" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="T20" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="U20" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="V20" s="60" t="s">
+      <c r="U20" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="V20" s="46" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="21" spans="2:25" s="30" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="59" t="s">
+      <c r="B21" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="D21" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="E21" s="59" t="s">
+      <c r="C21" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="D21" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="E21" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="G21" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="H21" s="59" t="s">
+      <c r="F21" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="G21" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="H21" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="I21" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="J21" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="K21" s="59" t="s">
+      <c r="I21" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="J21" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="K21" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="L21" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="M21" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="N21" s="59" t="s">
+      <c r="L21" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="M21" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="N21" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="O21" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="P21" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q21" s="59" t="s">
+      <c r="O21" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="P21" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q21" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="R21" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="S21" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="T21" s="59" t="s">
+      <c r="R21" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="S21" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="T21" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="U21" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="V21" s="60" t="s">
+      <c r="U21" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="V21" s="46" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="22" spans="2:25" s="30" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="59" t="s">
+      <c r="B22" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="59" t="s">
+      <c r="C22" s="45" t="s">
         <v>199</v>
       </c>
-      <c r="D22" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="E22" s="59" t="s">
+      <c r="D22" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="E22" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="59" t="s">
+      <c r="F22" s="45" t="s">
         <v>199</v>
       </c>
-      <c r="G22" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="H22" s="59" t="s">
+      <c r="G22" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="H22" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="I22" s="59" t="s">
+      <c r="I22" s="45" t="s">
         <v>199</v>
       </c>
-      <c r="J22" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="K22" s="59" t="s">
+      <c r="J22" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="K22" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="L22" s="59" t="s">
+      <c r="L22" s="45" t="s">
         <v>199</v>
       </c>
-      <c r="M22" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="N22" s="59" t="s">
+      <c r="M22" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="N22" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="O22" s="59" t="s">
+      <c r="O22" s="45" t="s">
         <v>199</v>
       </c>
-      <c r="P22" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q22" s="59" t="s">
+      <c r="P22" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q22" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="R22" s="59" t="s">
+      <c r="R22" s="45" t="s">
         <v>199</v>
       </c>
-      <c r="S22" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="T22" s="59" t="s">
+      <c r="S22" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="T22" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="U22" s="59" t="s">
+      <c r="U22" s="45" t="s">
         <v>199</v>
       </c>
-      <c r="V22" s="60" t="s">
+      <c r="V22" s="46" t="s">
         <v>210</v>
       </c>
       <c r="Y22" s="1" t="s">
@@ -6281,67 +6275,67 @@
       </c>
     </row>
     <row r="23" spans="2:25" s="30" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="59" t="s">
+      <c r="B23" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="D23" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="E23" s="59" t="s">
+      <c r="C23" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="D23" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="E23" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="G23" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="H23" s="59" t="s">
+      <c r="F23" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="G23" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="H23" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="I23" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="J23" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="K23" s="59" t="s">
+      <c r="I23" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="J23" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="K23" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="L23" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="M23" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="N23" s="59" t="s">
+      <c r="L23" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="M23" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="N23" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="O23" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="P23" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q23" s="59" t="s">
+      <c r="O23" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="P23" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q23" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="R23" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="S23" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="T23" s="59" t="s">
+      <c r="R23" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="S23" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="T23" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="U23" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="V23" s="60" t="s">
+      <c r="U23" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="V23" s="46" t="s">
         <v>210</v>
       </c>
       <c r="Y23" s="1" t="s">
@@ -6349,67 +6343,67 @@
       </c>
     </row>
     <row r="24" spans="2:25" s="30" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="59" t="s">
+      <c r="B24" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="D24" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="E24" s="59" t="s">
+      <c r="C24" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="D24" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="E24" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="F24" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="G24" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="H24" s="59" t="s">
+      <c r="F24" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="G24" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="H24" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="I24" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="J24" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="K24" s="59" t="s">
+      <c r="I24" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="J24" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="K24" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="L24" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="M24" s="60" t="s">
+      <c r="L24" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="M24" s="46" t="s">
         <v>230</v>
       </c>
-      <c r="N24" s="59" t="s">
+      <c r="N24" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="O24" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="P24" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q24" s="59" t="s">
+      <c r="O24" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="P24" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q24" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="R24" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="S24" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="T24" s="59" t="s">
+      <c r="R24" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="S24" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="T24" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="U24" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="V24" s="60" t="s">
+      <c r="U24" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="V24" s="46" t="s">
         <v>230</v>
       </c>
       <c r="Y24" s="1" t="s">
@@ -6417,67 +6411,67 @@
       </c>
     </row>
     <row r="25" spans="2:25" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="59" t="s">
+      <c r="B25" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="59" t="s">
+      <c r="C25" s="45" t="s">
         <v>199</v>
       </c>
-      <c r="D25" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="E25" s="59" t="s">
+      <c r="D25" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="E25" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="F25" s="59" t="s">
+      <c r="F25" s="45" t="s">
         <v>202</v>
       </c>
-      <c r="G25" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="H25" s="59" t="s">
+      <c r="G25" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="H25" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="59" t="s">
+      <c r="I25" s="45" t="s">
         <v>199</v>
       </c>
-      <c r="J25" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="K25" s="59" t="s">
+      <c r="J25" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="K25" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="L25" s="59" t="s">
+      <c r="L25" s="45" t="s">
         <v>199</v>
       </c>
-      <c r="M25" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="N25" s="59" t="s">
+      <c r="M25" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="N25" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="O25" s="59" t="s">
+      <c r="O25" s="45" t="s">
         <v>199</v>
       </c>
-      <c r="P25" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q25" s="59" t="s">
+      <c r="P25" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q25" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="R25" s="59" t="s">
+      <c r="R25" s="45" t="s">
         <v>199</v>
       </c>
-      <c r="S25" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="T25" s="61" t="s">
+      <c r="S25" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="T25" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="U25" s="59" t="s">
+      <c r="U25" s="45" t="s">
         <v>199</v>
       </c>
-      <c r="V25" s="60" t="s">
+      <c r="V25" s="46" t="s">
         <v>210</v>
       </c>
       <c r="Y25" s="24" t="s">
@@ -6485,67 +6479,67 @@
       </c>
     </row>
     <row r="26" spans="2:25" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="59" t="s">
+      <c r="B26" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="59" t="s">
+      <c r="C26" s="45" t="s">
         <v>202</v>
       </c>
-      <c r="D26" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="E26" s="59" t="s">
+      <c r="D26" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="E26" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="59" t="s">
+      <c r="F26" s="45" t="s">
         <v>202</v>
       </c>
-      <c r="G26" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="H26" s="59" t="s">
+      <c r="G26" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="H26" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="59" t="s">
+      <c r="I26" s="45" t="s">
         <v>202</v>
       </c>
-      <c r="J26" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="K26" s="59" t="s">
+      <c r="J26" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="K26" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="L26" s="59" t="s">
+      <c r="L26" s="45" t="s">
         <v>202</v>
       </c>
-      <c r="M26" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="N26" s="59" t="s">
+      <c r="M26" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="N26" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="O26" s="59" t="s">
+      <c r="O26" s="45" t="s">
         <v>202</v>
       </c>
-      <c r="P26" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q26" s="59" t="s">
+      <c r="P26" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q26" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="R26" s="59" t="s">
+      <c r="R26" s="45" t="s">
         <v>202</v>
       </c>
-      <c r="S26" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="T26" s="59" t="s">
+      <c r="S26" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="T26" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="U26" s="59" t="s">
+      <c r="U26" s="45" t="s">
         <v>202</v>
       </c>
-      <c r="V26" s="60" t="s">
+      <c r="V26" s="46" t="s">
         <v>210</v>
       </c>
       <c r="Y26" s="26" t="s">
@@ -6553,67 +6547,67 @@
       </c>
     </row>
     <row r="27" spans="2:25" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="59" t="s">
+      <c r="B27" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="59" t="s">
+      <c r="C27" s="45" t="s">
         <v>202</v>
       </c>
-      <c r="D27" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="E27" s="59" t="s">
+      <c r="D27" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="E27" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="F27" s="59" t="s">
+      <c r="F27" s="45" t="s">
         <v>202</v>
       </c>
-      <c r="G27" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="H27" s="59" t="s">
+      <c r="G27" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="H27" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="I27" s="59" t="s">
+      <c r="I27" s="45" t="s">
         <v>202</v>
       </c>
-      <c r="J27" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="K27" s="59" t="s">
+      <c r="J27" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="K27" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="L27" s="59" t="s">
+      <c r="L27" s="45" t="s">
         <v>202</v>
       </c>
-      <c r="M27" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="N27" s="59" t="s">
+      <c r="M27" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="N27" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="O27" s="59" t="s">
+      <c r="O27" s="45" t="s">
         <v>202</v>
       </c>
-      <c r="P27" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q27" s="59" t="s">
+      <c r="P27" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q27" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="R27" s="59" t="s">
+      <c r="R27" s="45" t="s">
         <v>202</v>
       </c>
-      <c r="S27" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="T27" s="59" t="s">
+      <c r="S27" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="T27" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="U27" s="59" t="s">
+      <c r="U27" s="45" t="s">
         <v>202</v>
       </c>
-      <c r="V27" s="60" t="s">
+      <c r="V27" s="46" t="s">
         <v>210</v>
       </c>
       <c r="Y27" s="25" t="s">
@@ -6621,67 +6615,67 @@
       </c>
     </row>
     <row r="28" spans="2:25" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="59" t="s">
+      <c r="B28" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="59" t="s">
+      <c r="C28" s="45" t="s">
         <v>202</v>
       </c>
-      <c r="D28" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="E28" s="59" t="s">
+      <c r="D28" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="E28" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="F28" s="59" t="s">
+      <c r="F28" s="45" t="s">
         <v>202</v>
       </c>
-      <c r="G28" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="H28" s="59" t="s">
+      <c r="G28" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="H28" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="I28" s="59" t="s">
+      <c r="I28" s="45" t="s">
         <v>202</v>
       </c>
-      <c r="J28" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="K28" s="59" t="s">
+      <c r="J28" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="K28" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="L28" s="59" t="s">
+      <c r="L28" s="45" t="s">
         <v>202</v>
       </c>
-      <c r="M28" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="N28" s="59" t="s">
+      <c r="M28" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="N28" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="O28" s="59" t="s">
+      <c r="O28" s="45" t="s">
         <v>202</v>
       </c>
-      <c r="P28" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q28" s="59" t="s">
+      <c r="P28" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q28" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="R28" s="59" t="s">
+      <c r="R28" s="45" t="s">
         <v>202</v>
       </c>
-      <c r="S28" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="T28" s="59" t="s">
+      <c r="S28" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="T28" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="U28" s="59" t="s">
+      <c r="U28" s="45" t="s">
         <v>202</v>
       </c>
-      <c r="V28" s="60" t="s">
+      <c r="V28" s="46" t="s">
         <v>210</v>
       </c>
       <c r="Y28" s="25" t="s">
@@ -6689,199 +6683,199 @@
       </c>
     </row>
     <row r="29" spans="2:25" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="59" t="s">
+      <c r="B29" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="59" t="s">
+      <c r="C29" s="45" t="s">
         <v>202</v>
       </c>
-      <c r="D29" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="E29" s="59" t="s">
+      <c r="D29" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="E29" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="F29" s="59" t="s">
+      <c r="F29" s="45" t="s">
         <v>202</v>
       </c>
-      <c r="G29" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="H29" s="59" t="s">
+      <c r="G29" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="H29" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="I29" s="59" t="s">
+      <c r="I29" s="45" t="s">
         <v>202</v>
       </c>
-      <c r="J29" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="K29" s="59" t="s">
+      <c r="J29" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="K29" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="L29" s="59" t="s">
+      <c r="L29" s="45" t="s">
         <v>202</v>
       </c>
-      <c r="M29" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="N29" s="59" t="s">
+      <c r="M29" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="N29" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="O29" s="59" t="s">
+      <c r="O29" s="45" t="s">
         <v>202</v>
       </c>
-      <c r="P29" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q29" s="59" t="s">
+      <c r="P29" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q29" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="R29" s="59" t="s">
+      <c r="R29" s="45" t="s">
         <v>202</v>
       </c>
-      <c r="S29" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="T29" s="59" t="s">
+      <c r="S29" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="T29" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="U29" s="59" t="s">
+      <c r="U29" s="45" t="s">
         <v>202</v>
       </c>
-      <c r="V29" s="60" t="s">
+      <c r="V29" s="46" t="s">
         <v>210</v>
       </c>
       <c r="Y29" s="25"/>
     </row>
     <row r="30" spans="2:25" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="59" t="s">
+      <c r="B30" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="59" t="s">
+      <c r="C30" s="45" t="s">
         <v>202</v>
       </c>
-      <c r="D30" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="E30" s="59" t="s">
+      <c r="D30" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="E30" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="F30" s="59" t="s">
+      <c r="F30" s="45" t="s">
         <v>202</v>
       </c>
-      <c r="G30" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="H30" s="59" t="s">
+      <c r="G30" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="H30" s="45" t="s">
         <v>243</v>
       </c>
-      <c r="I30" s="59" t="s">
+      <c r="I30" s="45" t="s">
         <v>202</v>
       </c>
-      <c r="J30" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="K30" s="59" t="s">
+      <c r="J30" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="K30" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="L30" s="59" t="s">
+      <c r="L30" s="45" t="s">
         <v>202</v>
       </c>
-      <c r="M30" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="N30" s="59" t="s">
+      <c r="M30" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="N30" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="O30" s="59" t="s">
+      <c r="O30" s="45" t="s">
         <v>202</v>
       </c>
-      <c r="P30" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q30" s="59" t="s">
+      <c r="P30" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q30" s="45" t="s">
         <v>244</v>
       </c>
-      <c r="R30" s="59" t="s">
+      <c r="R30" s="45" t="s">
         <v>202</v>
       </c>
-      <c r="S30" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="T30" s="59" t="s">
+      <c r="S30" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="T30" s="45" t="s">
         <v>244</v>
       </c>
-      <c r="U30" s="59" t="s">
+      <c r="U30" s="45" t="s">
         <v>202</v>
       </c>
-      <c r="V30" s="60" t="s">
+      <c r="V30" s="46" t="s">
         <v>210</v>
       </c>
       <c r="Y30" s="25"/>
     </row>
     <row r="31" spans="2:25" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="59" t="s">
+      <c r="B31" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="C31" s="59" t="s">
+      <c r="C31" s="45" t="s">
         <v>203</v>
       </c>
-      <c r="D31" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="E31" s="61" t="s">
+      <c r="D31" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="E31" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="F31" s="59" t="s">
+      <c r="F31" s="45" t="s">
         <v>203</v>
       </c>
-      <c r="G31" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="H31" s="59" t="s">
+      <c r="G31" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="H31" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="I31" s="59" t="s">
+      <c r="I31" s="45" t="s">
         <v>203</v>
       </c>
-      <c r="J31" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="K31" s="61" t="s">
+      <c r="J31" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="K31" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="L31" s="59" t="s">
+      <c r="L31" s="45" t="s">
         <v>203</v>
       </c>
-      <c r="M31" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="N31" s="59" t="s">
+      <c r="M31" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="N31" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="O31" s="59" t="s">
+      <c r="O31" s="45" t="s">
         <v>203</v>
       </c>
-      <c r="P31" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q31" s="61" t="s">
+      <c r="P31" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q31" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="R31" s="59" t="s">
+      <c r="R31" s="45" t="s">
         <v>203</v>
       </c>
-      <c r="S31" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="T31" s="59" t="s">
+      <c r="S31" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="T31" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="U31" s="59" t="s">
+      <c r="U31" s="45" t="s">
         <v>203</v>
       </c>
-      <c r="V31" s="60" t="s">
+      <c r="V31" s="46" t="s">
         <v>210</v>
       </c>
       <c r="Y31" s="24" t="s">
@@ -6889,67 +6883,67 @@
       </c>
     </row>
     <row r="32" spans="2:25" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="59" t="s">
+      <c r="B32" s="45" t="s">
         <v>246</v>
       </c>
-      <c r="C32" s="59" t="s">
+      <c r="C32" s="45" t="s">
         <v>203</v>
       </c>
-      <c r="D32" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="E32" s="59" t="s">
+      <c r="D32" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="E32" s="45" t="s">
         <v>249</v>
       </c>
-      <c r="F32" s="59" t="s">
+      <c r="F32" s="45" t="s">
         <v>203</v>
       </c>
-      <c r="G32" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="H32" s="59" t="s">
+      <c r="G32" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="H32" s="45" t="s">
         <v>246</v>
       </c>
-      <c r="I32" s="59" t="s">
+      <c r="I32" s="45" t="s">
         <v>203</v>
       </c>
-      <c r="J32" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="K32" s="59" t="s">
+      <c r="J32" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="K32" s="45" t="s">
         <v>249</v>
       </c>
-      <c r="L32" s="59" t="s">
+      <c r="L32" s="45" t="s">
         <v>203</v>
       </c>
-      <c r="M32" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="N32" s="59" t="s">
+      <c r="M32" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="N32" s="45" t="s">
         <v>246</v>
       </c>
-      <c r="O32" s="59" t="s">
+      <c r="O32" s="45" t="s">
         <v>203</v>
       </c>
-      <c r="P32" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q32" s="59" t="s">
+      <c r="P32" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q32" s="45" t="s">
         <v>249</v>
       </c>
-      <c r="R32" s="59" t="s">
+      <c r="R32" s="45" t="s">
         <v>203</v>
       </c>
-      <c r="S32" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="T32" s="59" t="s">
+      <c r="S32" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="T32" s="45" t="s">
         <v>246</v>
       </c>
-      <c r="U32" s="59" t="s">
+      <c r="U32" s="45" t="s">
         <v>203</v>
       </c>
-      <c r="V32" s="60" t="s">
+      <c r="V32" s="46" t="s">
         <v>210</v>
       </c>
       <c r="Y32" s="26" t="s">
@@ -6957,67 +6951,67 @@
       </c>
     </row>
     <row r="33" spans="2:25" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="59" t="s">
+      <c r="B33" s="45" t="s">
         <v>247</v>
       </c>
-      <c r="C33" s="59" t="s">
+      <c r="C33" s="45" t="s">
         <v>203</v>
       </c>
-      <c r="D33" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="E33" s="59" t="s">
+      <c r="D33" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="E33" s="45" t="s">
         <v>248</v>
       </c>
-      <c r="F33" s="59" t="s">
+      <c r="F33" s="45" t="s">
         <v>203</v>
       </c>
-      <c r="G33" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="H33" s="59" t="s">
+      <c r="G33" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="H33" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="I33" s="59" t="s">
+      <c r="I33" s="45" t="s">
         <v>203</v>
       </c>
-      <c r="J33" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="K33" s="59" t="s">
+      <c r="J33" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="K33" s="45" t="s">
         <v>250</v>
       </c>
-      <c r="L33" s="59" t="s">
+      <c r="L33" s="45" t="s">
         <v>203</v>
       </c>
-      <c r="M33" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="N33" s="59" t="s">
+      <c r="M33" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="N33" s="45" t="s">
         <v>247</v>
       </c>
-      <c r="O33" s="59" t="s">
+      <c r="O33" s="45" t="s">
         <v>203</v>
       </c>
-      <c r="P33" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q33" s="59" t="s">
+      <c r="P33" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q33" s="45" t="s">
         <v>248</v>
       </c>
-      <c r="R33" s="59" t="s">
+      <c r="R33" s="45" t="s">
         <v>203</v>
       </c>
-      <c r="S33" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="T33" s="59" t="s">
+      <c r="S33" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="T33" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="U33" s="59" t="s">
+      <c r="U33" s="45" t="s">
         <v>203</v>
       </c>
-      <c r="V33" s="60" t="s">
+      <c r="V33" s="46" t="s">
         <v>210</v>
       </c>
       <c r="Y33" s="25" t="s">
@@ -7025,67 +7019,67 @@
       </c>
     </row>
     <row r="34" spans="2:25" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="59" t="s">
+      <c r="B34" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="C34" s="59" t="s">
+      <c r="C34" s="45" t="s">
         <v>204</v>
       </c>
-      <c r="D34" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="E34" s="59" t="s">
+      <c r="D34" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="E34" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="F34" s="59" t="s">
+      <c r="F34" s="45" t="s">
         <v>204</v>
       </c>
-      <c r="G34" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="H34" s="59" t="s">
+      <c r="G34" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="H34" s="45" t="s">
         <v>262</v>
       </c>
-      <c r="I34" s="59" t="s">
+      <c r="I34" s="45" t="s">
         <v>205</v>
       </c>
-      <c r="J34" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="K34" s="59" t="s">
+      <c r="J34" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="K34" s="45" t="s">
         <v>261</v>
       </c>
-      <c r="L34" s="59" t="s">
+      <c r="L34" s="45" t="s">
         <v>205</v>
       </c>
-      <c r="M34" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="N34" s="59" t="s">
+      <c r="M34" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="N34" s="45" t="s">
         <v>253</v>
       </c>
-      <c r="O34" s="59" t="s">
+      <c r="O34" s="45" t="s">
         <v>204</v>
       </c>
-      <c r="P34" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q34" s="59" t="s">
+      <c r="P34" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q34" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="R34" s="59" t="s">
+      <c r="R34" s="45" t="s">
         <v>204</v>
       </c>
-      <c r="S34" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="T34" s="59" t="s">
+      <c r="S34" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="T34" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="U34" s="59" t="s">
+      <c r="U34" s="45" t="s">
         <v>204</v>
       </c>
-      <c r="V34" s="60" t="s">
+      <c r="V34" s="46" t="s">
         <v>210</v>
       </c>
       <c r="Y34" s="25" t="s">
@@ -7093,67 +7087,67 @@
       </c>
     </row>
     <row r="35" spans="2:25" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="59" t="s">
+      <c r="B35" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="C35" s="59" t="s">
+      <c r="C35" s="45" t="s">
         <v>204</v>
       </c>
-      <c r="D35" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="E35" s="59" t="s">
+      <c r="D35" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="E35" s="45" t="s">
         <v>263</v>
       </c>
-      <c r="F35" s="59" t="s">
+      <c r="F35" s="45" t="s">
         <v>205</v>
       </c>
-      <c r="G35" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="H35" s="59" t="s">
+      <c r="G35" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="H35" s="45" t="s">
         <v>264</v>
       </c>
-      <c r="I35" s="59" t="s">
+      <c r="I35" s="45" t="s">
         <v>204</v>
       </c>
-      <c r="J35" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="K35" s="59" t="s">
+      <c r="J35" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="K35" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="L35" s="59" t="s">
+      <c r="L35" s="45" t="s">
         <v>204</v>
       </c>
-      <c r="M35" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="N35" s="59" t="s">
+      <c r="M35" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="N35" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="O35" s="59" t="s">
+      <c r="O35" s="45" t="s">
         <v>204</v>
       </c>
-      <c r="P35" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q35" s="59" t="s">
+      <c r="P35" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q35" s="45" t="s">
         <v>254</v>
       </c>
-      <c r="R35" s="59" t="s">
+      <c r="R35" s="45" t="s">
         <v>204</v>
       </c>
-      <c r="S35" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="T35" s="59" t="s">
+      <c r="S35" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="T35" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="U35" s="59" t="s">
+      <c r="U35" s="45" t="s">
         <v>204</v>
       </c>
-      <c r="V35" s="60" t="s">
+      <c r="V35" s="46" t="s">
         <v>210</v>
       </c>
       <c r="Y35" s="24" t="s">
@@ -7161,67 +7155,67 @@
       </c>
     </row>
     <row r="36" spans="2:25" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="59" t="s">
+      <c r="B36" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="59" t="s">
+      <c r="C36" s="45" t="s">
         <v>204</v>
       </c>
-      <c r="D36" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="E36" s="59" t="s">
+      <c r="D36" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="E36" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="F36" s="59" t="s">
+      <c r="F36" s="45" t="s">
         <v>204</v>
       </c>
-      <c r="G36" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="H36" s="59" t="s">
+      <c r="G36" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="H36" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="I36" s="59" t="s">
+      <c r="I36" s="45" t="s">
         <v>204</v>
       </c>
-      <c r="J36" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="K36" s="59" t="s">
+      <c r="J36" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="K36" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="L36" s="59" t="s">
+      <c r="L36" s="45" t="s">
         <v>204</v>
       </c>
-      <c r="M36" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="N36" s="59" t="s">
+      <c r="M36" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="N36" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="O36" s="59" t="s">
+      <c r="O36" s="45" t="s">
         <v>204</v>
       </c>
-      <c r="P36" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q36" s="59" t="s">
+      <c r="P36" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q36" s="45" t="s">
         <v>265</v>
       </c>
-      <c r="R36" s="59" t="s">
+      <c r="R36" s="45" t="s">
         <v>205</v>
       </c>
-      <c r="S36" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="T36" s="59" t="s">
+      <c r="S36" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="T36" s="45" t="s">
         <v>255</v>
       </c>
-      <c r="U36" s="59" t="s">
+      <c r="U36" s="45" t="s">
         <v>204</v>
       </c>
-      <c r="V36" s="60" t="s">
+      <c r="V36" s="46" t="s">
         <v>210</v>
       </c>
       <c r="Y36" s="25" t="s">
@@ -7229,67 +7223,67 @@
       </c>
     </row>
     <row r="37" spans="2:25" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="51" t="s">
+      <c r="B37" s="57" t="s">
         <v>351</v>
       </c>
-      <c r="C37" s="49" t="s">
+      <c r="C37" s="45" t="s">
         <v>205</v>
       </c>
-      <c r="D37" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="E37" s="51" t="s">
+      <c r="D37" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="E37" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="F37" s="49" t="s">
+      <c r="F37" s="45" t="s">
         <v>204</v>
       </c>
-      <c r="G37" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="H37" s="51" t="s">
+      <c r="G37" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="H37" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="I37" s="62" t="s">
+      <c r="I37" s="58" t="s">
         <v>204</v>
       </c>
-      <c r="J37" s="63" t="s">
-        <v>210</v>
-      </c>
-      <c r="K37" s="51" t="s">
+      <c r="J37" s="59" t="s">
+        <v>210</v>
+      </c>
+      <c r="K37" s="57" t="s">
         <v>355</v>
       </c>
-      <c r="L37" s="49" t="s">
+      <c r="L37" s="45" t="s">
         <v>205</v>
       </c>
-      <c r="M37" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="N37" s="51" t="s">
+      <c r="M37" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="N37" s="57" t="s">
         <v>354</v>
       </c>
-      <c r="O37" s="49" t="s">
+      <c r="O37" s="45" t="s">
         <v>205</v>
       </c>
-      <c r="P37" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q37" s="51" t="s">
+      <c r="P37" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q37" s="57" t="s">
         <v>353</v>
       </c>
-      <c r="R37" s="49" t="s">
+      <c r="R37" s="45" t="s">
         <v>205</v>
       </c>
-      <c r="S37" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="T37" s="51" t="s">
+      <c r="S37" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="T37" s="57" t="s">
         <v>352</v>
       </c>
-      <c r="U37" s="49" t="s">
+      <c r="U37" s="45" t="s">
         <v>205</v>
       </c>
-      <c r="V37" s="50" t="s">
+      <c r="V37" s="46" t="s">
         <v>210</v>
       </c>
       <c r="Y37" s="26" t="s">
@@ -7297,133 +7291,133 @@
       </c>
     </row>
     <row r="38" spans="2:25" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="39" t="s">
+      <c r="B38" s="57" t="s">
         <v>148</v>
       </c>
-      <c r="C38" s="39" t="s">
+      <c r="C38" s="57" t="s">
         <v>206</v>
       </c>
-      <c r="D38" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="E38" s="39" t="s">
+      <c r="D38" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="E38" s="57" t="s">
         <v>266</v>
       </c>
-      <c r="F38" s="39" t="s">
+      <c r="F38" s="57" t="s">
         <v>206</v>
       </c>
-      <c r="G38" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="H38" s="39" t="s">
+      <c r="G38" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="H38" s="57" t="s">
         <v>148</v>
       </c>
-      <c r="I38" s="39" t="s">
+      <c r="I38" s="57" t="s">
         <v>206</v>
       </c>
-      <c r="J38" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="K38" s="39" t="s">
+      <c r="J38" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="K38" s="57" t="s">
         <v>266</v>
       </c>
-      <c r="L38" s="39" t="s">
+      <c r="L38" s="57" t="s">
         <v>206</v>
       </c>
-      <c r="M38" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="N38" s="39" t="s">
+      <c r="M38" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="N38" s="57" t="s">
         <v>148</v>
       </c>
-      <c r="O38" s="39" t="s">
+      <c r="O38" s="57" t="s">
         <v>206</v>
       </c>
-      <c r="P38" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q38" s="39" t="s">
+      <c r="P38" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q38" s="57" t="s">
         <v>266</v>
       </c>
-      <c r="R38" s="39" t="s">
+      <c r="R38" s="57" t="s">
         <v>206</v>
       </c>
-      <c r="S38" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="T38" s="39" t="s">
+      <c r="S38" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="T38" s="57" t="s">
         <v>148</v>
       </c>
-      <c r="U38" s="39" t="s">
+      <c r="U38" s="57" t="s">
         <v>206</v>
       </c>
-      <c r="V38" s="38" t="s">
+      <c r="V38" s="46" t="s">
         <v>210</v>
       </c>
       <c r="Y38" s="26"/>
     </row>
     <row r="39" spans="2:25" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="29" t="s">
+      <c r="B39" s="45" t="s">
         <v>156</v>
       </c>
-      <c r="C39" s="39" t="s">
+      <c r="C39" s="57" t="s">
         <v>206</v>
       </c>
-      <c r="D39" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="E39" s="29" t="s">
+      <c r="D39" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="E39" s="45" t="s">
         <v>267</v>
       </c>
-      <c r="F39" s="39" t="s">
+      <c r="F39" s="57" t="s">
         <v>206</v>
       </c>
-      <c r="G39" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="H39" s="29" t="s">
+      <c r="G39" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="H39" s="45" t="s">
         <v>156</v>
       </c>
-      <c r="I39" s="39" t="s">
+      <c r="I39" s="57" t="s">
         <v>206</v>
       </c>
-      <c r="J39" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="K39" s="29" t="s">
+      <c r="J39" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="K39" s="45" t="s">
         <v>267</v>
       </c>
-      <c r="L39" s="39" t="s">
+      <c r="L39" s="57" t="s">
         <v>206</v>
       </c>
-      <c r="M39" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="N39" s="29" t="s">
+      <c r="M39" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="N39" s="45" t="s">
         <v>156</v>
       </c>
-      <c r="O39" s="39" t="s">
+      <c r="O39" s="57" t="s">
         <v>206</v>
       </c>
-      <c r="P39" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q39" s="29" t="s">
+      <c r="P39" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q39" s="45" t="s">
         <v>267</v>
       </c>
-      <c r="R39" s="39" t="s">
+      <c r="R39" s="57" t="s">
         <v>206</v>
       </c>
-      <c r="S39" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="T39" s="29" t="s">
+      <c r="S39" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="T39" s="45" t="s">
         <v>156</v>
       </c>
-      <c r="U39" s="39" t="s">
+      <c r="U39" s="57" t="s">
         <v>206</v>
       </c>
-      <c r="V39" s="38" t="s">
+      <c r="V39" s="46" t="s">
         <v>210</v>
       </c>
       <c r="Y39" s="26" t="s">
@@ -7431,67 +7425,67 @@
       </c>
     </row>
     <row r="40" spans="2:25" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="29" t="s">
+      <c r="B40" s="45" t="s">
         <v>150</v>
       </c>
-      <c r="C40" s="39" t="s">
+      <c r="C40" s="57" t="s">
         <v>206</v>
       </c>
-      <c r="D40" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="E40" s="29" t="s">
+      <c r="D40" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="E40" s="45" t="s">
         <v>152</v>
       </c>
-      <c r="F40" s="39" t="s">
+      <c r="F40" s="57" t="s">
         <v>206</v>
       </c>
-      <c r="G40" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="H40" s="29" t="s">
+      <c r="G40" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="H40" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="I40" s="39" t="s">
+      <c r="I40" s="57" t="s">
         <v>206</v>
       </c>
-      <c r="J40" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="K40" s="29" t="s">
+      <c r="J40" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="K40" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="L40" s="39" t="s">
+      <c r="L40" s="57" t="s">
         <v>206</v>
       </c>
-      <c r="M40" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="N40" s="29" t="s">
+      <c r="M40" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="N40" s="45" t="s">
         <v>162</v>
       </c>
-      <c r="O40" s="39" t="s">
+      <c r="O40" s="57" t="s">
         <v>206</v>
       </c>
-      <c r="P40" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q40" s="29" t="s">
+      <c r="P40" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q40" s="45" t="s">
         <v>164</v>
       </c>
-      <c r="R40" s="39" t="s">
+      <c r="R40" s="57" t="s">
         <v>206</v>
       </c>
-      <c r="S40" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="T40" s="29" t="s">
+      <c r="S40" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="T40" s="45" t="s">
         <v>158</v>
       </c>
-      <c r="U40" s="39" t="s">
+      <c r="U40" s="57" t="s">
         <v>206</v>
       </c>
-      <c r="V40" s="38" t="s">
+      <c r="V40" s="46" t="s">
         <v>210</v>
       </c>
       <c r="Y40" s="26" t="s">
@@ -10726,41 +10720,41 @@
       <c r="V2" s="8"/>
     </row>
     <row r="3" spans="2:22" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="54" t="s">
         <v>189</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="46" t="s">
+      <c r="C3" s="55"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="54" t="s">
         <v>190</v>
       </c>
-      <c r="F3" s="47"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="46" t="s">
+      <c r="F3" s="55"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="54" t="s">
         <v>191</v>
       </c>
-      <c r="I3" s="47"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="46" t="s">
+      <c r="I3" s="55"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="54" t="s">
         <v>192</v>
       </c>
-      <c r="L3" s="47"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="46" t="s">
+      <c r="L3" s="55"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="54" t="s">
         <v>193</v>
       </c>
-      <c r="O3" s="47"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="46" t="s">
+      <c r="O3" s="55"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="54" t="s">
         <v>194</v>
       </c>
-      <c r="R3" s="47"/>
-      <c r="S3" s="48"/>
-      <c r="T3" s="46" t="s">
+      <c r="R3" s="55"/>
+      <c r="S3" s="56"/>
+      <c r="T3" s="54" t="s">
         <v>196</v>
       </c>
-      <c r="U3" s="47"/>
-      <c r="V3" s="48"/>
+      <c r="U3" s="55"/>
+      <c r="V3" s="56"/>
     </row>
     <row r="4" spans="2:22" s="9" customFormat="1" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
@@ -10828,559 +10822,559 @@
       </c>
     </row>
     <row r="5" spans="2:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="D5" s="50"/>
-      <c r="E5" s="49" t="s">
+      <c r="D5" s="38"/>
+      <c r="E5" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="G5" s="50"/>
-      <c r="H5" s="49" t="s">
+      <c r="G5" s="38"/>
+      <c r="H5" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="I5" s="49" t="s">
+      <c r="I5" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="J5" s="50"/>
-      <c r="K5" s="49" t="s">
+      <c r="J5" s="38"/>
+      <c r="K5" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="L5" s="49" t="s">
+      <c r="L5" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="M5" s="50"/>
-      <c r="N5" s="49" t="s">
+      <c r="M5" s="38"/>
+      <c r="N5" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="O5" s="49" t="s">
+      <c r="O5" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="P5" s="50"/>
-      <c r="Q5" s="49" t="s">
+      <c r="P5" s="38"/>
+      <c r="Q5" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="R5" s="49" t="s">
+      <c r="R5" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="S5" s="50"/>
-      <c r="T5" s="49" t="s">
+      <c r="S5" s="38"/>
+      <c r="T5" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="U5" s="49" t="s">
+      <c r="U5" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="V5" s="50"/>
+      <c r="V5" s="38"/>
     </row>
     <row r="6" spans="2:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="29" t="s">
         <v>331</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="D6" s="50"/>
-      <c r="E6" s="49" t="s">
+      <c r="D6" s="38"/>
+      <c r="E6" s="29" t="s">
         <v>331</v>
       </c>
-      <c r="F6" s="49" t="s">
+      <c r="F6" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="G6" s="50"/>
-      <c r="H6" s="49" t="s">
+      <c r="G6" s="38"/>
+      <c r="H6" s="29" t="s">
         <v>331</v>
       </c>
-      <c r="I6" s="49" t="s">
+      <c r="I6" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="J6" s="50"/>
-      <c r="K6" s="49" t="s">
+      <c r="J6" s="38"/>
+      <c r="K6" s="29" t="s">
         <v>331</v>
       </c>
-      <c r="L6" s="49" t="s">
+      <c r="L6" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="M6" s="50"/>
-      <c r="N6" s="49" t="s">
+      <c r="M6" s="38"/>
+      <c r="N6" s="29" t="s">
         <v>331</v>
       </c>
-      <c r="O6" s="49" t="s">
+      <c r="O6" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="49" t="s">
+      <c r="P6" s="38"/>
+      <c r="Q6" s="29" t="s">
         <v>331</v>
       </c>
-      <c r="R6" s="49" t="s">
+      <c r="R6" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="S6" s="50"/>
-      <c r="T6" s="49" t="s">
+      <c r="S6" s="38"/>
+      <c r="T6" s="29" t="s">
         <v>331</v>
       </c>
-      <c r="U6" s="49" t="s">
+      <c r="U6" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="V6" s="50"/>
+      <c r="V6" s="38"/>
     </row>
     <row r="7" spans="2:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="C7" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="D7" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="E7" s="49" t="s">
+      <c r="C7" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="E7" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="F7" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="G7" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="H7" s="49" t="s">
+      <c r="F7" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="H7" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="I7" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="J7" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="K7" s="49" t="s">
+      <c r="I7" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="J7" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="K7" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="L7" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="M7" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="N7" s="49" t="s">
+      <c r="L7" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="M7" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="N7" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="O7" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="P7" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q7" s="49" t="s">
+      <c r="O7" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="P7" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q7" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="R7" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="S7" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="T7" s="49" t="s">
+      <c r="R7" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="S7" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="T7" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="U7" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="V7" s="50" t="s">
+      <c r="U7" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="V7" s="38" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="8" spans="2:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="29" t="s">
         <v>345</v>
       </c>
-      <c r="C8" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="D8" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="E8" s="49" t="s">
+      <c r="C8" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="E8" s="29" t="s">
         <v>345</v>
       </c>
-      <c r="F8" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="G8" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="H8" s="49" t="s">
+      <c r="F8" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="H8" s="29" t="s">
         <v>345</v>
       </c>
-      <c r="I8" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="J8" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="K8" s="49" t="s">
+      <c r="I8" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="J8" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="K8" s="29" t="s">
         <v>345</v>
       </c>
-      <c r="L8" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="M8" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="N8" s="49" t="s">
+      <c r="L8" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="M8" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="N8" s="29" t="s">
         <v>345</v>
       </c>
-      <c r="O8" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="P8" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q8" s="49" t="s">
+      <c r="O8" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="P8" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q8" s="29" t="s">
         <v>345</v>
       </c>
-      <c r="R8" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="S8" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="T8" s="49" t="s">
+      <c r="R8" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="S8" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="T8" s="29" t="s">
         <v>345</v>
       </c>
-      <c r="U8" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="V8" s="50" t="s">
+      <c r="U8" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="V8" s="38" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="9" spans="2:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="C9" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="D9" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="E9" s="49" t="s">
+      <c r="C9" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="E9" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="F9" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="G9" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="H9" s="49" t="s">
+      <c r="F9" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="H9" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="I9" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="J9" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="K9" s="49" t="s">
+      <c r="I9" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="J9" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="K9" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="L9" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="M9" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="N9" s="49" t="s">
+      <c r="L9" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="M9" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="N9" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="O9" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="P9" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q9" s="49" t="s">
+      <c r="O9" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="P9" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q9" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="R9" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="S9" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="T9" s="49" t="s">
+      <c r="R9" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="S9" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="T9" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="U9" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="V9" s="50" t="s">
+      <c r="U9" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="V9" s="38" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="10" spans="2:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="29" t="s">
         <v>341</v>
       </c>
-      <c r="C10" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="D10" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="E10" s="49" t="s">
+      <c r="C10" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="E10" s="29" t="s">
         <v>341</v>
       </c>
-      <c r="F10" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="G10" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="H10" s="49" t="s">
+      <c r="F10" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="H10" s="29" t="s">
         <v>341</v>
       </c>
-      <c r="I10" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="J10" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="K10" s="49" t="s">
+      <c r="I10" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="J10" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="K10" s="29" t="s">
         <v>341</v>
       </c>
-      <c r="L10" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="M10" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="N10" s="49" t="s">
+      <c r="L10" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="M10" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="N10" s="29" t="s">
         <v>341</v>
       </c>
-      <c r="O10" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="P10" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q10" s="49" t="s">
+      <c r="O10" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="P10" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q10" s="29" t="s">
         <v>341</v>
       </c>
-      <c r="R10" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="S10" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="T10" s="49" t="s">
+      <c r="R10" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="S10" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="T10" s="29" t="s">
         <v>341</v>
       </c>
-      <c r="U10" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="V10" s="50" t="s">
+      <c r="U10" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="V10" s="38" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="11" spans="2:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="29" t="s">
         <v>343</v>
       </c>
-      <c r="C11" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="D11" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="E11" s="49" t="s">
+      <c r="C11" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="E11" s="29" t="s">
         <v>343</v>
       </c>
-      <c r="F11" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="G11" s="50" t="s">
+      <c r="F11" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="G11" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="H11" s="49" t="s">
+      <c r="H11" s="29" t="s">
         <v>343</v>
       </c>
-      <c r="I11" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="J11" s="50" t="s">
+      <c r="I11" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="J11" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="K11" s="49" t="s">
+      <c r="K11" s="29" t="s">
         <v>343</v>
       </c>
-      <c r="L11" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="M11" s="50" t="s">
+      <c r="L11" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="M11" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="N11" s="49" t="s">
+      <c r="N11" s="29" t="s">
         <v>343</v>
       </c>
-      <c r="O11" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="P11" s="50" t="s">
+      <c r="O11" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="P11" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="Q11" s="49" t="s">
+      <c r="Q11" s="29" t="s">
         <v>343</v>
       </c>
-      <c r="R11" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="S11" s="50" t="s">
+      <c r="R11" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="S11" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="T11" s="49" t="s">
+      <c r="T11" s="29" t="s">
         <v>343</v>
       </c>
-      <c r="U11" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="V11" s="50" t="s">
+      <c r="U11" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="V11" s="38" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="12" spans="2:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="29" t="s">
         <v>357</v>
       </c>
-      <c r="C12" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="D12" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="E12" s="49" t="s">
+      <c r="C12" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="E12" s="29" t="s">
         <v>357</v>
       </c>
-      <c r="F12" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="G12" s="50" t="s">
+      <c r="F12" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="G12" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="H12" s="49" t="s">
+      <c r="H12" s="29" t="s">
         <v>357</v>
       </c>
-      <c r="I12" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="J12" s="50" t="s">
+      <c r="I12" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="J12" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="K12" s="49" t="s">
+      <c r="K12" s="29" t="s">
         <v>357</v>
       </c>
-      <c r="L12" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="M12" s="50" t="s">
+      <c r="L12" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="M12" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="N12" s="49" t="s">
+      <c r="N12" s="29" t="s">
         <v>357</v>
       </c>
-      <c r="O12" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="P12" s="50" t="s">
+      <c r="O12" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="P12" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="Q12" s="49" t="s">
+      <c r="Q12" s="29" t="s">
         <v>357</v>
       </c>
-      <c r="R12" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="S12" s="50" t="s">
+      <c r="R12" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="S12" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="T12" s="49" t="s">
+      <c r="T12" s="29" t="s">
         <v>357</v>
       </c>
-      <c r="U12" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="V12" s="50" t="s">
+      <c r="U12" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="V12" s="38" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="13" spans="2:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="29" t="s">
         <v>344</v>
       </c>
-      <c r="C13" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="D13" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="E13" s="49" t="s">
+      <c r="C13" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="E13" s="29" t="s">
         <v>344</v>
       </c>
-      <c r="F13" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="G13" s="50" t="s">
+      <c r="F13" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="G13" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="H13" s="49" t="s">
+      <c r="H13" s="29" t="s">
         <v>344</v>
       </c>
-      <c r="I13" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="J13" s="50" t="s">
+      <c r="I13" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="J13" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="K13" s="49" t="s">
+      <c r="K13" s="29" t="s">
         <v>344</v>
       </c>
-      <c r="L13" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="M13" s="50" t="s">
+      <c r="L13" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="M13" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="N13" s="49" t="s">
+      <c r="N13" s="29" t="s">
         <v>344</v>
       </c>
-      <c r="O13" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="P13" s="50" t="s">
+      <c r="O13" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="P13" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="Q13" s="49" t="s">
+      <c r="Q13" s="29" t="s">
         <v>344</v>
       </c>
-      <c r="R13" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="S13" s="50" t="s">
+      <c r="R13" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="S13" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="T13" s="49" t="s">
+      <c r="T13" s="29" t="s">
         <v>344</v>
       </c>
-      <c r="U13" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="V13" s="50" t="s">
+      <c r="U13" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="V13" s="38" t="s">
         <v>230</v>
       </c>
     </row>
@@ -11479,41 +11473,41 @@
       <c r="V17" s="8"/>
     </row>
     <row r="18" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="51" t="s">
         <v>189</v>
       </c>
-      <c r="C18" s="44"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="43" t="s">
+      <c r="C18" s="52"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="51" t="s">
         <v>190</v>
       </c>
-      <c r="F18" s="44"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="43" t="s">
+      <c r="F18" s="52"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="51" t="s">
         <v>191</v>
       </c>
-      <c r="I18" s="44"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="43" t="s">
+      <c r="I18" s="52"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="51" t="s">
         <v>192</v>
       </c>
-      <c r="L18" s="44"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="43" t="s">
+      <c r="L18" s="52"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="51" t="s">
         <v>193</v>
       </c>
-      <c r="O18" s="44"/>
-      <c r="P18" s="45"/>
-      <c r="Q18" s="43" t="s">
+      <c r="O18" s="52"/>
+      <c r="P18" s="53"/>
+      <c r="Q18" s="51" t="s">
         <v>194</v>
       </c>
-      <c r="R18" s="44"/>
-      <c r="S18" s="45"/>
-      <c r="T18" s="43" t="s">
+      <c r="R18" s="52"/>
+      <c r="S18" s="53"/>
+      <c r="T18" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="U18" s="44"/>
-      <c r="V18" s="45"/>
+      <c r="U18" s="52"/>
+      <c r="V18" s="53"/>
     </row>
     <row r="19" spans="1:22" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
@@ -11581,2841 +11575,2841 @@
       </c>
     </row>
     <row r="20" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="49" t="s">
+      <c r="B20" s="29" t="s">
         <v>342</v>
       </c>
-      <c r="C20" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="D20" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="E20" s="49" t="s">
+      <c r="C20" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="E20" s="29" t="s">
         <v>342</v>
       </c>
-      <c r="F20" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="G20" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="H20" s="49" t="s">
+      <c r="F20" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="G20" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="H20" s="29" t="s">
         <v>342</v>
       </c>
-      <c r="I20" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="J20" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="K20" s="49" t="s">
+      <c r="I20" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="J20" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="K20" s="29" t="s">
         <v>342</v>
       </c>
-      <c r="L20" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="M20" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="N20" s="49" t="s">
+      <c r="L20" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="M20" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="N20" s="29" t="s">
         <v>342</v>
       </c>
-      <c r="O20" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="P20" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q20" s="49" t="s">
+      <c r="O20" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="P20" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q20" s="29" t="s">
         <v>342</v>
       </c>
-      <c r="R20" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="S20" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="T20" s="49" t="s">
+      <c r="R20" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="S20" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="T20" s="29" t="s">
         <v>342</v>
       </c>
-      <c r="U20" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="V20" s="50" t="s">
+      <c r="U20" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="V20" s="38" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C21" s="49" t="s">
+      <c r="C21" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="D21" s="50"/>
-      <c r="E21" s="49" t="s">
+      <c r="D21" s="38"/>
+      <c r="E21" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="F21" s="49" t="s">
+      <c r="F21" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="G21" s="50"/>
-      <c r="H21" s="49" t="s">
+      <c r="G21" s="38"/>
+      <c r="H21" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="I21" s="49" t="s">
+      <c r="I21" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="J21" s="50"/>
-      <c r="K21" s="49" t="s">
+      <c r="J21" s="38"/>
+      <c r="K21" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="L21" s="49" t="s">
+      <c r="L21" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="M21" s="50"/>
-      <c r="N21" s="49" t="s">
+      <c r="M21" s="38"/>
+      <c r="N21" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="O21" s="49" t="s">
+      <c r="O21" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="P21" s="50"/>
-      <c r="Q21" s="49" t="s">
+      <c r="P21" s="38"/>
+      <c r="Q21" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="R21" s="49" t="s">
+      <c r="R21" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="S21" s="50"/>
-      <c r="T21" s="49" t="s">
+      <c r="S21" s="38"/>
+      <c r="T21" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="U21" s="49" t="s">
+      <c r="U21" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="V21" s="50"/>
+      <c r="V21" s="38"/>
     </row>
     <row r="22" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="34"/>
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="C22" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="D22" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="E22" s="49" t="s">
+      <c r="C22" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="E22" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="F22" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="G22" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="H22" s="49" t="s">
+      <c r="F22" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="G22" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="H22" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="I22" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="J22" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="K22" s="49" t="s">
+      <c r="I22" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="J22" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="K22" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="L22" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="M22" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="N22" s="49" t="s">
+      <c r="L22" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="M22" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="N22" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="O22" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="P22" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q22" s="49" t="s">
+      <c r="O22" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="P22" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q22" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="R22" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="S22" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="T22" s="49" t="s">
+      <c r="R22" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="S22" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="T22" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="U22" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="V22" s="50" t="s">
+      <c r="U22" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="V22" s="38" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="29" t="s">
         <v>306</v>
       </c>
-      <c r="C23" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="D23" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="E23" s="49" t="s">
+      <c r="C23" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="E23" s="29" t="s">
         <v>307</v>
       </c>
-      <c r="F23" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="G23" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="H23" s="49" t="s">
+      <c r="F23" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="G23" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="H23" s="29" t="s">
         <v>401</v>
       </c>
-      <c r="I23" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="J23" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="K23" s="49" t="s">
+      <c r="I23" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="J23" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="K23" s="29" t="s">
         <v>306</v>
       </c>
-      <c r="L23" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="M23" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="N23" s="49" t="s">
+      <c r="L23" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="M23" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="N23" s="29" t="s">
         <v>307</v>
       </c>
-      <c r="O23" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="P23" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q23" s="49" t="s">
+      <c r="O23" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="P23" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q23" s="29" t="s">
         <v>401</v>
       </c>
-      <c r="R23" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="S23" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="T23" s="49" t="s">
+      <c r="R23" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="S23" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="T23" s="29" t="s">
         <v>306</v>
       </c>
-      <c r="U23" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="V23" s="50" t="s">
+      <c r="U23" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="V23" s="38" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="34"/>
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="C24" s="51" t="s">
+      <c r="C24" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="D24" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="E24" s="49" t="s">
+      <c r="D24" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="E24" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="F24" s="51" t="s">
+      <c r="F24" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="G24" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="H24" s="49" t="s">
+      <c r="G24" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="H24" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="I24" s="49" t="s">
+      <c r="I24" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="J24" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="K24" s="49" t="s">
+      <c r="J24" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="K24" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="L24" s="51" t="s">
+      <c r="L24" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="M24" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="N24" s="49" t="s">
+      <c r="M24" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="N24" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="O24" s="51" t="s">
+      <c r="O24" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="P24" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q24" s="49" t="s">
+      <c r="P24" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q24" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="R24" s="51" t="s">
+      <c r="R24" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="S24" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="T24" s="49" t="s">
+      <c r="S24" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="T24" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="U24" s="51" t="s">
+      <c r="U24" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="V24" s="50" t="s">
+      <c r="V24" s="38" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="52" t="s">
+      <c r="B25" t="s">
         <v>99</v>
       </c>
-      <c r="C25" s="49" t="s">
+      <c r="C25" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="D25" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="E25" s="52" t="s">
+      <c r="D25" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="E25" t="s">
         <v>99</v>
       </c>
-      <c r="F25" s="49" t="s">
+      <c r="F25" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="G25" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="H25" s="53" t="s">
+      <c r="G25" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="H25" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="I25" s="49" t="s">
+      <c r="I25" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="J25" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="K25" s="53" t="s">
+      <c r="J25" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="K25" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="L25" s="49" t="s">
+      <c r="L25" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="M25" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="N25" s="52" t="s">
+      <c r="M25" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="N25" t="s">
         <v>99</v>
       </c>
-      <c r="O25" s="49" t="s">
+      <c r="O25" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="P25" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q25" s="52" t="s">
+      <c r="P25" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q25" t="s">
         <v>99</v>
       </c>
-      <c r="R25" s="49" t="s">
+      <c r="R25" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="S25" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="T25" s="52" t="s">
+      <c r="S25" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="T25" t="s">
         <v>99</v>
       </c>
-      <c r="U25" s="49" t="s">
+      <c r="U25" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="V25" s="50" t="s">
+      <c r="V25" s="38" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="29" t="s">
         <v>340</v>
       </c>
-      <c r="C26" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="D26" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="E26" s="49" t="s">
+      <c r="C26" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="E26" s="29" t="s">
         <v>340</v>
       </c>
-      <c r="F26" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="G26" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="H26" s="49" t="s">
+      <c r="F26" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="G26" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="H26" s="29" t="s">
         <v>340</v>
       </c>
-      <c r="I26" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="J26" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="K26" s="49" t="s">
+      <c r="I26" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="J26" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="K26" s="29" t="s">
         <v>340</v>
       </c>
-      <c r="L26" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="M26" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="N26" s="49" t="s">
+      <c r="L26" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="M26" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="N26" s="29" t="s">
         <v>340</v>
       </c>
-      <c r="O26" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="P26" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q26" s="49" t="s">
+      <c r="O26" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="P26" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q26" s="29" t="s">
         <v>340</v>
       </c>
-      <c r="R26" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="S26" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="T26" s="49" t="s">
+      <c r="R26" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="S26" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="T26" s="29" t="s">
         <v>340</v>
       </c>
-      <c r="U26" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="V26" s="50" t="s">
+      <c r="U26" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="V26" s="38" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="49" t="s">
+      <c r="B27" s="29" t="s">
         <v>303</v>
       </c>
-      <c r="C27" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="D27" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="E27" s="49" t="s">
+      <c r="C27" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="D27" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="E27" s="29" t="s">
         <v>303</v>
       </c>
-      <c r="F27" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="G27" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="H27" s="49" t="s">
+      <c r="F27" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="G27" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="H27" s="29" t="s">
         <v>303</v>
       </c>
-      <c r="I27" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="J27" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="K27" s="49" t="s">
+      <c r="I27" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="J27" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="K27" s="29" t="s">
         <v>303</v>
       </c>
-      <c r="L27" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="M27" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="N27" s="49" t="s">
+      <c r="L27" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="M27" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="N27" s="29" t="s">
         <v>303</v>
       </c>
-      <c r="O27" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="P27" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q27" s="49" t="s">
+      <c r="O27" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="P27" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q27" s="29" t="s">
         <v>303</v>
       </c>
-      <c r="R27" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="S27" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="T27" s="49" t="s">
+      <c r="R27" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="S27" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="T27" s="29" t="s">
         <v>303</v>
       </c>
-      <c r="U27" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="V27" s="50" t="s">
+      <c r="U27" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="V27" s="38" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="29" t="s">
         <v>400</v>
       </c>
-      <c r="C28" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="D28" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="E28" s="49" t="s">
+      <c r="C28" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="D28" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="E28" s="29" t="s">
         <v>380</v>
       </c>
-      <c r="F28" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="G28" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="H28" s="49" t="s">
+      <c r="F28" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="G28" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="H28" s="29" t="s">
         <v>404</v>
       </c>
-      <c r="I28" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="J28" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="K28" s="49" t="s">
+      <c r="I28" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="J28" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="K28" s="29" t="s">
         <v>400</v>
       </c>
-      <c r="L28" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="M28" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="N28" s="49" t="s">
+      <c r="L28" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="M28" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="N28" s="29" t="s">
         <v>380</v>
       </c>
-      <c r="O28" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="P28" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q28" s="49" t="s">
+      <c r="O28" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="P28" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q28" s="29" t="s">
         <v>404</v>
       </c>
-      <c r="R28" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="S28" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="T28" s="49" t="s">
+      <c r="R28" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="S28" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="T28" s="29" t="s">
         <v>400</v>
       </c>
-      <c r="U28" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="V28" s="50" t="s">
+      <c r="U28" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="V28" s="38" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="51" t="s">
+      <c r="B29" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="C29" s="51" t="s">
+      <c r="C29" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="D29" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="E29" s="51" t="s">
+      <c r="D29" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="E29" s="39" t="s">
         <v>266</v>
       </c>
-      <c r="F29" s="51" t="s">
+      <c r="F29" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="G29" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="H29" s="49" t="s">
+      <c r="G29" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="H29" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="I29" s="49" t="s">
+      <c r="I29" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="J29" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="K29" s="49" t="s">
+      <c r="J29" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="K29" s="29" t="s">
         <v>266</v>
       </c>
-      <c r="L29" s="51" t="s">
+      <c r="L29" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="M29" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="N29" s="51" t="s">
+      <c r="M29" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="N29" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="O29" s="51" t="s">
+      <c r="O29" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="P29" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q29" s="51" t="s">
+      <c r="P29" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q29" s="39" t="s">
         <v>266</v>
       </c>
-      <c r="R29" s="51" t="s">
+      <c r="R29" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="S29" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="T29" s="51" t="s">
+      <c r="S29" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="T29" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="U29" s="51" t="s">
+      <c r="U29" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="V29" s="50" t="s">
+      <c r="V29" s="38" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="49" t="s">
+      <c r="B30" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="49" t="s">
+      <c r="C30" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="D30" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="E30" s="49" t="s">
+      <c r="D30" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="E30" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="F30" s="49" t="s">
+      <c r="F30" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="G30" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="H30" s="49" t="s">
+      <c r="G30" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="H30" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="I30" s="49" t="s">
+      <c r="I30" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="J30" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="K30" s="49" t="s">
+      <c r="J30" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="K30" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="L30" s="49" t="s">
+      <c r="L30" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="M30" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="N30" s="49" t="s">
+      <c r="M30" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="N30" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="O30" s="49" t="s">
+      <c r="O30" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="P30" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q30" s="49" t="s">
+      <c r="P30" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q30" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="R30" s="49" t="s">
+      <c r="R30" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="S30" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="T30" s="49" t="s">
+      <c r="S30" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="T30" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="U30" s="49" t="s">
+      <c r="U30" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="V30" s="50" t="s">
+      <c r="V30" s="38" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="54" t="s">
+      <c r="B31" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="49" t="s">
+      <c r="C31" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="D31" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="E31" s="54" t="s">
+      <c r="D31" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="E31" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="F31" s="49" t="s">
+      <c r="F31" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="G31" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="H31" s="54" t="s">
+      <c r="G31" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="H31" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="I31" s="49" t="s">
+      <c r="I31" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="J31" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="K31" s="54" t="s">
+      <c r="J31" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="K31" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="L31" s="49" t="s">
+      <c r="L31" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="M31" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="N31" s="54" t="s">
+      <c r="M31" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="N31" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="O31" s="49" t="s">
+      <c r="O31" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="P31" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q31" s="54" t="s">
+      <c r="P31" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q31" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="R31" s="49" t="s">
+      <c r="R31" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="S31" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="T31" s="54" t="s">
+      <c r="S31" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="T31" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="U31" s="49" t="s">
+      <c r="U31" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="V31" s="50" t="s">
+      <c r="V31" s="38" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="49" t="s">
+      <c r="B32" s="29" t="s">
         <v>358</v>
       </c>
-      <c r="C32" s="49" t="s">
+      <c r="C32" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="D32" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="E32" s="49" t="s">
+      <c r="D32" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="E32" s="29" t="s">
         <v>358</v>
       </c>
-      <c r="F32" s="49" t="s">
+      <c r="F32" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="G32" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="H32" s="49" t="s">
+      <c r="G32" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="H32" s="29" t="s">
         <v>358</v>
       </c>
-      <c r="I32" s="49" t="s">
+      <c r="I32" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="J32" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="K32" s="49" t="s">
+      <c r="J32" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="K32" s="29" t="s">
         <v>358</v>
       </c>
-      <c r="L32" s="49" t="s">
+      <c r="L32" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="M32" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="N32" s="49" t="s">
+      <c r="M32" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="N32" s="29" t="s">
         <v>358</v>
       </c>
-      <c r="O32" s="49" t="s">
+      <c r="O32" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="P32" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q32" s="49" t="s">
+      <c r="P32" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q32" s="29" t="s">
         <v>358</v>
       </c>
-      <c r="R32" s="49" t="s">
+      <c r="R32" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="S32" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="T32" s="49" t="s">
+      <c r="S32" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="T32" s="29" t="s">
         <v>358</v>
       </c>
-      <c r="U32" s="49" t="s">
+      <c r="U32" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="V32" s="50" t="s">
+      <c r="V32" s="38" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="49" t="s">
+      <c r="B33" s="29" t="s">
         <v>300</v>
       </c>
-      <c r="C33" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="D33" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="E33" s="49" t="s">
+      <c r="C33" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="D33" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="E33" s="29" t="s">
         <v>300</v>
       </c>
-      <c r="F33" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="G33" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="H33" s="49" t="s">
+      <c r="F33" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="G33" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="H33" s="29" t="s">
         <v>300</v>
       </c>
-      <c r="I33" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="J33" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="K33" s="49" t="s">
+      <c r="I33" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="J33" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="K33" s="29" t="s">
         <v>300</v>
       </c>
-      <c r="L33" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="M33" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="N33" s="49" t="s">
+      <c r="L33" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="M33" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="N33" s="29" t="s">
         <v>300</v>
       </c>
-      <c r="O33" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="P33" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q33" s="49" t="s">
+      <c r="O33" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="P33" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q33" s="29" t="s">
         <v>300</v>
       </c>
-      <c r="R33" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="S33" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="T33" s="49" t="s">
+      <c r="R33" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="S33" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="T33" s="29" t="s">
         <v>300</v>
       </c>
-      <c r="U33" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="V33" s="50" t="s">
+      <c r="U33" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="V33" s="38" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="34" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="49" t="s">
+      <c r="B34" s="29" t="s">
         <v>296</v>
       </c>
-      <c r="C34" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="D34" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="E34" s="49" t="s">
+      <c r="C34" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="D34" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="E34" s="29" t="s">
         <v>308</v>
       </c>
-      <c r="F34" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="G34" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="H34" s="49" t="s">
+      <c r="F34" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="G34" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="H34" s="29" t="s">
         <v>304</v>
       </c>
-      <c r="I34" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="J34" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="K34" s="49" t="s">
+      <c r="I34" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="J34" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="K34" s="29" t="s">
         <v>296</v>
       </c>
-      <c r="L34" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="M34" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="N34" s="49" t="s">
+      <c r="L34" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="M34" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="N34" s="29" t="s">
         <v>308</v>
       </c>
-      <c r="O34" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="P34" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q34" s="49" t="s">
+      <c r="O34" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="P34" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q34" s="29" t="s">
         <v>304</v>
       </c>
-      <c r="R34" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="S34" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="T34" s="49" t="s">
+      <c r="R34" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="S34" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="T34" s="29" t="s">
         <v>296</v>
       </c>
-      <c r="U34" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="V34" s="50" t="s">
+      <c r="U34" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="V34" s="38" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="35" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="34"/>
-      <c r="B35" s="51" t="s">
+      <c r="B35" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="C35" s="51" t="s">
+      <c r="C35" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="D35" s="55" t="s">
-        <v>210</v>
-      </c>
-      <c r="E35" s="56" t="s">
+      <c r="D35" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="E35" s="43" t="s">
         <v>153</v>
       </c>
-      <c r="F35" s="51" t="s">
+      <c r="F35" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="G35" s="55" t="s">
-        <v>210</v>
-      </c>
-      <c r="H35" s="49" t="s">
+      <c r="G35" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="H35" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="I35" s="49" t="s">
+      <c r="I35" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="J35" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="K35" s="49" t="s">
+      <c r="J35" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="K35" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="L35" s="51" t="s">
+      <c r="L35" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="M35" s="55" t="s">
-        <v>210</v>
-      </c>
-      <c r="N35" s="51" t="s">
+      <c r="M35" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="N35" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="O35" s="51" t="s">
+      <c r="O35" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="P35" s="55" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q35" s="56" t="s">
+      <c r="P35" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q35" s="43" t="s">
         <v>153</v>
       </c>
-      <c r="R35" s="51" t="s">
+      <c r="R35" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="S35" s="55" t="s">
-        <v>210</v>
-      </c>
-      <c r="T35" s="51" t="s">
+      <c r="S35" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="T35" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="U35" s="51" t="s">
+      <c r="U35" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="V35" s="55" t="s">
+      <c r="V35" s="42" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="54" t="s">
+      <c r="B36" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="49" t="s">
+      <c r="C36" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="D36" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="E36" s="54" t="s">
+      <c r="D36" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="E36" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="F36" s="49" t="s">
+      <c r="F36" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="G36" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="H36" s="54" t="s">
+      <c r="G36" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="H36" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="I36" s="49" t="s">
+      <c r="I36" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="J36" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="K36" s="54" t="s">
+      <c r="J36" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="K36" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="L36" s="49" t="s">
+      <c r="L36" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="M36" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="N36" s="54" t="s">
+      <c r="M36" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="N36" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="O36" s="49" t="s">
+      <c r="O36" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="P36" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q36" s="54" t="s">
+      <c r="P36" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q36" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="R36" s="49" t="s">
+      <c r="R36" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="S36" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="T36" s="54" t="s">
+      <c r="S36" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="T36" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="U36" s="49" t="s">
+      <c r="U36" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="V36" s="50" t="s">
+      <c r="V36" s="38" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="37" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="49" t="s">
+      <c r="B37" s="29" t="s">
         <v>299</v>
       </c>
-      <c r="C37" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="D37" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="E37" s="49" t="s">
+      <c r="C37" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="D37" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="E37" s="29" t="s">
         <v>295</v>
       </c>
-      <c r="F37" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="G37" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="H37" s="49" t="s">
+      <c r="F37" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="G37" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="H37" s="29" t="s">
         <v>298</v>
       </c>
-      <c r="I37" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="J37" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="K37" s="49" t="s">
+      <c r="I37" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="J37" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="K37" s="29" t="s">
         <v>299</v>
       </c>
-      <c r="L37" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="M37" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="N37" s="49" t="s">
+      <c r="L37" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="M37" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="N37" s="29" t="s">
         <v>295</v>
       </c>
-      <c r="O37" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="P37" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q37" s="49" t="s">
+      <c r="O37" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="P37" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q37" s="29" t="s">
         <v>298</v>
       </c>
-      <c r="R37" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="S37" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="T37" s="49" t="s">
+      <c r="R37" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="S37" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="T37" s="29" t="s">
         <v>299</v>
       </c>
-      <c r="U37" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="V37" s="50" t="s">
+      <c r="U37" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="V37" s="38" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="49" t="s">
+      <c r="B38" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="C38" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="D38" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="E38" s="49" t="s">
+      <c r="C38" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="D38" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="E38" s="29" t="s">
         <v>309</v>
       </c>
-      <c r="F38" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="G38" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="H38" s="49" t="s">
+      <c r="F38" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="G38" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="H38" s="29" t="s">
         <v>377</v>
       </c>
-      <c r="I38" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="J38" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="K38" s="49" t="s">
+      <c r="I38" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="J38" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="K38" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="L38" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="M38" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="N38" s="49" t="s">
+      <c r="L38" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="M38" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="N38" s="29" t="s">
         <v>309</v>
       </c>
-      <c r="O38" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="P38" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q38" s="49" t="s">
+      <c r="O38" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="P38" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q38" s="29" t="s">
         <v>377</v>
       </c>
-      <c r="R38" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="S38" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="T38" s="49" t="s">
+      <c r="R38" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="S38" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="T38" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="U38" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="V38" s="50" t="s">
+      <c r="U38" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="V38" s="38" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="39" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="49" t="s">
+      <c r="B39" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="C39" s="49" t="s">
+      <c r="C39" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="D39" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="E39" s="49" t="s">
+      <c r="D39" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="E39" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="F39" s="49" t="s">
+      <c r="F39" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="G39" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="H39" s="49" t="s">
+      <c r="G39" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="H39" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="I39" s="49" t="s">
+      <c r="I39" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="J39" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="K39" s="49" t="s">
+      <c r="J39" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="K39" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="L39" s="49" t="s">
+      <c r="L39" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="M39" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="N39" s="49" t="s">
+      <c r="M39" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="N39" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="O39" s="49" t="s">
+      <c r="O39" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="P39" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q39" s="49" t="s">
+      <c r="P39" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q39" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="R39" s="49" t="s">
+      <c r="R39" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="S39" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="T39" s="49" t="s">
+      <c r="S39" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="T39" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="U39" s="49" t="s">
+      <c r="U39" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="V39" s="50" t="s">
+      <c r="V39" s="38" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="57" t="s">
+      <c r="B40" s="30" t="s">
         <v>334</v>
       </c>
-      <c r="C40" s="49" t="s">
+      <c r="C40" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="D40" s="50"/>
-      <c r="E40" s="57" t="s">
+      <c r="D40" s="38"/>
+      <c r="E40" s="30" t="s">
         <v>334</v>
       </c>
-      <c r="F40" s="49" t="s">
+      <c r="F40" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="G40" s="50"/>
-      <c r="H40" s="57" t="s">
+      <c r="G40" s="38"/>
+      <c r="H40" s="30" t="s">
         <v>334</v>
       </c>
-      <c r="I40" s="49" t="s">
+      <c r="I40" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="J40" s="50"/>
-      <c r="K40" s="57" t="s">
+      <c r="J40" s="38"/>
+      <c r="K40" s="30" t="s">
         <v>334</v>
       </c>
-      <c r="L40" s="49" t="s">
+      <c r="L40" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="M40" s="50"/>
-      <c r="N40" s="57" t="s">
+      <c r="M40" s="38"/>
+      <c r="N40" s="30" t="s">
         <v>334</v>
       </c>
-      <c r="O40" s="49" t="s">
+      <c r="O40" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="P40" s="50"/>
-      <c r="Q40" s="57" t="s">
+      <c r="P40" s="38"/>
+      <c r="Q40" s="30" t="s">
         <v>334</v>
       </c>
-      <c r="R40" s="49" t="s">
+      <c r="R40" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="S40" s="50"/>
-      <c r="T40" s="57" t="s">
+      <c r="S40" s="38"/>
+      <c r="T40" s="30" t="s">
         <v>334</v>
       </c>
-      <c r="U40" s="49" t="s">
+      <c r="U40" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="V40" s="50"/>
+      <c r="V40" s="38"/>
     </row>
     <row r="41" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="49" t="s">
+      <c r="B41" s="29" t="s">
         <v>393</v>
       </c>
-      <c r="C41" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="D41" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="E41" s="49" t="s">
+      <c r="C41" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="D41" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="E41" s="29" t="s">
         <v>393</v>
       </c>
-      <c r="F41" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="G41" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="H41" s="49" t="s">
+      <c r="F41" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="G41" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="H41" s="29" t="s">
         <v>393</v>
       </c>
-      <c r="I41" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="J41" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="K41" s="49" t="s">
+      <c r="I41" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="J41" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="K41" s="29" t="s">
         <v>393</v>
       </c>
-      <c r="L41" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="M41" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="N41" s="49" t="s">
+      <c r="L41" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="M41" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="N41" s="29" t="s">
         <v>393</v>
       </c>
-      <c r="O41" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="P41" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q41" s="49" t="s">
+      <c r="O41" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="P41" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q41" s="29" t="s">
         <v>393</v>
       </c>
-      <c r="R41" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="S41" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="T41" s="49" t="s">
+      <c r="R41" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="S41" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="T41" s="29" t="s">
         <v>393</v>
       </c>
-      <c r="U41" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="V41" s="50" t="s">
+      <c r="U41" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="V41" s="38" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="49" t="s">
+      <c r="B42" s="29" t="s">
         <v>397</v>
       </c>
-      <c r="C42" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="D42" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="E42" s="49" t="s">
+      <c r="C42" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="D42" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="E42" s="29" t="s">
         <v>403</v>
       </c>
-      <c r="F42" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="G42" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="H42" s="49" t="s">
+      <c r="F42" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="G42" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="H42" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="I42" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="J42" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="K42" s="49" t="s">
+      <c r="I42" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="J42" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="K42" s="29" t="s">
         <v>397</v>
       </c>
-      <c r="L42" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="M42" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="N42" s="49" t="s">
+      <c r="L42" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="M42" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="N42" s="29" t="s">
         <v>403</v>
       </c>
-      <c r="O42" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="P42" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q42" s="49" t="s">
+      <c r="O42" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="P42" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q42" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="R42" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="S42" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="T42" s="49" t="s">
+      <c r="R42" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="S42" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="T42" s="29" t="s">
         <v>397</v>
       </c>
-      <c r="U42" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="V42" s="50" t="s">
+      <c r="U42" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="V42" s="38" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="43" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="49" t="s">
+      <c r="B43" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="C43" s="51" t="s">
+      <c r="C43" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="D43" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="E43" s="49" t="s">
+      <c r="D43" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="E43" s="29" t="s">
         <v>267</v>
       </c>
-      <c r="F43" s="51" t="s">
+      <c r="F43" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="G43" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="H43" s="49" t="s">
+      <c r="G43" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="H43" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="I43" s="49" t="s">
+      <c r="I43" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="J43" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="K43" s="49" t="s">
+      <c r="J43" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="K43" s="29" t="s">
         <v>267</v>
       </c>
-      <c r="L43" s="51" t="s">
+      <c r="L43" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="M43" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="N43" s="49" t="s">
+      <c r="M43" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="N43" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="O43" s="51" t="s">
+      <c r="O43" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="P43" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q43" s="49" t="s">
+      <c r="P43" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q43" s="29" t="s">
         <v>267</v>
       </c>
-      <c r="R43" s="51" t="s">
+      <c r="R43" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="S43" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="T43" s="49" t="s">
+      <c r="S43" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="T43" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="U43" s="51" t="s">
+      <c r="U43" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="V43" s="50" t="s">
+      <c r="V43" s="38" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="44" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="49" t="s">
+      <c r="B44" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="C44" s="49" t="s">
+      <c r="C44" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="D44" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="E44" s="49" t="s">
+      <c r="D44" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="E44" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="F44" s="49" t="s">
+      <c r="F44" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="G44" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="H44" s="49" t="s">
+      <c r="G44" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="H44" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="I44" s="49" t="s">
+      <c r="I44" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="J44" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="K44" s="49" t="s">
+      <c r="J44" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="K44" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="L44" s="49" t="s">
+      <c r="L44" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="M44" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="N44" s="49" t="s">
+      <c r="M44" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="N44" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="O44" s="49" t="s">
+      <c r="O44" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="P44" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q44" s="49" t="s">
+      <c r="P44" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q44" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="R44" s="49" t="s">
+      <c r="R44" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="S44" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="T44" s="49" t="s">
+      <c r="S44" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="T44" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="U44" s="49" t="s">
+      <c r="U44" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="V44" s="50" t="s">
+      <c r="V44" s="38" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="45" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="34"/>
-      <c r="B45" s="52" t="s">
+      <c r="B45" t="s">
         <v>274</v>
       </c>
-      <c r="C45" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="D45" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="E45" s="52" t="s">
+      <c r="C45" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="D45" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="E45" t="s">
         <v>274</v>
       </c>
-      <c r="F45" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="G45" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="H45" s="52" t="s">
+      <c r="F45" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="G45" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="H45" t="s">
         <v>274</v>
       </c>
-      <c r="I45" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="J45" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="K45" s="52" t="s">
+      <c r="I45" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="J45" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="K45" t="s">
         <v>274</v>
       </c>
-      <c r="L45" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="M45" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="N45" s="52" t="s">
+      <c r="L45" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="M45" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="N45" t="s">
         <v>274</v>
       </c>
-      <c r="O45" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="P45" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q45" s="52" t="s">
+      <c r="O45" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="P45" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q45" t="s">
         <v>274</v>
       </c>
-      <c r="R45" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="S45" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="T45" s="52" t="s">
+      <c r="R45" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="S45" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="T45" t="s">
         <v>274</v>
       </c>
-      <c r="U45" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="V45" s="50" t="s">
+      <c r="U45" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="V45" s="38" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="49" t="s">
+      <c r="B46" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="C46" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="D46" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="E46" s="49" t="s">
+      <c r="C46" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="D46" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="E46" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="F46" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="G46" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="H46" s="49" t="s">
+      <c r="F46" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="G46" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="H46" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="I46" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="J46" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="K46" s="49" t="s">
+      <c r="I46" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="J46" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="K46" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="L46" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="M46" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="N46" s="49" t="s">
+      <c r="L46" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="M46" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="N46" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="O46" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="P46" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q46" s="49" t="s">
+      <c r="O46" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="P46" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q46" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="R46" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="S46" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="T46" s="49" t="s">
+      <c r="R46" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="S46" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="T46" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="U46" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="V46" s="50" t="s">
+      <c r="U46" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="V46" s="38" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="47" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="49" t="s">
+      <c r="B47" s="29" t="s">
         <v>386</v>
       </c>
-      <c r="C47" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="D47" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="E47" s="49" t="s">
+      <c r="C47" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="D47" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="E47" s="29" t="s">
         <v>385</v>
       </c>
-      <c r="F47" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="G47" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="H47" s="49" t="s">
+      <c r="F47" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="G47" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="H47" s="29" t="s">
         <v>384</v>
       </c>
-      <c r="I47" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="J47" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="K47" s="49" t="s">
+      <c r="I47" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="J47" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="K47" s="29" t="s">
         <v>386</v>
       </c>
-      <c r="L47" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="M47" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="N47" s="49" t="s">
+      <c r="L47" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="M47" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="N47" s="29" t="s">
         <v>385</v>
       </c>
-      <c r="O47" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="P47" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q47" s="49" t="s">
+      <c r="O47" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="P47" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q47" s="29" t="s">
         <v>384</v>
       </c>
-      <c r="R47" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="S47" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="T47" s="49" t="s">
+      <c r="R47" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="S47" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="T47" s="29" t="s">
         <v>386</v>
       </c>
-      <c r="U47" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="V47" s="50" t="s">
+      <c r="U47" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="V47" s="38" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="48" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="49" t="s">
+      <c r="B48" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="C48" s="51" t="s">
+      <c r="C48" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="D48" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="E48" s="49" t="s">
+      <c r="D48" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="E48" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="F48" s="51" t="s">
+      <c r="F48" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="G48" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="H48" s="49" t="s">
+      <c r="G48" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="H48" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="I48" s="49" t="s">
+      <c r="I48" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="J48" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="K48" s="49" t="s">
+      <c r="J48" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="K48" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="L48" s="51" t="s">
+      <c r="L48" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="M48" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="N48" s="49" t="s">
+      <c r="M48" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="N48" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="O48" s="51" t="s">
+      <c r="O48" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="P48" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q48" s="49" t="s">
+      <c r="P48" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q48" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="R48" s="51" t="s">
+      <c r="R48" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="S48" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="T48" s="49" t="s">
+      <c r="S48" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="T48" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="U48" s="49" t="s">
+      <c r="U48" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="V48" s="50" t="s">
+      <c r="V48" s="38" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="49" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="34"/>
-      <c r="B49" s="58" t="s">
+      <c r="B49" s="44" t="s">
         <v>283</v>
       </c>
-      <c r="C49" s="49" t="s">
+      <c r="C49" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="D49" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="E49" s="49" t="s">
+      <c r="D49" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="E49" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="F49" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="G49" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="H49" s="49" t="s">
+      <c r="F49" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="G49" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="H49" s="29" t="s">
         <v>359</v>
       </c>
-      <c r="I49" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="J49" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="K49" s="49" t="s">
+      <c r="I49" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="J49" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="K49" s="29" t="s">
         <v>283</v>
       </c>
-      <c r="L49" s="49" t="s">
+      <c r="L49" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="M49" s="50" t="s">
+      <c r="M49" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="N49" s="49" t="s">
+      <c r="N49" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="O49" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="P49" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q49" s="49" t="s">
+      <c r="O49" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="P49" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q49" s="29" t="s">
         <v>359</v>
       </c>
-      <c r="R49" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="S49" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="T49" s="49" t="s">
+      <c r="R49" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="S49" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="T49" s="29" t="s">
         <v>283</v>
       </c>
-      <c r="U49" s="49" t="s">
+      <c r="U49" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="V49" s="50" t="s">
+      <c r="V49" s="38" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="50" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="49" t="s">
+      <c r="B50" s="29" t="s">
         <v>399</v>
       </c>
-      <c r="C50" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="D50" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="E50" s="49" t="s">
+      <c r="C50" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="D50" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="E50" s="29" t="s">
         <v>398</v>
       </c>
-      <c r="F50" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="G50" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="H50" s="49" t="s">
+      <c r="F50" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="G50" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="H50" s="29" t="s">
         <v>402</v>
       </c>
-      <c r="I50" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="J50" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="K50" s="49" t="s">
+      <c r="I50" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="J50" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="K50" s="29" t="s">
         <v>399</v>
       </c>
-      <c r="L50" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="M50" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="N50" s="49" t="s">
+      <c r="L50" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="M50" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="N50" s="29" t="s">
         <v>398</v>
       </c>
-      <c r="O50" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="P50" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q50" s="49" t="s">
+      <c r="O50" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="P50" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q50" s="29" t="s">
         <v>402</v>
       </c>
-      <c r="R50" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="S50" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="T50" s="49" t="s">
+      <c r="R50" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="S50" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="T50" s="29" t="s">
         <v>399</v>
       </c>
-      <c r="U50" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="V50" s="50" t="s">
+      <c r="U50" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="V50" s="38" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="51" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="49" t="s">
+      <c r="B51" s="29" t="s">
         <v>378</v>
       </c>
-      <c r="C51" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="D51" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="E51" s="49" t="s">
+      <c r="C51" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="D51" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="E51" s="29" t="s">
         <v>305</v>
       </c>
-      <c r="F51" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="G51" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="H51" s="49" t="s">
+      <c r="F51" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="G51" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="H51" s="29" t="s">
         <v>379</v>
       </c>
-      <c r="I51" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="J51" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="K51" s="49" t="s">
+      <c r="I51" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="J51" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="K51" s="29" t="s">
         <v>378</v>
       </c>
-      <c r="L51" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="M51" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="N51" s="49" t="s">
+      <c r="L51" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="M51" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="N51" s="29" t="s">
         <v>305</v>
       </c>
-      <c r="O51" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="P51" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q51" s="49" t="s">
+      <c r="O51" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="P51" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q51" s="29" t="s">
         <v>379</v>
       </c>
-      <c r="R51" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="S51" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="T51" s="49" t="s">
+      <c r="R51" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="S51" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="T51" s="29" t="s">
         <v>378</v>
       </c>
-      <c r="U51" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="V51" s="50" t="s">
+      <c r="U51" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="V51" s="38" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="52" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="49" t="s">
+      <c r="B52" s="29" t="s">
         <v>381</v>
       </c>
-      <c r="C52" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="D52" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="E52" s="49" t="s">
+      <c r="C52" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="D52" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="E52" s="29" t="s">
         <v>382</v>
       </c>
-      <c r="F52" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="G52" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="H52" s="49" t="s">
+      <c r="F52" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="G52" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="H52" s="29" t="s">
         <v>383</v>
       </c>
-      <c r="I52" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="J52" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="K52" s="49" t="s">
+      <c r="I52" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="J52" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="K52" s="29" t="s">
         <v>381</v>
       </c>
-      <c r="L52" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="M52" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="N52" s="49" t="s">
+      <c r="L52" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="M52" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="N52" s="29" t="s">
         <v>382</v>
       </c>
-      <c r="O52" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="P52" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q52" s="49" t="s">
+      <c r="O52" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="P52" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q52" s="29" t="s">
         <v>383</v>
       </c>
-      <c r="R52" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="S52" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="T52" s="49" t="s">
+      <c r="R52" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="S52" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="T52" s="29" t="s">
         <v>381</v>
       </c>
-      <c r="U52" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="V52" s="50" t="s">
+      <c r="U52" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="V52" s="38" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="53" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="34"/>
-      <c r="B53" s="49" t="s">
+      <c r="B53" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="C53" s="49" t="s">
+      <c r="C53" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="D53" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="E53" s="49" t="s">
+      <c r="D53" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="E53" s="29" t="s">
         <v>374</v>
       </c>
-      <c r="F53" s="49" t="s">
+      <c r="F53" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="G53" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="H53" s="49" t="s">
+      <c r="G53" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="H53" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="I53" s="49" t="s">
+      <c r="I53" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="J53" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="K53" s="49" t="s">
+      <c r="J53" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="K53" s="29" t="s">
         <v>374</v>
       </c>
-      <c r="L53" s="49" t="s">
+      <c r="L53" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="M53" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="N53" s="49" t="s">
+      <c r="M53" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="N53" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="O53" s="49" t="s">
+      <c r="O53" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="P53" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q53" s="49" t="s">
+      <c r="P53" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q53" s="29" t="s">
         <v>374</v>
       </c>
-      <c r="R53" s="49" t="s">
+      <c r="R53" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="S53" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="T53" s="49" t="s">
+      <c r="S53" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="T53" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="U53" s="49" t="s">
+      <c r="U53" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="V53" s="50" t="s">
+      <c r="V53" s="38" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="54" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="49" t="s">
+      <c r="B54" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="C54" s="49" t="s">
+      <c r="C54" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="D54" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="E54" s="49" t="s">
+      <c r="D54" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="E54" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="F54" s="49" t="s">
+      <c r="F54" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="G54" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="H54" s="49" t="s">
+      <c r="G54" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="H54" s="29" t="s">
         <v>253</v>
       </c>
-      <c r="I54" s="49" t="s">
+      <c r="I54" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="J54" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="K54" s="49" t="s">
+      <c r="J54" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="K54" s="29" t="s">
         <v>254</v>
       </c>
-      <c r="L54" s="49" t="s">
+      <c r="L54" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="M54" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="N54" s="49" t="s">
+      <c r="M54" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="N54" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="O54" s="49" t="s">
+      <c r="O54" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="P54" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q54" s="49" t="s">
+      <c r="P54" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q54" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="R54" s="49" t="s">
+      <c r="R54" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="S54" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="T54" s="49" t="s">
+      <c r="S54" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="T54" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="U54" s="49" t="s">
+      <c r="U54" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="V54" s="50" t="s">
+      <c r="V54" s="38" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="55" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="49" t="s">
+      <c r="B55" s="29" t="s">
         <v>360</v>
       </c>
-      <c r="C55" s="49" t="s">
+      <c r="C55" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="D55" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="E55" s="49" t="s">
+      <c r="D55" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="E55" s="29" t="s">
         <v>361</v>
       </c>
-      <c r="F55" s="49" t="s">
+      <c r="F55" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="G55" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="H55" s="49" t="s">
+      <c r="G55" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="H55" s="29" t="s">
         <v>362</v>
       </c>
-      <c r="I55" s="49" t="s">
+      <c r="I55" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="J55" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="K55" s="49" t="s">
+      <c r="J55" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="K55" s="29" t="s">
         <v>360</v>
       </c>
-      <c r="L55" s="49" t="s">
+      <c r="L55" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="M55" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="N55" s="49" t="s">
+      <c r="M55" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="N55" s="29" t="s">
         <v>361</v>
       </c>
-      <c r="O55" s="49" t="s">
+      <c r="O55" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="P55" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q55" s="49" t="s">
+      <c r="P55" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q55" s="29" t="s">
         <v>362</v>
       </c>
-      <c r="R55" s="49" t="s">
+      <c r="R55" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="S55" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="T55" s="49" t="s">
+      <c r="S55" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="T55" s="29" t="s">
         <v>360</v>
       </c>
-      <c r="U55" s="49" t="s">
+      <c r="U55" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="V55" s="50" t="s">
+      <c r="V55" s="38" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="56" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="34"/>
-      <c r="B56" s="49" t="s">
+      <c r="B56" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="C56" s="49" t="s">
+      <c r="C56" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="D56" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="E56" s="49" t="s">
+      <c r="D56" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="E56" s="29" t="s">
         <v>375</v>
       </c>
-      <c r="F56" s="49" t="s">
+      <c r="F56" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="G56" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="H56" s="49" t="s">
+      <c r="G56" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="H56" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="I56" s="49" t="s">
+      <c r="I56" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="J56" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="K56" s="49" t="s">
+      <c r="J56" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="K56" s="29" t="s">
         <v>375</v>
       </c>
-      <c r="L56" s="49" t="s">
+      <c r="L56" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="M56" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="N56" s="49" t="s">
+      <c r="M56" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="N56" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="O56" s="49" t="s">
+      <c r="O56" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="P56" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q56" s="49" t="s">
+      <c r="P56" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q56" s="29" t="s">
         <v>375</v>
       </c>
-      <c r="R56" s="49" t="s">
+      <c r="R56" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="S56" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="T56" s="49" t="s">
+      <c r="S56" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="T56" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="U56" s="49" t="s">
+      <c r="U56" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="V56" s="50" t="s">
+      <c r="V56" s="38" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="57" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="49" t="s">
+      <c r="B57" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="C57" s="49" t="s">
+      <c r="C57" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="D57" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="E57" s="51" t="s">
+      <c r="D57" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="E57" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="F57" s="49" t="s">
+      <c r="F57" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="G57" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="H57" s="49" t="s">
+      <c r="G57" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="H57" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="I57" s="49" t="s">
+      <c r="I57" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="J57" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="K57" s="49" t="s">
+      <c r="J57" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="K57" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="L57" s="49" t="s">
+      <c r="L57" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="M57" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="N57" s="51" t="s">
+      <c r="M57" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="N57" s="39" t="s">
         <v>372</v>
       </c>
-      <c r="O57" s="49" t="s">
+      <c r="O57" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="P57" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q57" s="51" t="s">
+      <c r="P57" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q57" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="R57" s="49" t="s">
+      <c r="R57" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="S57" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="T57" s="51" t="s">
+      <c r="S57" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="T57" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="U57" s="49" t="s">
+      <c r="U57" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="V57" s="50" t="s">
+      <c r="V57" s="38" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="58" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="51" t="s">
+      <c r="B58" s="39" t="s">
         <v>363</v>
       </c>
-      <c r="C58" s="49" t="s">
+      <c r="C58" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="D58" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="E58" s="51" t="s">
+      <c r="D58" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="E58" s="39" t="s">
         <v>363</v>
       </c>
-      <c r="F58" s="49" t="s">
+      <c r="F58" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="G58" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="H58" s="51" t="s">
+      <c r="G58" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="H58" s="39" t="s">
         <v>363</v>
       </c>
-      <c r="I58" s="49" t="s">
+      <c r="I58" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="J58" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="K58" s="51" t="s">
+      <c r="J58" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="K58" s="39" t="s">
         <v>363</v>
       </c>
-      <c r="L58" s="49" t="s">
+      <c r="L58" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="M58" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="N58" s="51" t="s">
+      <c r="M58" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="N58" s="39" t="s">
         <v>363</v>
       </c>
-      <c r="O58" s="49" t="s">
+      <c r="O58" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="P58" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q58" s="51" t="s">
+      <c r="P58" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q58" s="39" t="s">
         <v>363</v>
       </c>
-      <c r="R58" s="49" t="s">
+      <c r="R58" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="S58" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="T58" s="51" t="s">
+      <c r="S58" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="T58" s="39" t="s">
         <v>363</v>
       </c>
-      <c r="U58" s="49" t="s">
+      <c r="U58" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="V58" s="50" t="s">
+      <c r="V58" s="38" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="59" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="49" t="s">
+      <c r="B59" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="C59" s="49" t="s">
+      <c r="C59" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="D59" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="E59" s="49" t="s">
+      <c r="D59" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="E59" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="F59" s="49" t="s">
+      <c r="F59" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="G59" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="H59" s="49" t="s">
+      <c r="G59" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="H59" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="I59" s="49" t="s">
+      <c r="I59" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="J59" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="K59" s="49" t="s">
+      <c r="J59" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="K59" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="L59" s="49" t="s">
+      <c r="L59" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="M59" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="N59" s="49" t="s">
+      <c r="M59" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="N59" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="O59" s="49" t="s">
+      <c r="O59" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="P59" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q59" s="49" t="s">
+      <c r="P59" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q59" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="R59" s="49" t="s">
+      <c r="R59" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="S59" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="T59" s="49" t="s">
+      <c r="S59" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="T59" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="U59" s="49" t="s">
+      <c r="U59" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="V59" s="50" t="s">
+      <c r="V59" s="38" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="60" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="49" t="s">
+      <c r="B60" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="C60" s="49" t="s">
+      <c r="C60" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="D60" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="E60" s="49" t="s">
+      <c r="D60" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="E60" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="F60" s="49" t="s">
+      <c r="F60" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="G60" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="H60" s="49" t="s">
+      <c r="G60" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="H60" s="29" t="s">
         <v>373</v>
       </c>
-      <c r="I60" s="49" t="s">
+      <c r="I60" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="J60" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="K60" s="49" t="s">
+      <c r="J60" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="K60" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="L60" s="49" t="s">
+      <c r="L60" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="M60" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="N60" s="49" t="s">
+      <c r="M60" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="N60" s="29" t="s">
         <v>376</v>
       </c>
-      <c r="O60" s="49" t="s">
+      <c r="O60" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="P60" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q60" s="49" t="s">
+      <c r="P60" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q60" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="R60" s="49" t="s">
+      <c r="R60" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="S60" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="T60" s="49" t="s">
+      <c r="S60" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="T60" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="U60" s="49" t="s">
+      <c r="U60" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="V60" s="50" t="s">
+      <c r="V60" s="38" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="61" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="49" t="s">
+      <c r="B61" s="29" t="s">
         <v>390</v>
       </c>
-      <c r="C61" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="D61" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="E61" s="49" t="s">
+      <c r="C61" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="D61" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="E61" s="29" t="s">
         <v>391</v>
       </c>
-      <c r="F61" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="G61" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="H61" s="49" t="s">
+      <c r="F61" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="G61" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="H61" s="29" t="s">
         <v>392</v>
       </c>
-      <c r="I61" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="J61" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="K61" s="49" t="s">
+      <c r="I61" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="J61" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="K61" s="29" t="s">
         <v>390</v>
       </c>
-      <c r="L61" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="M61" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="N61" s="49" t="s">
+      <c r="L61" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="M61" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="N61" s="29" t="s">
         <v>391</v>
       </c>
-      <c r="O61" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="P61" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q61" s="49" t="s">
+      <c r="O61" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="P61" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q61" s="29" t="s">
         <v>392</v>
       </c>
-      <c r="R61" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="S61" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="T61" s="49" t="s">
+      <c r="R61" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="S61" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="T61" s="29" t="s">
         <v>390</v>
       </c>
-      <c r="U61" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="V61" s="50" t="s">
+      <c r="U61" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="V61" s="38" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="62" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="49" t="s">
+      <c r="B62" s="29" t="s">
         <v>405</v>
       </c>
-      <c r="C62" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="D62" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="E62" s="49" t="s">
+      <c r="C62" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="D62" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="E62" s="29" t="s">
         <v>406</v>
       </c>
-      <c r="F62" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="G62" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="H62" s="49" t="s">
+      <c r="F62" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="G62" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="H62" s="29" t="s">
         <v>395</v>
       </c>
-      <c r="I62" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="J62" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="K62" s="49" t="s">
+      <c r="I62" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="J62" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="K62" s="29" t="s">
         <v>405</v>
       </c>
-      <c r="L62" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="M62" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="N62" s="49" t="s">
+      <c r="L62" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="M62" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="N62" s="29" t="s">
         <v>406</v>
       </c>
-      <c r="O62" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="P62" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q62" s="49" t="s">
+      <c r="O62" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="P62" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q62" s="29" t="s">
         <v>395</v>
       </c>
-      <c r="R62" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="S62" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="T62" s="49" t="s">
+      <c r="R62" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="S62" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="T62" s="29" t="s">
         <v>405</v>
       </c>
-      <c r="U62" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="V62" s="50" t="s">
+      <c r="U62" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="V62" s="38" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="63" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="49" t="s">
+      <c r="B63" s="29" t="s">
         <v>389</v>
       </c>
-      <c r="C63" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="D63" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="E63" s="49" t="s">
+      <c r="C63" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="D63" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="E63" s="29" t="s">
         <v>388</v>
       </c>
-      <c r="F63" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="G63" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="H63" s="49" t="s">
+      <c r="F63" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="G63" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="H63" s="29" t="s">
         <v>387</v>
       </c>
-      <c r="I63" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="J63" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="K63" s="49" t="s">
+      <c r="I63" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="J63" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="K63" s="29" t="s">
         <v>389</v>
       </c>
-      <c r="L63" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="M63" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="N63" s="49" t="s">
+      <c r="L63" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="M63" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="N63" s="29" t="s">
         <v>388</v>
       </c>
-      <c r="O63" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="P63" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q63" s="49" t="s">
+      <c r="O63" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="P63" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q63" s="29" t="s">
         <v>387</v>
       </c>
-      <c r="R63" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="S63" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="T63" s="49" t="s">
+      <c r="R63" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="S63" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="T63" s="29" t="s">
         <v>389</v>
       </c>
-      <c r="U63" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="V63" s="50" t="s">
+      <c r="U63" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="V63" s="38" t="s">
         <v>210</v>
       </c>
     </row>

--- a/MASTER Collection Schedule.xlsx
+++ b/MASTER Collection Schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10117"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brandontravis/Development/pmm-config/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brandon.travis/Development/GitHub/pmm-config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277132AA-49A5-254D-8B49-95E99315A72D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC827EB-DFBC-2248-8759-A5CB3EF2295E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="48420" windowHeight="27320" activeTab="2" xr2:uid="{34EAF699-62FB-4548-AC27-08363F05758A}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="21380" activeTab="5" xr2:uid="{34EAF699-62FB-4548-AC27-08363F05758A}"/>
   </bookViews>
   <sheets>
     <sheet name="Movies" sheetId="1" r:id="rId1"/>
@@ -1722,7 +1722,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1772,21 +1772,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1814,9 +1809,26 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2148,10 +2160,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="48"/>
+      <c r="D1" s="45"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -5071,7 +5083,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{961870A6-6628-8840-AC00-0AEFD098BBAD}">
   <dimension ref="B1:Z800"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G35" sqref="E35:G35"/>
     </sheetView>
   </sheetViews>
@@ -5154,45 +5166,45 @@
       <c r="V2" s="8"/>
     </row>
     <row r="3" spans="2:26" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="51" t="s">
         <v>189</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="54" t="s">
+      <c r="C3" s="52"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="51" t="s">
         <v>190</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="54" t="s">
+      <c r="F3" s="52"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="51" t="s">
         <v>191</v>
       </c>
-      <c r="I3" s="55"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="54" t="s">
+      <c r="I3" s="52"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="51" t="s">
         <v>192</v>
       </c>
-      <c r="L3" s="55"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="54" t="s">
+      <c r="L3" s="52"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="51" t="s">
         <v>193</v>
       </c>
-      <c r="O3" s="55"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="54" t="s">
+      <c r="O3" s="52"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="51" t="s">
         <v>194</v>
       </c>
-      <c r="R3" s="55"/>
-      <c r="S3" s="56"/>
-      <c r="T3" s="54" t="s">
+      <c r="R3" s="52"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="U3" s="55"/>
-      <c r="V3" s="56"/>
-      <c r="Y3" s="49" t="s">
+      <c r="U3" s="52"/>
+      <c r="V3" s="53"/>
+      <c r="Y3" s="46" t="s">
         <v>208</v>
       </c>
-      <c r="Z3" s="50"/>
+      <c r="Z3" s="47"/>
     </row>
     <row r="4" spans="2:26" s="9" customFormat="1" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
@@ -5266,55 +5278,55 @@
       </c>
     </row>
     <row r="5" spans="2:26" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="39" t="s">
         <v>226</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="D5" s="46"/>
-      <c r="E5" s="45" t="s">
+      <c r="D5" s="40"/>
+      <c r="E5" s="39" t="s">
         <v>226</v>
       </c>
-      <c r="F5" s="45" t="s">
+      <c r="F5" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="G5" s="46"/>
-      <c r="H5" s="45" t="s">
+      <c r="G5" s="40"/>
+      <c r="H5" s="39" t="s">
         <v>226</v>
       </c>
-      <c r="I5" s="45" t="s">
+      <c r="I5" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="J5" s="46"/>
-      <c r="K5" s="45" t="s">
+      <c r="J5" s="40"/>
+      <c r="K5" s="39" t="s">
         <v>226</v>
       </c>
-      <c r="L5" s="45" t="s">
+      <c r="L5" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="M5" s="46"/>
-      <c r="N5" s="45" t="s">
+      <c r="M5" s="40"/>
+      <c r="N5" s="39" t="s">
         <v>226</v>
       </c>
-      <c r="O5" s="45" t="s">
+      <c r="O5" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="45" t="s">
+      <c r="P5" s="40"/>
+      <c r="Q5" s="39" t="s">
         <v>226</v>
       </c>
-      <c r="R5" s="45" t="s">
+      <c r="R5" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="S5" s="46"/>
-      <c r="T5" s="45" t="s">
+      <c r="S5" s="40"/>
+      <c r="T5" s="39" t="s">
         <v>226</v>
       </c>
-      <c r="U5" s="45" t="s">
+      <c r="U5" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="V5" s="46"/>
+      <c r="V5" s="40"/>
       <c r="Y5" s="14" t="s">
         <v>32</v>
       </c>
@@ -5323,55 +5335,55 @@
       </c>
     </row>
     <row r="6" spans="2:26" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="D6" s="46"/>
-      <c r="E6" s="45" t="s">
+      <c r="D6" s="40"/>
+      <c r="E6" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="45" t="s">
+      <c r="F6" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="G6" s="46"/>
-      <c r="H6" s="45" t="s">
+      <c r="G6" s="40"/>
+      <c r="H6" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="45" t="s">
+      <c r="I6" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="J6" s="46"/>
-      <c r="K6" s="45" t="s">
+      <c r="J6" s="40"/>
+      <c r="K6" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="45" t="s">
+      <c r="L6" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="M6" s="46"/>
-      <c r="N6" s="45" t="s">
+      <c r="M6" s="40"/>
+      <c r="N6" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="O6" s="45" t="s">
+      <c r="O6" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="P6" s="46"/>
-      <c r="Q6" s="45" t="s">
+      <c r="P6" s="40"/>
+      <c r="Q6" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="R6" s="45" t="s">
+      <c r="R6" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="S6" s="46"/>
-      <c r="T6" s="45" t="s">
+      <c r="S6" s="40"/>
+      <c r="T6" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="U6" s="45" t="s">
+      <c r="U6" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="V6" s="46"/>
+      <c r="V6" s="40"/>
       <c r="Y6" s="12" t="s">
         <v>229</v>
       </c>
@@ -5380,67 +5392,67 @@
       </c>
     </row>
     <row r="7" spans="2:26" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="39" t="s">
         <v>201</v>
       </c>
-      <c r="D7" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="E7" s="45" t="s">
+      <c r="D7" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="E7" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="F7" s="45" t="s">
+      <c r="F7" s="39" t="s">
         <v>201</v>
       </c>
-      <c r="G7" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="H7" s="45" t="s">
+      <c r="G7" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="H7" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="I7" s="45" t="s">
+      <c r="I7" s="39" t="s">
         <v>201</v>
       </c>
-      <c r="J7" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="K7" s="45" t="s">
+      <c r="J7" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="K7" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="L7" s="45" t="s">
+      <c r="L7" s="39" t="s">
         <v>201</v>
       </c>
-      <c r="M7" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="N7" s="45" t="s">
+      <c r="M7" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="N7" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="O7" s="45" t="s">
+      <c r="O7" s="39" t="s">
         <v>201</v>
       </c>
-      <c r="P7" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q7" s="45" t="s">
+      <c r="P7" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q7" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="R7" s="45" t="s">
+      <c r="R7" s="39" t="s">
         <v>201</v>
       </c>
-      <c r="S7" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="T7" s="45" t="s">
+      <c r="S7" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="T7" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="U7" s="45" t="s">
+      <c r="U7" s="39" t="s">
         <v>201</v>
       </c>
-      <c r="V7" s="46" t="s">
+      <c r="V7" s="40" t="s">
         <v>210</v>
       </c>
       <c r="Y7" s="14" t="s">
@@ -5451,55 +5463,55 @@
       </c>
     </row>
     <row r="8" spans="2:26" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="D8" s="46"/>
-      <c r="E8" s="45" t="s">
+      <c r="D8" s="40"/>
+      <c r="E8" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="F8" s="45" t="s">
+      <c r="F8" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="G8" s="46"/>
-      <c r="H8" s="45" t="s">
+      <c r="G8" s="40"/>
+      <c r="H8" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="I8" s="45" t="s">
+      <c r="I8" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="J8" s="46"/>
-      <c r="K8" s="45" t="s">
+      <c r="J8" s="40"/>
+      <c r="K8" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="L8" s="45" t="s">
+      <c r="L8" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="M8" s="46"/>
-      <c r="N8" s="45" t="s">
+      <c r="M8" s="40"/>
+      <c r="N8" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="O8" s="45" t="s">
+      <c r="O8" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="45" t="s">
+      <c r="P8" s="40"/>
+      <c r="Q8" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="R8" s="45" t="s">
+      <c r="R8" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="S8" s="46"/>
-      <c r="T8" s="45" t="s">
+      <c r="S8" s="40"/>
+      <c r="T8" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="U8" s="45" t="s">
+      <c r="U8" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="V8" s="46"/>
+      <c r="V8" s="40"/>
       <c r="Y8" s="14" t="s">
         <v>36</v>
       </c>
@@ -5508,67 +5520,67 @@
       </c>
     </row>
     <row r="9" spans="2:26" s="30" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="D9" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="E9" s="45" t="s">
+      <c r="C9" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="E9" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="G9" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="H9" s="45" t="s">
+      <c r="F9" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="G9" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="H9" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="J9" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="K9" s="45" t="s">
+      <c r="I9" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="J9" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="K9" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="L9" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="M9" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="N9" s="45" t="s">
+      <c r="L9" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="M9" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="N9" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="O9" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="P9" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q9" s="45" t="s">
+      <c r="O9" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="P9" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q9" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="R9" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="S9" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="T9" s="45" t="s">
+      <c r="R9" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="S9" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="T9" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="U9" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="V9" s="46" t="s">
+      <c r="U9" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="V9" s="40" t="s">
         <v>210</v>
       </c>
       <c r="Y9" s="14" t="s">
@@ -5579,67 +5591,67 @@
       </c>
     </row>
     <row r="10" spans="2:26" s="30" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="C10" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="D10" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="E10" s="45" t="s">
+      <c r="C10" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="E10" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="F10" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="G10" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="H10" s="45" t="s">
+      <c r="F10" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="G10" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="H10" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="I10" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="J10" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="K10" s="45" t="s">
+      <c r="I10" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="J10" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="K10" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="L10" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="M10" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="N10" s="45" t="s">
+      <c r="L10" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="M10" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="N10" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="O10" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="P10" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q10" s="45" t="s">
+      <c r="O10" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="P10" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q10" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="R10" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="S10" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="T10" s="45" t="s">
+      <c r="R10" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="S10" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="T10" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="U10" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="V10" s="46" t="s">
+      <c r="U10" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="V10" s="40" t="s">
         <v>210</v>
       </c>
       <c r="Y10" s="14" t="s">
@@ -5650,67 +5662,67 @@
       </c>
     </row>
     <row r="11" spans="2:26" s="30" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="D11" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="E11" s="45" t="s">
+      <c r="C11" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="E11" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="G11" s="46" t="s">
+      <c r="F11" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="G11" s="40" t="s">
         <v>230</v>
       </c>
-      <c r="H11" s="45" t="s">
+      <c r="H11" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="J11" s="46" t="s">
+      <c r="I11" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="J11" s="40" t="s">
         <v>230</v>
       </c>
-      <c r="K11" s="45" t="s">
+      <c r="K11" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="L11" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="M11" s="46" t="s">
+      <c r="L11" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="M11" s="40" t="s">
         <v>230</v>
       </c>
-      <c r="N11" s="45" t="s">
+      <c r="N11" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="O11" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="P11" s="46" t="s">
+      <c r="O11" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="P11" s="40" t="s">
         <v>230</v>
       </c>
-      <c r="Q11" s="45" t="s">
+      <c r="Q11" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="R11" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="S11" s="46" t="s">
+      <c r="R11" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="S11" s="40" t="s">
         <v>230</v>
       </c>
-      <c r="T11" s="45" t="s">
+      <c r="T11" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="U11" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="V11" s="46" t="s">
+      <c r="U11" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="V11" s="40" t="s">
         <v>230</v>
       </c>
       <c r="Y11" s="29" t="s">
@@ -5721,67 +5733,67 @@
       </c>
     </row>
     <row r="12" spans="2:26" s="30" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="D12" s="46" t="s">
+      <c r="C12" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="D12" s="40" t="s">
         <v>230</v>
       </c>
-      <c r="E12" s="45" t="s">
+      <c r="E12" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="G12" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="H12" s="45" t="s">
+      <c r="F12" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="G12" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="H12" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="J12" s="46" t="s">
+      <c r="I12" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="J12" s="40" t="s">
         <v>230</v>
       </c>
-      <c r="K12" s="45" t="s">
+      <c r="K12" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="L12" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="M12" s="46" t="s">
+      <c r="L12" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="M12" s="40" t="s">
         <v>230</v>
       </c>
-      <c r="N12" s="45" t="s">
+      <c r="N12" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="O12" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="P12" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q12" s="45" t="s">
+      <c r="O12" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="P12" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q12" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="R12" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="S12" s="46" t="s">
+      <c r="R12" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="S12" s="40" t="s">
         <v>230</v>
       </c>
-      <c r="T12" s="45" t="s">
+      <c r="T12" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="U12" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="V12" s="46" t="s">
+      <c r="U12" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="V12" s="40" t="s">
         <v>230</v>
       </c>
       <c r="Y12" s="14" t="s">
@@ -5792,67 +5804,67 @@
       </c>
     </row>
     <row r="13" spans="2:26" s="30" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="D13" s="46" t="s">
+      <c r="C13" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="D13" s="40" t="s">
         <v>230</v>
       </c>
-      <c r="E13" s="45" t="s">
+      <c r="E13" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="G13" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="H13" s="45" t="s">
+      <c r="F13" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="G13" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="H13" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="J13" s="46" t="s">
+      <c r="I13" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="J13" s="40" t="s">
         <v>230</v>
       </c>
-      <c r="K13" s="45" t="s">
+      <c r="K13" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="L13" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="M13" s="46" t="s">
+      <c r="L13" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="M13" s="40" t="s">
         <v>230</v>
       </c>
-      <c r="N13" s="45" t="s">
+      <c r="N13" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="O13" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="P13" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q13" s="45" t="s">
+      <c r="O13" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="P13" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q13" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="R13" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="S13" s="46" t="s">
+      <c r="R13" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="S13" s="40" t="s">
         <v>230</v>
       </c>
-      <c r="T13" s="45" t="s">
+      <c r="T13" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="U13" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="V13" s="46" t="s">
+      <c r="U13" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="V13" s="40" t="s">
         <v>230</v>
       </c>
       <c r="Y13" s="14" t="s">
@@ -5975,41 +5987,41 @@
       <c r="V17" s="8"/>
     </row>
     <row r="18" spans="2:25" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="48" t="s">
         <v>189</v>
       </c>
-      <c r="C18" s="52"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="51" t="s">
+      <c r="C18" s="49"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="F18" s="52"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="51" t="s">
+      <c r="F18" s="49"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="48" t="s">
         <v>191</v>
       </c>
-      <c r="I18" s="52"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="51" t="s">
+      <c r="I18" s="49"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="L18" s="52"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="51" t="s">
+      <c r="L18" s="49"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="48" t="s">
         <v>193</v>
       </c>
-      <c r="O18" s="52"/>
-      <c r="P18" s="53"/>
-      <c r="Q18" s="51" t="s">
+      <c r="O18" s="49"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="R18" s="52"/>
-      <c r="S18" s="53"/>
-      <c r="T18" s="51" t="s">
+      <c r="R18" s="49"/>
+      <c r="S18" s="50"/>
+      <c r="T18" s="48" t="s">
         <v>196</v>
       </c>
-      <c r="U18" s="52"/>
-      <c r="V18" s="53"/>
+      <c r="U18" s="49"/>
+      <c r="V18" s="50"/>
     </row>
     <row r="19" spans="2:25" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
@@ -6077,197 +6089,197 @@
       </c>
     </row>
     <row r="20" spans="2:25" s="30" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="D20" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="E20" s="45" t="s">
+      <c r="C20" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="D20" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="E20" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="F20" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="G20" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="H20" s="45" t="s">
+      <c r="F20" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="G20" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="H20" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="I20" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="J20" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="K20" s="45" t="s">
+      <c r="I20" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="J20" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="K20" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="L20" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="M20" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="N20" s="45" t="s">
+      <c r="L20" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="M20" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="N20" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="O20" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="P20" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q20" s="45" t="s">
+      <c r="O20" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="P20" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q20" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="R20" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="S20" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="T20" s="45" t="s">
+      <c r="R20" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="S20" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="T20" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="U20" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="V20" s="46" t="s">
+      <c r="U20" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="V20" s="40" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="21" spans="2:25" s="30" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="D21" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="E21" s="45" t="s">
+      <c r="C21" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="D21" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="E21" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="G21" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="H21" s="45" t="s">
+      <c r="F21" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="G21" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="H21" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="I21" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="J21" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="K21" s="45" t="s">
+      <c r="I21" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="J21" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="K21" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="L21" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="M21" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="N21" s="45" t="s">
+      <c r="L21" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="M21" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="N21" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="O21" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="P21" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q21" s="45" t="s">
+      <c r="O21" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="P21" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q21" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="R21" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="S21" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="T21" s="45" t="s">
+      <c r="R21" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="S21" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="T21" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="U21" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="V21" s="46" t="s">
+      <c r="U21" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="V21" s="40" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="22" spans="2:25" s="30" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="45" t="s">
+      <c r="B22" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="45" t="s">
+      <c r="C22" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="D22" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="E22" s="45" t="s">
+      <c r="D22" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="E22" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="45" t="s">
+      <c r="F22" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="G22" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="H22" s="45" t="s">
+      <c r="G22" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="H22" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="I22" s="45" t="s">
+      <c r="I22" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="J22" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="K22" s="45" t="s">
+      <c r="J22" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="K22" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="L22" s="45" t="s">
+      <c r="L22" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="M22" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="N22" s="45" t="s">
+      <c r="M22" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="N22" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="O22" s="45" t="s">
+      <c r="O22" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="P22" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q22" s="45" t="s">
+      <c r="P22" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q22" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="R22" s="45" t="s">
+      <c r="R22" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="S22" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="T22" s="45" t="s">
+      <c r="S22" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="T22" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="U22" s="45" t="s">
+      <c r="U22" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="V22" s="46" t="s">
+      <c r="V22" s="40" t="s">
         <v>210</v>
       </c>
       <c r="Y22" s="1" t="s">
@@ -6275,67 +6287,67 @@
       </c>
     </row>
     <row r="23" spans="2:25" s="30" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="45" t="s">
+      <c r="B23" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="D23" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="E23" s="45" t="s">
+      <c r="C23" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="D23" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="E23" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="G23" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="H23" s="45" t="s">
+      <c r="F23" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="G23" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="H23" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="I23" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="J23" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="K23" s="45" t="s">
+      <c r="I23" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="J23" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="K23" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="L23" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="M23" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="N23" s="45" t="s">
+      <c r="L23" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="M23" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="N23" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="O23" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="P23" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q23" s="45" t="s">
+      <c r="O23" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="P23" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q23" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="R23" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="S23" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="T23" s="45" t="s">
+      <c r="R23" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="S23" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="T23" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="U23" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="V23" s="46" t="s">
+      <c r="U23" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="V23" s="40" t="s">
         <v>210</v>
       </c>
       <c r="Y23" s="1" t="s">
@@ -6343,67 +6355,67 @@
       </c>
     </row>
     <row r="24" spans="2:25" s="30" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="45" t="s">
+      <c r="B24" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="D24" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="E24" s="45" t="s">
+      <c r="C24" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="D24" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="E24" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="F24" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="G24" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="H24" s="45" t="s">
+      <c r="F24" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="G24" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="H24" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="I24" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="J24" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="K24" s="45" t="s">
+      <c r="I24" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="J24" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="K24" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="L24" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="M24" s="46" t="s">
+      <c r="L24" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="M24" s="40" t="s">
         <v>230</v>
       </c>
-      <c r="N24" s="45" t="s">
+      <c r="N24" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="O24" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="P24" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q24" s="45" t="s">
+      <c r="O24" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="P24" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q24" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="R24" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="S24" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="T24" s="45" t="s">
+      <c r="R24" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="S24" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="T24" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="U24" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="V24" s="46" t="s">
+      <c r="U24" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="V24" s="40" t="s">
         <v>230</v>
       </c>
       <c r="Y24" s="1" t="s">
@@ -6411,67 +6423,67 @@
       </c>
     </row>
     <row r="25" spans="2:25" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="45" t="s">
+      <c r="B25" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="45" t="s">
+      <c r="C25" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="D25" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="E25" s="45" t="s">
+      <c r="D25" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="E25" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="F25" s="45" t="s">
+      <c r="F25" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="G25" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="H25" s="45" t="s">
+      <c r="G25" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="H25" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="45" t="s">
+      <c r="I25" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="J25" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="K25" s="45" t="s">
+      <c r="J25" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="K25" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="L25" s="45" t="s">
+      <c r="L25" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="M25" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="N25" s="45" t="s">
+      <c r="M25" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="N25" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="O25" s="45" t="s">
+      <c r="O25" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="P25" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q25" s="45" t="s">
+      <c r="P25" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q25" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="R25" s="45" t="s">
+      <c r="R25" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="S25" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="T25" s="47" t="s">
+      <c r="S25" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="T25" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="U25" s="45" t="s">
+      <c r="U25" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="V25" s="46" t="s">
+      <c r="V25" s="40" t="s">
         <v>210</v>
       </c>
       <c r="Y25" s="24" t="s">
@@ -6479,67 +6491,67 @@
       </c>
     </row>
     <row r="26" spans="2:25" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="45" t="s">
+      <c r="B26" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="45" t="s">
+      <c r="C26" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="D26" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="E26" s="45" t="s">
+      <c r="D26" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="E26" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="45" t="s">
+      <c r="F26" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="G26" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="H26" s="45" t="s">
+      <c r="G26" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="H26" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="45" t="s">
+      <c r="I26" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="J26" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="K26" s="45" t="s">
+      <c r="J26" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="K26" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="L26" s="45" t="s">
+      <c r="L26" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="M26" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="N26" s="45" t="s">
+      <c r="M26" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="N26" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="O26" s="45" t="s">
+      <c r="O26" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="P26" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q26" s="45" t="s">
+      <c r="P26" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q26" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="R26" s="45" t="s">
+      <c r="R26" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="S26" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="T26" s="45" t="s">
+      <c r="S26" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="T26" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="U26" s="45" t="s">
+      <c r="U26" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="V26" s="46" t="s">
+      <c r="V26" s="40" t="s">
         <v>210</v>
       </c>
       <c r="Y26" s="26" t="s">
@@ -6547,67 +6559,67 @@
       </c>
     </row>
     <row r="27" spans="2:25" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="45" t="s">
+      <c r="B27" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="45" t="s">
+      <c r="C27" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="D27" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="E27" s="45" t="s">
+      <c r="D27" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="E27" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="F27" s="45" t="s">
+      <c r="F27" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="G27" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="H27" s="45" t="s">
+      <c r="G27" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="H27" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="I27" s="45" t="s">
+      <c r="I27" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="J27" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="K27" s="45" t="s">
+      <c r="J27" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="K27" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="L27" s="45" t="s">
+      <c r="L27" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="M27" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="N27" s="45" t="s">
+      <c r="M27" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="N27" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="O27" s="45" t="s">
+      <c r="O27" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="P27" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q27" s="45" t="s">
+      <c r="P27" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q27" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="R27" s="45" t="s">
+      <c r="R27" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="S27" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="T27" s="45" t="s">
+      <c r="S27" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="T27" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="U27" s="45" t="s">
+      <c r="U27" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="V27" s="46" t="s">
+      <c r="V27" s="40" t="s">
         <v>210</v>
       </c>
       <c r="Y27" s="25" t="s">
@@ -6615,67 +6627,67 @@
       </c>
     </row>
     <row r="28" spans="2:25" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="45" t="s">
+      <c r="B28" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="45" t="s">
+      <c r="C28" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="D28" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="E28" s="45" t="s">
+      <c r="D28" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="E28" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="F28" s="45" t="s">
+      <c r="F28" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="G28" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="H28" s="45" t="s">
+      <c r="G28" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="H28" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="I28" s="45" t="s">
+      <c r="I28" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="J28" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="K28" s="45" t="s">
+      <c r="J28" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="K28" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="L28" s="45" t="s">
+      <c r="L28" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="M28" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="N28" s="45" t="s">
+      <c r="M28" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="N28" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="O28" s="45" t="s">
+      <c r="O28" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="P28" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q28" s="45" t="s">
+      <c r="P28" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q28" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="R28" s="45" t="s">
+      <c r="R28" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="S28" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="T28" s="45" t="s">
+      <c r="S28" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="T28" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="U28" s="45" t="s">
+      <c r="U28" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="V28" s="46" t="s">
+      <c r="V28" s="40" t="s">
         <v>210</v>
       </c>
       <c r="Y28" s="25" t="s">
@@ -6683,199 +6695,199 @@
       </c>
     </row>
     <row r="29" spans="2:25" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="45" t="s">
+      <c r="B29" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="45" t="s">
+      <c r="C29" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="D29" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="E29" s="45" t="s">
+      <c r="D29" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="E29" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="F29" s="45" t="s">
+      <c r="F29" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="G29" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="H29" s="45" t="s">
+      <c r="G29" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="H29" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="I29" s="45" t="s">
+      <c r="I29" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="J29" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="K29" s="45" t="s">
+      <c r="J29" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="K29" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="L29" s="45" t="s">
+      <c r="L29" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="M29" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="N29" s="45" t="s">
+      <c r="M29" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="N29" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="O29" s="45" t="s">
+      <c r="O29" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="P29" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q29" s="45" t="s">
+      <c r="P29" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q29" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="R29" s="45" t="s">
+      <c r="R29" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="S29" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="T29" s="45" t="s">
+      <c r="S29" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="T29" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="U29" s="45" t="s">
+      <c r="U29" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="V29" s="46" t="s">
+      <c r="V29" s="40" t="s">
         <v>210</v>
       </c>
       <c r="Y29" s="25"/>
     </row>
     <row r="30" spans="2:25" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="45" t="s">
+      <c r="B30" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="45" t="s">
+      <c r="C30" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="D30" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="E30" s="45" t="s">
+      <c r="D30" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="E30" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="F30" s="45" t="s">
+      <c r="F30" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="G30" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="H30" s="45" t="s">
+      <c r="G30" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="H30" s="39" t="s">
         <v>243</v>
       </c>
-      <c r="I30" s="45" t="s">
+      <c r="I30" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="J30" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="K30" s="45" t="s">
+      <c r="J30" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="K30" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="L30" s="45" t="s">
+      <c r="L30" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="M30" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="N30" s="45" t="s">
+      <c r="M30" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="N30" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="O30" s="45" t="s">
+      <c r="O30" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="P30" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q30" s="45" t="s">
+      <c r="P30" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q30" s="39" t="s">
         <v>244</v>
       </c>
-      <c r="R30" s="45" t="s">
+      <c r="R30" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="S30" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="T30" s="45" t="s">
+      <c r="S30" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="T30" s="39" t="s">
         <v>244</v>
       </c>
-      <c r="U30" s="45" t="s">
+      <c r="U30" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="V30" s="46" t="s">
+      <c r="V30" s="40" t="s">
         <v>210</v>
       </c>
       <c r="Y30" s="25"/>
     </row>
     <row r="31" spans="2:25" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="45" t="s">
+      <c r="B31" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="C31" s="45" t="s">
+      <c r="C31" s="39" t="s">
         <v>203</v>
       </c>
-      <c r="D31" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="E31" s="47" t="s">
+      <c r="D31" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="E31" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="F31" s="45" t="s">
+      <c r="F31" s="39" t="s">
         <v>203</v>
       </c>
-      <c r="G31" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="H31" s="45" t="s">
+      <c r="G31" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="H31" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="I31" s="45" t="s">
+      <c r="I31" s="39" t="s">
         <v>203</v>
       </c>
-      <c r="J31" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="K31" s="47" t="s">
+      <c r="J31" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="K31" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="L31" s="45" t="s">
+      <c r="L31" s="39" t="s">
         <v>203</v>
       </c>
-      <c r="M31" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="N31" s="45" t="s">
+      <c r="M31" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="N31" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="O31" s="45" t="s">
+      <c r="O31" s="39" t="s">
         <v>203</v>
       </c>
-      <c r="P31" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q31" s="47" t="s">
+      <c r="P31" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q31" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="R31" s="45" t="s">
+      <c r="R31" s="39" t="s">
         <v>203</v>
       </c>
-      <c r="S31" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="T31" s="45" t="s">
+      <c r="S31" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="T31" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="U31" s="45" t="s">
+      <c r="U31" s="39" t="s">
         <v>203</v>
       </c>
-      <c r="V31" s="46" t="s">
+      <c r="V31" s="40" t="s">
         <v>210</v>
       </c>
       <c r="Y31" s="24" t="s">
@@ -6883,67 +6895,67 @@
       </c>
     </row>
     <row r="32" spans="2:25" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="45" t="s">
+      <c r="B32" s="39" t="s">
         <v>246</v>
       </c>
-      <c r="C32" s="45" t="s">
+      <c r="C32" s="39" t="s">
         <v>203</v>
       </c>
-      <c r="D32" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="E32" s="45" t="s">
+      <c r="D32" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="E32" s="39" t="s">
         <v>249</v>
       </c>
-      <c r="F32" s="45" t="s">
+      <c r="F32" s="39" t="s">
         <v>203</v>
       </c>
-      <c r="G32" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="H32" s="45" t="s">
+      <c r="G32" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="H32" s="39" t="s">
         <v>246</v>
       </c>
-      <c r="I32" s="45" t="s">
+      <c r="I32" s="39" t="s">
         <v>203</v>
       </c>
-      <c r="J32" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="K32" s="45" t="s">
+      <c r="J32" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="K32" s="39" t="s">
         <v>249</v>
       </c>
-      <c r="L32" s="45" t="s">
+      <c r="L32" s="39" t="s">
         <v>203</v>
       </c>
-      <c r="M32" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="N32" s="45" t="s">
+      <c r="M32" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="N32" s="39" t="s">
         <v>246</v>
       </c>
-      <c r="O32" s="45" t="s">
+      <c r="O32" s="39" t="s">
         <v>203</v>
       </c>
-      <c r="P32" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q32" s="45" t="s">
+      <c r="P32" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q32" s="39" t="s">
         <v>249</v>
       </c>
-      <c r="R32" s="45" t="s">
+      <c r="R32" s="39" t="s">
         <v>203</v>
       </c>
-      <c r="S32" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="T32" s="45" t="s">
+      <c r="S32" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="T32" s="39" t="s">
         <v>246</v>
       </c>
-      <c r="U32" s="45" t="s">
+      <c r="U32" s="39" t="s">
         <v>203</v>
       </c>
-      <c r="V32" s="46" t="s">
+      <c r="V32" s="40" t="s">
         <v>210</v>
       </c>
       <c r="Y32" s="26" t="s">
@@ -6951,67 +6963,67 @@
       </c>
     </row>
     <row r="33" spans="2:25" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="45" t="s">
+      <c r="B33" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="C33" s="45" t="s">
+      <c r="C33" s="39" t="s">
         <v>203</v>
       </c>
-      <c r="D33" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="E33" s="45" t="s">
+      <c r="D33" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="E33" s="39" t="s">
         <v>248</v>
       </c>
-      <c r="F33" s="45" t="s">
+      <c r="F33" s="39" t="s">
         <v>203</v>
       </c>
-      <c r="G33" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="H33" s="45" t="s">
+      <c r="G33" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="H33" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="I33" s="45" t="s">
+      <c r="I33" s="39" t="s">
         <v>203</v>
       </c>
-      <c r="J33" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="K33" s="45" t="s">
+      <c r="J33" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="K33" s="39" t="s">
         <v>250</v>
       </c>
-      <c r="L33" s="45" t="s">
+      <c r="L33" s="39" t="s">
         <v>203</v>
       </c>
-      <c r="M33" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="N33" s="45" t="s">
+      <c r="M33" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="N33" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="O33" s="45" t="s">
+      <c r="O33" s="39" t="s">
         <v>203</v>
       </c>
-      <c r="P33" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q33" s="45" t="s">
+      <c r="P33" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q33" s="39" t="s">
         <v>248</v>
       </c>
-      <c r="R33" s="45" t="s">
+      <c r="R33" s="39" t="s">
         <v>203</v>
       </c>
-      <c r="S33" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="T33" s="45" t="s">
+      <c r="S33" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="T33" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="U33" s="45" t="s">
+      <c r="U33" s="39" t="s">
         <v>203</v>
       </c>
-      <c r="V33" s="46" t="s">
+      <c r="V33" s="40" t="s">
         <v>210</v>
       </c>
       <c r="Y33" s="25" t="s">
@@ -7019,67 +7031,67 @@
       </c>
     </row>
     <row r="34" spans="2:25" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="45" t="s">
+      <c r="B34" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="C34" s="45" t="s">
+      <c r="C34" s="39" t="s">
         <v>204</v>
       </c>
-      <c r="D34" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="E34" s="45" t="s">
+      <c r="D34" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="E34" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="F34" s="45" t="s">
+      <c r="F34" s="39" t="s">
         <v>204</v>
       </c>
-      <c r="G34" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="H34" s="45" t="s">
+      <c r="G34" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="H34" s="39" t="s">
         <v>262</v>
       </c>
-      <c r="I34" s="45" t="s">
+      <c r="I34" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="J34" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="K34" s="45" t="s">
+      <c r="J34" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="K34" s="39" t="s">
         <v>261</v>
       </c>
-      <c r="L34" s="45" t="s">
+      <c r="L34" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="M34" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="N34" s="45" t="s">
+      <c r="M34" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="N34" s="39" t="s">
         <v>253</v>
       </c>
-      <c r="O34" s="45" t="s">
+      <c r="O34" s="39" t="s">
         <v>204</v>
       </c>
-      <c r="P34" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q34" s="45" t="s">
+      <c r="P34" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q34" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="R34" s="45" t="s">
+      <c r="R34" s="39" t="s">
         <v>204</v>
       </c>
-      <c r="S34" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="T34" s="45" t="s">
+      <c r="S34" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="T34" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="U34" s="45" t="s">
+      <c r="U34" s="39" t="s">
         <v>204</v>
       </c>
-      <c r="V34" s="46" t="s">
+      <c r="V34" s="40" t="s">
         <v>210</v>
       </c>
       <c r="Y34" s="25" t="s">
@@ -7087,67 +7099,67 @@
       </c>
     </row>
     <row r="35" spans="2:25" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="45" t="s">
+      <c r="B35" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="C35" s="45" t="s">
+      <c r="C35" s="39" t="s">
         <v>204</v>
       </c>
-      <c r="D35" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="E35" s="45" t="s">
+      <c r="D35" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="E35" s="39" t="s">
         <v>263</v>
       </c>
-      <c r="F35" s="45" t="s">
+      <c r="F35" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="G35" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="H35" s="45" t="s">
+      <c r="G35" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="H35" s="39" t="s">
         <v>264</v>
       </c>
-      <c r="I35" s="45" t="s">
+      <c r="I35" s="39" t="s">
         <v>204</v>
       </c>
-      <c r="J35" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="K35" s="45" t="s">
+      <c r="J35" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="K35" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="L35" s="45" t="s">
+      <c r="L35" s="39" t="s">
         <v>204</v>
       </c>
-      <c r="M35" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="N35" s="45" t="s">
+      <c r="M35" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="N35" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="O35" s="45" t="s">
+      <c r="O35" s="39" t="s">
         <v>204</v>
       </c>
-      <c r="P35" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q35" s="45" t="s">
+      <c r="P35" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q35" s="39" t="s">
         <v>254</v>
       </c>
-      <c r="R35" s="45" t="s">
+      <c r="R35" s="39" t="s">
         <v>204</v>
       </c>
-      <c r="S35" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="T35" s="45" t="s">
+      <c r="S35" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="T35" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="U35" s="45" t="s">
+      <c r="U35" s="39" t="s">
         <v>204</v>
       </c>
-      <c r="V35" s="46" t="s">
+      <c r="V35" s="40" t="s">
         <v>210</v>
       </c>
       <c r="Y35" s="24" t="s">
@@ -7155,67 +7167,67 @@
       </c>
     </row>
     <row r="36" spans="2:25" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="45" t="s">
+      <c r="B36" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="45" t="s">
+      <c r="C36" s="39" t="s">
         <v>204</v>
       </c>
-      <c r="D36" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="E36" s="45" t="s">
+      <c r="D36" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="E36" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="F36" s="45" t="s">
+      <c r="F36" s="39" t="s">
         <v>204</v>
       </c>
-      <c r="G36" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="H36" s="45" t="s">
+      <c r="G36" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="H36" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="I36" s="45" t="s">
+      <c r="I36" s="39" t="s">
         <v>204</v>
       </c>
-      <c r="J36" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="K36" s="45" t="s">
+      <c r="J36" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="K36" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="L36" s="45" t="s">
+      <c r="L36" s="39" t="s">
         <v>204</v>
       </c>
-      <c r="M36" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="N36" s="45" t="s">
+      <c r="M36" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="N36" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="O36" s="45" t="s">
+      <c r="O36" s="39" t="s">
         <v>204</v>
       </c>
-      <c r="P36" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q36" s="45" t="s">
+      <c r="P36" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q36" s="39" t="s">
         <v>265</v>
       </c>
-      <c r="R36" s="45" t="s">
+      <c r="R36" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="S36" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="T36" s="45" t="s">
+      <c r="S36" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="T36" s="39" t="s">
         <v>255</v>
       </c>
-      <c r="U36" s="45" t="s">
+      <c r="U36" s="39" t="s">
         <v>204</v>
       </c>
-      <c r="V36" s="46" t="s">
+      <c r="V36" s="40" t="s">
         <v>210</v>
       </c>
       <c r="Y36" s="25" t="s">
@@ -7223,67 +7235,67 @@
       </c>
     </row>
     <row r="37" spans="2:25" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="57" t="s">
+      <c r="B37" s="42" t="s">
         <v>351</v>
       </c>
-      <c r="C37" s="45" t="s">
+      <c r="C37" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="D37" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="E37" s="57" t="s">
+      <c r="D37" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="E37" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="F37" s="45" t="s">
+      <c r="F37" s="39" t="s">
         <v>204</v>
       </c>
-      <c r="G37" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="H37" s="57" t="s">
+      <c r="G37" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="H37" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="I37" s="58" t="s">
+      <c r="I37" s="43" t="s">
         <v>204</v>
       </c>
-      <c r="J37" s="59" t="s">
-        <v>210</v>
-      </c>
-      <c r="K37" s="57" t="s">
+      <c r="J37" s="44" t="s">
+        <v>210</v>
+      </c>
+      <c r="K37" s="42" t="s">
         <v>355</v>
       </c>
-      <c r="L37" s="45" t="s">
+      <c r="L37" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="M37" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="N37" s="57" t="s">
+      <c r="M37" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="N37" s="42" t="s">
         <v>354</v>
       </c>
-      <c r="O37" s="45" t="s">
+      <c r="O37" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="P37" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q37" s="57" t="s">
+      <c r="P37" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q37" s="42" t="s">
         <v>353</v>
       </c>
-      <c r="R37" s="45" t="s">
+      <c r="R37" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="S37" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="T37" s="57" t="s">
+      <c r="S37" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="T37" s="42" t="s">
         <v>352</v>
       </c>
-      <c r="U37" s="45" t="s">
+      <c r="U37" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="V37" s="46" t="s">
+      <c r="V37" s="40" t="s">
         <v>210</v>
       </c>
       <c r="Y37" s="26" t="s">
@@ -7291,133 +7303,133 @@
       </c>
     </row>
     <row r="38" spans="2:25" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="57" t="s">
+      <c r="B38" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="C38" s="57" t="s">
+      <c r="C38" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="D38" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="E38" s="57" t="s">
+      <c r="D38" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="E38" s="42" t="s">
         <v>266</v>
       </c>
-      <c r="F38" s="57" t="s">
+      <c r="F38" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="G38" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="H38" s="57" t="s">
+      <c r="G38" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="H38" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="I38" s="57" t="s">
+      <c r="I38" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="J38" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="K38" s="57" t="s">
+      <c r="J38" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="K38" s="42" t="s">
         <v>266</v>
       </c>
-      <c r="L38" s="57" t="s">
+      <c r="L38" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="M38" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="N38" s="57" t="s">
+      <c r="M38" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="N38" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="O38" s="57" t="s">
+      <c r="O38" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="P38" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q38" s="57" t="s">
+      <c r="P38" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q38" s="42" t="s">
         <v>266</v>
       </c>
-      <c r="R38" s="57" t="s">
+      <c r="R38" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="S38" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="T38" s="57" t="s">
+      <c r="S38" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="T38" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="U38" s="57" t="s">
+      <c r="U38" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="V38" s="46" t="s">
+      <c r="V38" s="40" t="s">
         <v>210</v>
       </c>
       <c r="Y38" s="26"/>
     </row>
     <row r="39" spans="2:25" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="45" t="s">
+      <c r="B39" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="C39" s="57" t="s">
+      <c r="C39" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="D39" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="E39" s="45" t="s">
+      <c r="D39" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="E39" s="39" t="s">
         <v>267</v>
       </c>
-      <c r="F39" s="57" t="s">
+      <c r="F39" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="G39" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="H39" s="45" t="s">
+      <c r="G39" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="H39" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="I39" s="57" t="s">
+      <c r="I39" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="J39" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="K39" s="45" t="s">
+      <c r="J39" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="K39" s="39" t="s">
         <v>267</v>
       </c>
-      <c r="L39" s="57" t="s">
+      <c r="L39" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="M39" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="N39" s="45" t="s">
+      <c r="M39" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="N39" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="O39" s="57" t="s">
+      <c r="O39" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="P39" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q39" s="45" t="s">
+      <c r="P39" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q39" s="39" t="s">
         <v>267</v>
       </c>
-      <c r="R39" s="57" t="s">
+      <c r="R39" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="S39" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="T39" s="45" t="s">
+      <c r="S39" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="T39" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="U39" s="57" t="s">
+      <c r="U39" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="V39" s="46" t="s">
+      <c r="V39" s="40" t="s">
         <v>210</v>
       </c>
       <c r="Y39" s="26" t="s">
@@ -7425,67 +7437,67 @@
       </c>
     </row>
     <row r="40" spans="2:25" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="45" t="s">
+      <c r="B40" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="C40" s="57" t="s">
+      <c r="C40" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="D40" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="E40" s="45" t="s">
+      <c r="D40" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="E40" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="F40" s="57" t="s">
+      <c r="F40" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="G40" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="H40" s="45" t="s">
+      <c r="G40" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="H40" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="I40" s="57" t="s">
+      <c r="I40" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="J40" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="K40" s="45" t="s">
+      <c r="J40" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="K40" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="L40" s="57" t="s">
+      <c r="L40" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="M40" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="N40" s="45" t="s">
+      <c r="M40" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="N40" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="O40" s="57" t="s">
+      <c r="O40" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="P40" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q40" s="45" t="s">
+      <c r="P40" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q40" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="R40" s="57" t="s">
+      <c r="R40" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="S40" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="T40" s="45" t="s">
+      <c r="S40" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="T40" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="U40" s="57" t="s">
+      <c r="U40" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="V40" s="46" t="s">
+      <c r="V40" s="40" t="s">
         <v>210</v>
       </c>
       <c r="Y40" s="26" t="s">
@@ -10637,8 +10649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8471A23D-5A87-3143-B749-B5FC9B0305BF}">
   <dimension ref="A1:V797"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:V63"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="I68" sqref="I68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -10720,41 +10732,41 @@
       <c r="V2" s="8"/>
     </row>
     <row r="3" spans="2:22" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="51" t="s">
         <v>189</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="54" t="s">
+      <c r="C3" s="52"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="51" t="s">
         <v>190</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="54" t="s">
+      <c r="F3" s="52"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="51" t="s">
         <v>191</v>
       </c>
-      <c r="I3" s="55"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="54" t="s">
+      <c r="I3" s="52"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="51" t="s">
         <v>192</v>
       </c>
-      <c r="L3" s="55"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="54" t="s">
+      <c r="L3" s="52"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="51" t="s">
         <v>193</v>
       </c>
-      <c r="O3" s="55"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="54" t="s">
+      <c r="O3" s="52"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="51" t="s">
         <v>194</v>
       </c>
-      <c r="R3" s="55"/>
-      <c r="S3" s="56"/>
-      <c r="T3" s="54" t="s">
+      <c r="R3" s="52"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="U3" s="55"/>
-      <c r="V3" s="56"/>
+      <c r="U3" s="52"/>
+      <c r="V3" s="53"/>
     </row>
     <row r="4" spans="2:22" s="9" customFormat="1" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
@@ -10822,13 +10834,13 @@
       </c>
     </row>
     <row r="5" spans="2:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="39" t="s">
         <v>226</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="D5" s="38"/>
+      <c r="D5" s="40"/>
       <c r="E5" s="29" t="s">
         <v>226</v>
       </c>
@@ -10873,13 +10885,13 @@
       <c r="V5" s="38"/>
     </row>
     <row r="6" spans="2:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="39" t="s">
         <v>331</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="D6" s="38"/>
+      <c r="D6" s="40"/>
       <c r="E6" s="29" t="s">
         <v>331</v>
       </c>
@@ -10924,7 +10936,7 @@
       <c r="V6" s="38"/>
     </row>
     <row r="7" spans="2:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="39" t="s">
         <v>275</v>
       </c>
       <c r="C7" s="29" t="s">
@@ -10989,7 +11001,7 @@
       </c>
     </row>
     <row r="8" spans="2:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="39" t="s">
         <v>345</v>
       </c>
       <c r="C8" s="29" t="s">
@@ -11054,7 +11066,7 @@
       </c>
     </row>
     <row r="9" spans="2:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="39" t="s">
         <v>269</v>
       </c>
       <c r="C9" s="29" t="s">
@@ -11119,7 +11131,7 @@
       </c>
     </row>
     <row r="10" spans="2:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="39" t="s">
         <v>341</v>
       </c>
       <c r="C10" s="29" t="s">
@@ -11184,7 +11196,7 @@
       </c>
     </row>
     <row r="11" spans="2:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="39" t="s">
         <v>343</v>
       </c>
       <c r="C11" s="29" t="s">
@@ -11249,7 +11261,7 @@
       </c>
     </row>
     <row r="12" spans="2:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="39" t="s">
         <v>357</v>
       </c>
       <c r="C12" s="29" t="s">
@@ -11314,7 +11326,7 @@
       </c>
     </row>
     <row r="13" spans="2:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="39" t="s">
         <v>344</v>
       </c>
       <c r="C13" s="29" t="s">
@@ -11381,7 +11393,7 @@
     <row r="14" spans="2:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="8"/>
+      <c r="D14" s="54"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="8"/>
@@ -11473,41 +11485,41 @@
       <c r="V17" s="8"/>
     </row>
     <row r="18" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="48" t="s">
         <v>189</v>
       </c>
-      <c r="C18" s="52"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="51" t="s">
+      <c r="C18" s="49"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="F18" s="52"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="51" t="s">
+      <c r="F18" s="49"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="48" t="s">
         <v>191</v>
       </c>
-      <c r="I18" s="52"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="51" t="s">
+      <c r="I18" s="49"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="L18" s="52"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="51" t="s">
+      <c r="L18" s="49"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="48" t="s">
         <v>193</v>
       </c>
-      <c r="O18" s="52"/>
-      <c r="P18" s="53"/>
-      <c r="Q18" s="51" t="s">
+      <c r="O18" s="49"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="R18" s="52"/>
-      <c r="S18" s="53"/>
-      <c r="T18" s="51" t="s">
+      <c r="R18" s="49"/>
+      <c r="S18" s="50"/>
+      <c r="T18" s="48" t="s">
         <v>196</v>
       </c>
-      <c r="U18" s="52"/>
-      <c r="V18" s="53"/>
+      <c r="U18" s="49"/>
+      <c r="V18" s="50"/>
     </row>
     <row r="19" spans="1:22" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
@@ -11575,2841 +11587,2841 @@
       </c>
     </row>
     <row r="20" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="55" t="s">
         <v>342</v>
       </c>
-      <c r="C20" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="D20" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="E20" s="29" t="s">
+      <c r="C20" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="D20" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="E20" s="55" t="s">
         <v>342</v>
       </c>
-      <c r="F20" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="G20" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="H20" s="29" t="s">
+      <c r="F20" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="G20" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="H20" s="55" t="s">
         <v>342</v>
       </c>
-      <c r="I20" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="J20" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="K20" s="29" t="s">
+      <c r="I20" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="J20" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="K20" s="55" t="s">
         <v>342</v>
       </c>
-      <c r="L20" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="M20" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="N20" s="29" t="s">
+      <c r="L20" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="M20" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="N20" s="55" t="s">
         <v>342</v>
       </c>
-      <c r="O20" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="P20" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q20" s="29" t="s">
+      <c r="O20" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="P20" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q20" s="55" t="s">
         <v>342</v>
       </c>
-      <c r="R20" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="S20" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="T20" s="29" t="s">
+      <c r="R20" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="S20" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="T20" s="55" t="s">
         <v>342</v>
       </c>
-      <c r="U20" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="V20" s="38" t="s">
+      <c r="U20" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="V20" s="58" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="55" t="s">
         <v>333</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="55" t="s">
         <v>197</v>
       </c>
-      <c r="D21" s="38"/>
-      <c r="E21" s="29" t="s">
+      <c r="D21" s="58"/>
+      <c r="E21" s="55" t="s">
         <v>333</v>
       </c>
-      <c r="F21" s="29" t="s">
+      <c r="F21" s="55" t="s">
         <v>197</v>
       </c>
-      <c r="G21" s="38"/>
-      <c r="H21" s="29" t="s">
+      <c r="G21" s="58"/>
+      <c r="H21" s="55" t="s">
         <v>333</v>
       </c>
-      <c r="I21" s="29" t="s">
+      <c r="I21" s="55" t="s">
         <v>197</v>
       </c>
-      <c r="J21" s="38"/>
-      <c r="K21" s="29" t="s">
+      <c r="J21" s="58"/>
+      <c r="K21" s="55" t="s">
         <v>333</v>
       </c>
-      <c r="L21" s="29" t="s">
+      <c r="L21" s="55" t="s">
         <v>197</v>
       </c>
-      <c r="M21" s="38"/>
-      <c r="N21" s="29" t="s">
+      <c r="M21" s="58"/>
+      <c r="N21" s="55" t="s">
         <v>333</v>
       </c>
-      <c r="O21" s="29" t="s">
+      <c r="O21" s="55" t="s">
         <v>197</v>
       </c>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="29" t="s">
+      <c r="P21" s="58"/>
+      <c r="Q21" s="55" t="s">
         <v>333</v>
       </c>
-      <c r="R21" s="29" t="s">
+      <c r="R21" s="55" t="s">
         <v>197</v>
       </c>
-      <c r="S21" s="38"/>
-      <c r="T21" s="29" t="s">
+      <c r="S21" s="58"/>
+      <c r="T21" s="55" t="s">
         <v>333</v>
       </c>
-      <c r="U21" s="29" t="s">
+      <c r="U21" s="55" t="s">
         <v>197</v>
       </c>
-      <c r="V21" s="38"/>
+      <c r="V21" s="58"/>
     </row>
     <row r="22" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="34"/>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="55" t="s">
         <v>301</v>
       </c>
-      <c r="C22" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="D22" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="E22" s="29" t="s">
+      <c r="C22" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="D22" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="E22" s="55" t="s">
         <v>301</v>
       </c>
-      <c r="F22" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="G22" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="H22" s="29" t="s">
+      <c r="F22" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="G22" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="H22" s="55" t="s">
         <v>301</v>
       </c>
-      <c r="I22" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="J22" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="K22" s="29" t="s">
+      <c r="I22" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="J22" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="K22" s="55" t="s">
         <v>301</v>
       </c>
-      <c r="L22" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="M22" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="N22" s="29" t="s">
+      <c r="L22" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="M22" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="N22" s="55" t="s">
         <v>301</v>
       </c>
-      <c r="O22" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="P22" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q22" s="29" t="s">
+      <c r="O22" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="P22" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q22" s="55" t="s">
         <v>301</v>
       </c>
-      <c r="R22" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="S22" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="T22" s="29" t="s">
+      <c r="R22" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="S22" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="T22" s="55" t="s">
         <v>301</v>
       </c>
-      <c r="U22" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="V22" s="38" t="s">
+      <c r="U22" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="V22" s="58" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="55" t="s">
         <v>306</v>
       </c>
-      <c r="C23" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="D23" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="E23" s="29" t="s">
+      <c r="C23" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="D23" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="E23" s="55" t="s">
         <v>307</v>
       </c>
-      <c r="F23" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="G23" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="H23" s="29" t="s">
+      <c r="F23" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="G23" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="H23" s="55" t="s">
         <v>401</v>
       </c>
-      <c r="I23" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="J23" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="K23" s="29" t="s">
+      <c r="I23" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="J23" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="K23" s="55" t="s">
         <v>306</v>
       </c>
-      <c r="L23" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="M23" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="N23" s="29" t="s">
+      <c r="L23" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="M23" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="N23" s="55" t="s">
         <v>307</v>
       </c>
-      <c r="O23" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="P23" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q23" s="29" t="s">
+      <c r="O23" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="P23" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q23" s="55" t="s">
         <v>401</v>
       </c>
-      <c r="R23" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="S23" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="T23" s="29" t="s">
+      <c r="R23" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="S23" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="T23" s="55" t="s">
         <v>306</v>
       </c>
-      <c r="U23" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="V23" s="38" t="s">
+      <c r="U23" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="V23" s="58" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="34"/>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="C24" s="39" t="s">
+      <c r="C24" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="D24" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="E24" s="29" t="s">
+      <c r="D24" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="E24" s="55" t="s">
         <v>159</v>
       </c>
-      <c r="F24" s="39" t="s">
+      <c r="F24" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="G24" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="H24" s="29" t="s">
+      <c r="G24" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="H24" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="I24" s="29" t="s">
+      <c r="I24" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="J24" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="K24" s="29" t="s">
+      <c r="J24" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="K24" s="55" t="s">
         <v>159</v>
       </c>
-      <c r="L24" s="39" t="s">
+      <c r="L24" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="M24" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="N24" s="29" t="s">
+      <c r="M24" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="N24" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="O24" s="39" t="s">
+      <c r="O24" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="P24" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q24" s="29" t="s">
+      <c r="P24" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q24" s="55" t="s">
         <v>159</v>
       </c>
-      <c r="R24" s="39" t="s">
+      <c r="R24" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="S24" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="T24" s="29" t="s">
+      <c r="S24" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="T24" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="U24" s="39" t="s">
+      <c r="U24" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="V24" s="38" t="s">
+      <c r="V24" s="58" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
+      <c r="B25" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="C25" s="29" t="s">
+      <c r="C25" s="55" t="s">
         <v>204</v>
       </c>
-      <c r="D25" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="D25" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="E25" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="F25" s="29" t="s">
+      <c r="F25" s="55" t="s">
         <v>204</v>
       </c>
-      <c r="G25" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="H25" s="40" t="s">
+      <c r="G25" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="H25" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="I25" s="29" t="s">
+      <c r="I25" s="55" t="s">
         <v>204</v>
       </c>
-      <c r="J25" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="K25" s="40" t="s">
+      <c r="J25" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="K25" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="L25" s="29" t="s">
+      <c r="L25" s="55" t="s">
         <v>204</v>
       </c>
-      <c r="M25" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="N25" t="s">
+      <c r="M25" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="N25" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="O25" s="29" t="s">
+      <c r="O25" s="55" t="s">
         <v>204</v>
       </c>
-      <c r="P25" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q25" t="s">
+      <c r="P25" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q25" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="R25" s="29" t="s">
+      <c r="R25" s="55" t="s">
         <v>204</v>
       </c>
-      <c r="S25" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="T25" t="s">
+      <c r="S25" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="T25" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="U25" s="29" t="s">
+      <c r="U25" s="55" t="s">
         <v>204</v>
       </c>
-      <c r="V25" s="38" t="s">
+      <c r="V25" s="58" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="55" t="s">
         <v>340</v>
       </c>
-      <c r="C26" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="D26" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="E26" s="29" t="s">
+      <c r="C26" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="D26" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="E26" s="55" t="s">
         <v>340</v>
       </c>
-      <c r="F26" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="G26" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="H26" s="29" t="s">
+      <c r="F26" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="G26" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="H26" s="55" t="s">
         <v>340</v>
       </c>
-      <c r="I26" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="J26" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="K26" s="29" t="s">
+      <c r="I26" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="J26" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="K26" s="55" t="s">
         <v>340</v>
       </c>
-      <c r="L26" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="M26" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="N26" s="29" t="s">
+      <c r="L26" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="M26" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="N26" s="55" t="s">
         <v>340</v>
       </c>
-      <c r="O26" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="P26" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q26" s="29" t="s">
+      <c r="O26" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="P26" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q26" s="55" t="s">
         <v>340</v>
       </c>
-      <c r="R26" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="S26" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="T26" s="29" t="s">
+      <c r="R26" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="S26" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="T26" s="55" t="s">
         <v>340</v>
       </c>
-      <c r="U26" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="V26" s="38" t="s">
+      <c r="U26" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="V26" s="58" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="55" t="s">
         <v>303</v>
       </c>
-      <c r="C27" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="D27" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="E27" s="29" t="s">
+      <c r="C27" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="D27" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="E27" s="55" t="s">
         <v>303</v>
       </c>
-      <c r="F27" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="G27" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="H27" s="29" t="s">
+      <c r="F27" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="G27" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="H27" s="55" t="s">
         <v>303</v>
       </c>
-      <c r="I27" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="J27" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="K27" s="29" t="s">
+      <c r="I27" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="J27" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="K27" s="55" t="s">
         <v>303</v>
       </c>
-      <c r="L27" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="M27" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="N27" s="29" t="s">
+      <c r="L27" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="M27" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="N27" s="55" t="s">
         <v>303</v>
       </c>
-      <c r="O27" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="P27" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q27" s="29" t="s">
+      <c r="O27" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="P27" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q27" s="55" t="s">
         <v>303</v>
       </c>
-      <c r="R27" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="S27" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="T27" s="29" t="s">
+      <c r="R27" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="S27" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="T27" s="55" t="s">
         <v>303</v>
       </c>
-      <c r="U27" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="V27" s="38" t="s">
+      <c r="U27" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="V27" s="58" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="55" t="s">
         <v>400</v>
       </c>
-      <c r="C28" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="D28" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="E28" s="29" t="s">
+      <c r="C28" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="D28" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="E28" s="55" t="s">
         <v>380</v>
       </c>
-      <c r="F28" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="G28" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="H28" s="29" t="s">
+      <c r="F28" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="G28" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="H28" s="55" t="s">
         <v>404</v>
       </c>
-      <c r="I28" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="J28" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="K28" s="29" t="s">
+      <c r="I28" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="J28" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="K28" s="55" t="s">
         <v>400</v>
       </c>
-      <c r="L28" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="M28" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="N28" s="29" t="s">
+      <c r="L28" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="M28" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="N28" s="55" t="s">
         <v>380</v>
       </c>
-      <c r="O28" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="P28" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q28" s="29" t="s">
+      <c r="O28" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="P28" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q28" s="55" t="s">
         <v>404</v>
       </c>
-      <c r="R28" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="S28" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="T28" s="29" t="s">
+      <c r="R28" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="S28" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="T28" s="55" t="s">
         <v>400</v>
       </c>
-      <c r="U28" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="V28" s="38" t="s">
+      <c r="U28" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="V28" s="58" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="39" t="s">
+      <c r="B29" s="56" t="s">
         <v>148</v>
       </c>
-      <c r="C29" s="39" t="s">
+      <c r="C29" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="D29" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="E29" s="39" t="s">
+      <c r="D29" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="E29" s="56" t="s">
         <v>266</v>
       </c>
-      <c r="F29" s="39" t="s">
+      <c r="F29" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="G29" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="H29" s="29" t="s">
+      <c r="G29" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="H29" s="55" t="s">
         <v>148</v>
       </c>
-      <c r="I29" s="29" t="s">
+      <c r="I29" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="J29" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="K29" s="29" t="s">
+      <c r="J29" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="K29" s="55" t="s">
         <v>266</v>
       </c>
-      <c r="L29" s="39" t="s">
+      <c r="L29" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="M29" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="N29" s="39" t="s">
+      <c r="M29" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="N29" s="56" t="s">
         <v>148</v>
       </c>
-      <c r="O29" s="39" t="s">
+      <c r="O29" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="P29" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q29" s="39" t="s">
+      <c r="P29" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q29" s="56" t="s">
         <v>266</v>
       </c>
-      <c r="R29" s="39" t="s">
+      <c r="R29" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="S29" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="T29" s="39" t="s">
+      <c r="S29" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="T29" s="56" t="s">
         <v>148</v>
       </c>
-      <c r="U29" s="39" t="s">
+      <c r="U29" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="V29" s="38" t="s">
+      <c r="V29" s="58" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="29" t="s">
+      <c r="C30" s="55" t="s">
         <v>204</v>
       </c>
-      <c r="D30" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="E30" s="29" t="s">
+      <c r="D30" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="E30" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="F30" s="29" t="s">
+      <c r="F30" s="55" t="s">
         <v>204</v>
       </c>
-      <c r="G30" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="H30" s="29" t="s">
+      <c r="G30" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="H30" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="I30" s="29" t="s">
+      <c r="I30" s="55" t="s">
         <v>204</v>
       </c>
-      <c r="J30" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="K30" s="29" t="s">
+      <c r="J30" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="K30" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="L30" s="29" t="s">
+      <c r="L30" s="55" t="s">
         <v>204</v>
       </c>
-      <c r="M30" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="N30" s="29" t="s">
+      <c r="M30" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="N30" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="O30" s="29" t="s">
+      <c r="O30" s="55" t="s">
         <v>204</v>
       </c>
-      <c r="P30" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q30" s="29" t="s">
+      <c r="P30" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q30" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="R30" s="29" t="s">
+      <c r="R30" s="55" t="s">
         <v>204</v>
       </c>
-      <c r="S30" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="T30" s="29" t="s">
+      <c r="S30" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="T30" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="U30" s="29" t="s">
+      <c r="U30" s="55" t="s">
         <v>204</v>
       </c>
-      <c r="V30" s="38" t="s">
+      <c r="V30" s="58" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="41" t="s">
+      <c r="B31" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="29" t="s">
+      <c r="C31" s="55" t="s">
         <v>202</v>
       </c>
-      <c r="D31" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="E31" s="41" t="s">
+      <c r="D31" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="E31" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="F31" s="29" t="s">
+      <c r="F31" s="55" t="s">
         <v>202</v>
       </c>
-      <c r="G31" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="H31" s="41" t="s">
+      <c r="G31" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="H31" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="I31" s="29" t="s">
+      <c r="I31" s="55" t="s">
         <v>202</v>
       </c>
-      <c r="J31" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="K31" s="41" t="s">
+      <c r="J31" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="K31" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="L31" s="29" t="s">
+      <c r="L31" s="55" t="s">
         <v>202</v>
       </c>
-      <c r="M31" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="N31" s="41" t="s">
+      <c r="M31" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="N31" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="O31" s="29" t="s">
+      <c r="O31" s="55" t="s">
         <v>202</v>
       </c>
-      <c r="P31" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q31" s="41" t="s">
+      <c r="P31" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q31" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="R31" s="29" t="s">
+      <c r="R31" s="55" t="s">
         <v>202</v>
       </c>
-      <c r="S31" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="T31" s="41" t="s">
+      <c r="S31" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="T31" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="U31" s="29" t="s">
+      <c r="U31" s="55" t="s">
         <v>202</v>
       </c>
-      <c r="V31" s="38" t="s">
+      <c r="V31" s="58" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="29" t="s">
+      <c r="B32" s="55" t="s">
         <v>358</v>
       </c>
-      <c r="C32" s="29" t="s">
+      <c r="C32" s="55" t="s">
         <v>199</v>
       </c>
-      <c r="D32" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="E32" s="29" t="s">
+      <c r="D32" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="E32" s="55" t="s">
         <v>358</v>
       </c>
-      <c r="F32" s="29" t="s">
+      <c r="F32" s="55" t="s">
         <v>199</v>
       </c>
-      <c r="G32" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="H32" s="29" t="s">
+      <c r="G32" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="H32" s="55" t="s">
         <v>358</v>
       </c>
-      <c r="I32" s="29" t="s">
+      <c r="I32" s="55" t="s">
         <v>199</v>
       </c>
-      <c r="J32" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="K32" s="29" t="s">
+      <c r="J32" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="K32" s="55" t="s">
         <v>358</v>
       </c>
-      <c r="L32" s="29" t="s">
+      <c r="L32" s="55" t="s">
         <v>199</v>
       </c>
-      <c r="M32" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="N32" s="29" t="s">
+      <c r="M32" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="N32" s="55" t="s">
         <v>358</v>
       </c>
-      <c r="O32" s="29" t="s">
+      <c r="O32" s="55" t="s">
         <v>199</v>
       </c>
-      <c r="P32" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q32" s="29" t="s">
+      <c r="P32" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q32" s="55" t="s">
         <v>358</v>
       </c>
-      <c r="R32" s="29" t="s">
+      <c r="R32" s="55" t="s">
         <v>199</v>
       </c>
-      <c r="S32" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="T32" s="29" t="s">
+      <c r="S32" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="T32" s="55" t="s">
         <v>358</v>
       </c>
-      <c r="U32" s="29" t="s">
+      <c r="U32" s="55" t="s">
         <v>199</v>
       </c>
-      <c r="V32" s="38" t="s">
+      <c r="V32" s="58" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="55" t="s">
         <v>300</v>
       </c>
-      <c r="C33" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="D33" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="E33" s="29" t="s">
+      <c r="C33" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="D33" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="E33" s="55" t="s">
         <v>300</v>
       </c>
-      <c r="F33" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="G33" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="H33" s="29" t="s">
+      <c r="F33" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="G33" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="H33" s="55" t="s">
         <v>300</v>
       </c>
-      <c r="I33" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="J33" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="K33" s="29" t="s">
+      <c r="I33" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="J33" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="K33" s="55" t="s">
         <v>300</v>
       </c>
-      <c r="L33" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="M33" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="N33" s="29" t="s">
+      <c r="L33" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="M33" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="N33" s="55" t="s">
         <v>300</v>
       </c>
-      <c r="O33" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="P33" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q33" s="29" t="s">
+      <c r="O33" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="P33" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q33" s="55" t="s">
         <v>300</v>
       </c>
-      <c r="R33" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="S33" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="T33" s="29" t="s">
+      <c r="R33" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="S33" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="T33" s="55" t="s">
         <v>300</v>
       </c>
-      <c r="U33" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="V33" s="38" t="s">
+      <c r="U33" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="V33" s="58" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="34" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="55" t="s">
         <v>296</v>
       </c>
-      <c r="C34" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="D34" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="E34" s="29" t="s">
+      <c r="C34" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="D34" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="E34" s="55" t="s">
         <v>308</v>
       </c>
-      <c r="F34" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="G34" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="H34" s="29" t="s">
+      <c r="F34" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="G34" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="H34" s="55" t="s">
         <v>304</v>
       </c>
-      <c r="I34" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="J34" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="K34" s="29" t="s">
+      <c r="I34" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="J34" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="K34" s="55" t="s">
         <v>296</v>
       </c>
-      <c r="L34" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="M34" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="N34" s="29" t="s">
+      <c r="L34" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="M34" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="N34" s="55" t="s">
         <v>308</v>
       </c>
-      <c r="O34" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="P34" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q34" s="29" t="s">
+      <c r="O34" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="P34" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q34" s="55" t="s">
         <v>304</v>
       </c>
-      <c r="R34" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="S34" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="T34" s="29" t="s">
+      <c r="R34" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="S34" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="T34" s="55" t="s">
         <v>296</v>
       </c>
-      <c r="U34" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="V34" s="38" t="s">
+      <c r="U34" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="V34" s="58" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="35" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="34"/>
-      <c r="B35" s="39" t="s">
+      <c r="B35" s="56" t="s">
         <v>152</v>
       </c>
-      <c r="C35" s="39" t="s">
+      <c r="C35" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="D35" s="42" t="s">
-        <v>210</v>
-      </c>
-      <c r="E35" s="43" t="s">
+      <c r="D35" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="E35" s="61" t="s">
         <v>153</v>
       </c>
-      <c r="F35" s="39" t="s">
+      <c r="F35" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="G35" s="42" t="s">
-        <v>210</v>
-      </c>
-      <c r="H35" s="29" t="s">
+      <c r="G35" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="H35" s="55" t="s">
         <v>152</v>
       </c>
-      <c r="I35" s="29" t="s">
+      <c r="I35" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="J35" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="K35" s="29" t="s">
+      <c r="J35" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="K35" s="55" t="s">
         <v>153</v>
       </c>
-      <c r="L35" s="39" t="s">
+      <c r="L35" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="M35" s="42" t="s">
-        <v>210</v>
-      </c>
-      <c r="N35" s="39" t="s">
+      <c r="M35" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="N35" s="56" t="s">
         <v>152</v>
       </c>
-      <c r="O35" s="39" t="s">
+      <c r="O35" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="P35" s="42" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q35" s="43" t="s">
+      <c r="P35" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q35" s="61" t="s">
         <v>153</v>
       </c>
-      <c r="R35" s="39" t="s">
+      <c r="R35" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="S35" s="42" t="s">
-        <v>210</v>
-      </c>
-      <c r="T35" s="39" t="s">
+      <c r="S35" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="T35" s="56" t="s">
         <v>152</v>
       </c>
-      <c r="U35" s="39" t="s">
+      <c r="U35" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="V35" s="42" t="s">
+      <c r="V35" s="60" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="41" t="s">
+      <c r="B36" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="29" t="s">
+      <c r="C36" s="55" t="s">
         <v>202</v>
       </c>
-      <c r="D36" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="E36" s="41" t="s">
+      <c r="D36" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="E36" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="F36" s="29" t="s">
+      <c r="F36" s="55" t="s">
         <v>202</v>
       </c>
-      <c r="G36" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="H36" s="41" t="s">
+      <c r="G36" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="H36" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="I36" s="29" t="s">
+      <c r="I36" s="55" t="s">
         <v>202</v>
       </c>
-      <c r="J36" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="K36" s="41" t="s">
+      <c r="J36" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="K36" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="L36" s="29" t="s">
+      <c r="L36" s="55" t="s">
         <v>202</v>
       </c>
-      <c r="M36" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="N36" s="41" t="s">
+      <c r="M36" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="N36" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="O36" s="29" t="s">
+      <c r="O36" s="55" t="s">
         <v>202</v>
       </c>
-      <c r="P36" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q36" s="41" t="s">
+      <c r="P36" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q36" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="R36" s="29" t="s">
+      <c r="R36" s="55" t="s">
         <v>202</v>
       </c>
-      <c r="S36" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="T36" s="41" t="s">
+      <c r="S36" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="T36" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="U36" s="29" t="s">
+      <c r="U36" s="55" t="s">
         <v>202</v>
       </c>
-      <c r="V36" s="38" t="s">
+      <c r="V36" s="58" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="37" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="29" t="s">
+      <c r="B37" s="55" t="s">
         <v>299</v>
       </c>
-      <c r="C37" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="D37" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="E37" s="29" t="s">
+      <c r="C37" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="D37" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="E37" s="55" t="s">
         <v>295</v>
       </c>
-      <c r="F37" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="G37" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="H37" s="29" t="s">
+      <c r="F37" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="G37" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="H37" s="55" t="s">
         <v>298</v>
       </c>
-      <c r="I37" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="J37" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="K37" s="29" t="s">
+      <c r="I37" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="J37" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="K37" s="55" t="s">
         <v>299</v>
       </c>
-      <c r="L37" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="M37" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="N37" s="29" t="s">
+      <c r="L37" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="M37" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="N37" s="55" t="s">
         <v>295</v>
       </c>
-      <c r="O37" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="P37" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q37" s="29" t="s">
+      <c r="O37" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="P37" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q37" s="55" t="s">
         <v>298</v>
       </c>
-      <c r="R37" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="S37" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="T37" s="29" t="s">
+      <c r="R37" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="S37" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="T37" s="55" t="s">
         <v>299</v>
       </c>
-      <c r="U37" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="V37" s="38" t="s">
+      <c r="U37" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="V37" s="58" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="29" t="s">
+      <c r="B38" s="55" t="s">
         <v>302</v>
       </c>
-      <c r="C38" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="D38" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="E38" s="29" t="s">
+      <c r="C38" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="D38" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="E38" s="55" t="s">
         <v>309</v>
       </c>
-      <c r="F38" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="G38" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="H38" s="29" t="s">
+      <c r="F38" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="G38" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="H38" s="55" t="s">
         <v>377</v>
       </c>
-      <c r="I38" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="J38" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="K38" s="29" t="s">
+      <c r="I38" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="J38" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="K38" s="55" t="s">
         <v>302</v>
       </c>
-      <c r="L38" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="M38" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="N38" s="29" t="s">
+      <c r="L38" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="M38" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="N38" s="55" t="s">
         <v>309</v>
       </c>
-      <c r="O38" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="P38" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q38" s="29" t="s">
+      <c r="O38" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="P38" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q38" s="55" t="s">
         <v>377</v>
       </c>
-      <c r="R38" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="S38" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="T38" s="29" t="s">
+      <c r="R38" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="S38" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="T38" s="55" t="s">
         <v>302</v>
       </c>
-      <c r="U38" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="V38" s="38" t="s">
+      <c r="U38" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="V38" s="58" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="39" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="29" t="s">
+      <c r="B39" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="C39" s="29" t="s">
+      <c r="C39" s="55" t="s">
         <v>204</v>
       </c>
-      <c r="D39" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="E39" s="29" t="s">
+      <c r="D39" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="E39" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="F39" s="29" t="s">
+      <c r="F39" s="55" t="s">
         <v>204</v>
       </c>
-      <c r="G39" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="H39" s="29" t="s">
+      <c r="G39" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="H39" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="I39" s="29" t="s">
+      <c r="I39" s="55" t="s">
         <v>204</v>
       </c>
-      <c r="J39" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="K39" s="29" t="s">
+      <c r="J39" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="K39" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="L39" s="29" t="s">
+      <c r="L39" s="55" t="s">
         <v>204</v>
       </c>
-      <c r="M39" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="N39" s="29" t="s">
+      <c r="M39" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="N39" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="O39" s="29" t="s">
+      <c r="O39" s="55" t="s">
         <v>204</v>
       </c>
-      <c r="P39" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q39" s="29" t="s">
+      <c r="P39" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q39" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="R39" s="29" t="s">
+      <c r="R39" s="55" t="s">
         <v>204</v>
       </c>
-      <c r="S39" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="T39" s="29" t="s">
+      <c r="S39" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="T39" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="U39" s="29" t="s">
+      <c r="U39" s="55" t="s">
         <v>204</v>
       </c>
-      <c r="V39" s="38" t="s">
+      <c r="V39" s="58" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="30" t="s">
+      <c r="B40" s="62" t="s">
         <v>334</v>
       </c>
-      <c r="C40" s="29" t="s">
+      <c r="C40" s="55" t="s">
         <v>197</v>
       </c>
-      <c r="D40" s="38"/>
-      <c r="E40" s="30" t="s">
+      <c r="D40" s="58"/>
+      <c r="E40" s="62" t="s">
         <v>334</v>
       </c>
-      <c r="F40" s="29" t="s">
+      <c r="F40" s="55" t="s">
         <v>197</v>
       </c>
-      <c r="G40" s="38"/>
-      <c r="H40" s="30" t="s">
+      <c r="G40" s="58"/>
+      <c r="H40" s="62" t="s">
         <v>334</v>
       </c>
-      <c r="I40" s="29" t="s">
+      <c r="I40" s="55" t="s">
         <v>197</v>
       </c>
-      <c r="J40" s="38"/>
-      <c r="K40" s="30" t="s">
+      <c r="J40" s="58"/>
+      <c r="K40" s="62" t="s">
         <v>334</v>
       </c>
-      <c r="L40" s="29" t="s">
+      <c r="L40" s="55" t="s">
         <v>197</v>
       </c>
-      <c r="M40" s="38"/>
-      <c r="N40" s="30" t="s">
+      <c r="M40" s="58"/>
+      <c r="N40" s="62" t="s">
         <v>334</v>
       </c>
-      <c r="O40" s="29" t="s">
+      <c r="O40" s="55" t="s">
         <v>197</v>
       </c>
-      <c r="P40" s="38"/>
-      <c r="Q40" s="30" t="s">
+      <c r="P40" s="58"/>
+      <c r="Q40" s="62" t="s">
         <v>334</v>
       </c>
-      <c r="R40" s="29" t="s">
+      <c r="R40" s="55" t="s">
         <v>197</v>
       </c>
-      <c r="S40" s="38"/>
-      <c r="T40" s="30" t="s">
+      <c r="S40" s="58"/>
+      <c r="T40" s="62" t="s">
         <v>334</v>
       </c>
-      <c r="U40" s="29" t="s">
+      <c r="U40" s="55" t="s">
         <v>197</v>
       </c>
-      <c r="V40" s="38"/>
+      <c r="V40" s="58"/>
     </row>
     <row r="41" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="29" t="s">
+      <c r="B41" s="55" t="s">
         <v>393</v>
       </c>
-      <c r="C41" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="D41" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="E41" s="29" t="s">
+      <c r="C41" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="D41" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="E41" s="55" t="s">
         <v>393</v>
       </c>
-      <c r="F41" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="G41" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="H41" s="29" t="s">
+      <c r="F41" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="G41" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="H41" s="55" t="s">
         <v>393</v>
       </c>
-      <c r="I41" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="J41" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="K41" s="29" t="s">
+      <c r="I41" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="J41" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="K41" s="55" t="s">
         <v>393</v>
       </c>
-      <c r="L41" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="M41" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="N41" s="29" t="s">
+      <c r="L41" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="M41" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="N41" s="55" t="s">
         <v>393</v>
       </c>
-      <c r="O41" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="P41" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q41" s="29" t="s">
+      <c r="O41" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="P41" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q41" s="55" t="s">
         <v>393</v>
       </c>
-      <c r="R41" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="S41" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="T41" s="29" t="s">
+      <c r="R41" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="S41" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="T41" s="55" t="s">
         <v>393</v>
       </c>
-      <c r="U41" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="V41" s="38" t="s">
+      <c r="U41" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="V41" s="58" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="29" t="s">
+      <c r="B42" s="63" t="s">
         <v>397</v>
       </c>
-      <c r="C42" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="D42" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="E42" s="29" t="s">
+      <c r="C42" s="63" t="s">
+        <v>356</v>
+      </c>
+      <c r="D42" s="65" t="s">
+        <v>210</v>
+      </c>
+      <c r="E42" s="55" t="s">
         <v>403</v>
       </c>
-      <c r="F42" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="G42" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="H42" s="29" t="s">
+      <c r="F42" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="G42" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="H42" s="55" t="s">
         <v>394</v>
       </c>
-      <c r="I42" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="J42" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="K42" s="29" t="s">
+      <c r="I42" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="J42" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="K42" s="63" t="s">
         <v>397</v>
       </c>
-      <c r="L42" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="M42" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="N42" s="29" t="s">
+      <c r="L42" s="63" t="s">
+        <v>356</v>
+      </c>
+      <c r="M42" s="65" t="s">
+        <v>210</v>
+      </c>
+      <c r="N42" s="55" t="s">
         <v>403</v>
       </c>
-      <c r="O42" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="P42" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q42" s="29" t="s">
+      <c r="O42" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="P42" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q42" s="55" t="s">
         <v>394</v>
       </c>
-      <c r="R42" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="S42" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="T42" s="29" t="s">
+      <c r="R42" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="S42" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="T42" s="63" t="s">
         <v>397</v>
       </c>
-      <c r="U42" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="V42" s="38" t="s">
+      <c r="U42" s="63" t="s">
+        <v>356</v>
+      </c>
+      <c r="V42" s="65" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="43" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="29" t="s">
+      <c r="B43" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="C43" s="39" t="s">
+      <c r="C43" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="D43" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="E43" s="29" t="s">
+      <c r="D43" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="E43" s="55" t="s">
         <v>267</v>
       </c>
-      <c r="F43" s="39" t="s">
+      <c r="F43" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="G43" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="H43" s="29" t="s">
+      <c r="G43" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="H43" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="I43" s="29" t="s">
+      <c r="I43" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="J43" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="K43" s="29" t="s">
+      <c r="J43" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="K43" s="55" t="s">
         <v>267</v>
       </c>
-      <c r="L43" s="39" t="s">
+      <c r="L43" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="M43" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="N43" s="29" t="s">
+      <c r="M43" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="N43" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="O43" s="39" t="s">
+      <c r="O43" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="P43" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q43" s="29" t="s">
+      <c r="P43" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q43" s="55" t="s">
         <v>267</v>
       </c>
-      <c r="R43" s="39" t="s">
+      <c r="R43" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="S43" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="T43" s="29" t="s">
+      <c r="S43" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="T43" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="U43" s="39" t="s">
+      <c r="U43" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="V43" s="38" t="s">
+      <c r="V43" s="58" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="44" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="29" t="s">
+      <c r="B44" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="C44" s="29" t="s">
+      <c r="C44" s="55" t="s">
         <v>204</v>
       </c>
-      <c r="D44" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="E44" s="29" t="s">
+      <c r="D44" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="E44" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="F44" s="29" t="s">
+      <c r="F44" s="55" t="s">
         <v>204</v>
       </c>
-      <c r="G44" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="H44" s="29" t="s">
+      <c r="G44" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="H44" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="I44" s="29" t="s">
+      <c r="I44" s="55" t="s">
         <v>204</v>
       </c>
-      <c r="J44" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="K44" s="29" t="s">
+      <c r="J44" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="K44" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="L44" s="29" t="s">
+      <c r="L44" s="55" t="s">
         <v>204</v>
       </c>
-      <c r="M44" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="N44" s="29" t="s">
+      <c r="M44" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="N44" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="O44" s="29" t="s">
+      <c r="O44" s="55" t="s">
         <v>204</v>
       </c>
-      <c r="P44" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q44" s="29" t="s">
+      <c r="P44" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q44" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="R44" s="29" t="s">
+      <c r="R44" s="55" t="s">
         <v>204</v>
       </c>
-      <c r="S44" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="T44" s="29" t="s">
+      <c r="S44" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="T44" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="U44" s="29" t="s">
+      <c r="U44" s="55" t="s">
         <v>204</v>
       </c>
-      <c r="V44" s="38" t="s">
+      <c r="V44" s="58" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="45" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="34"/>
-      <c r="B45" t="s">
+      <c r="B45" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="C45" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="D45" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="E45" t="s">
+      <c r="C45" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="D45" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="E45" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="F45" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="G45" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="H45" t="s">
+      <c r="F45" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="G45" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="H45" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="I45" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="J45" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="K45" t="s">
+      <c r="I45" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="J45" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="K45" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="L45" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="M45" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="N45" t="s">
+      <c r="L45" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="M45" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="N45" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="O45" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="P45" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q45" t="s">
+      <c r="O45" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="P45" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q45" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="R45" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="S45" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="T45" t="s">
+      <c r="R45" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="S45" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="T45" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="U45" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="V45" s="38" t="s">
+      <c r="U45" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="V45" s="58" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="29" t="s">
+      <c r="B46" s="55" t="s">
         <v>297</v>
       </c>
-      <c r="C46" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="D46" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="E46" s="29" t="s">
+      <c r="C46" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="D46" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="E46" s="55" t="s">
         <v>297</v>
       </c>
-      <c r="F46" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="G46" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="H46" s="29" t="s">
+      <c r="F46" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="G46" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="H46" s="55" t="s">
         <v>297</v>
       </c>
-      <c r="I46" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="J46" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="K46" s="29" t="s">
+      <c r="I46" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="J46" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="K46" s="55" t="s">
         <v>297</v>
       </c>
-      <c r="L46" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="M46" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="N46" s="29" t="s">
+      <c r="L46" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="M46" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="N46" s="55" t="s">
         <v>297</v>
       </c>
-      <c r="O46" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="P46" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q46" s="29" t="s">
+      <c r="O46" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="P46" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q46" s="55" t="s">
         <v>297</v>
       </c>
-      <c r="R46" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="S46" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="T46" s="29" t="s">
+      <c r="R46" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="S46" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="T46" s="55" t="s">
         <v>297</v>
       </c>
-      <c r="U46" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="V46" s="38" t="s">
+      <c r="U46" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="V46" s="58" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="47" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="29" t="s">
+      <c r="B47" s="55" t="s">
         <v>386</v>
       </c>
-      <c r="C47" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="D47" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="E47" s="29" t="s">
+      <c r="C47" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="D47" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="E47" s="55" t="s">
         <v>385</v>
       </c>
-      <c r="F47" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="G47" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="H47" s="29" t="s">
+      <c r="F47" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="G47" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="H47" s="55" t="s">
         <v>384</v>
       </c>
-      <c r="I47" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="J47" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="K47" s="29" t="s">
+      <c r="I47" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="J47" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="K47" s="55" t="s">
         <v>386</v>
       </c>
-      <c r="L47" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="M47" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="N47" s="29" t="s">
+      <c r="L47" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="M47" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="N47" s="55" t="s">
         <v>385</v>
       </c>
-      <c r="O47" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="P47" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q47" s="29" t="s">
+      <c r="O47" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="P47" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q47" s="55" t="s">
         <v>384</v>
       </c>
-      <c r="R47" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="S47" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="T47" s="29" t="s">
+      <c r="R47" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="S47" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="T47" s="55" t="s">
         <v>386</v>
       </c>
-      <c r="U47" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="V47" s="38" t="s">
+      <c r="U47" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="V47" s="58" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="48" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="29" t="s">
+      <c r="B48" s="55" t="s">
         <v>154</v>
       </c>
-      <c r="C48" s="39" t="s">
+      <c r="C48" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="D48" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="E48" s="29" t="s">
+      <c r="D48" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="E48" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="F48" s="39" t="s">
+      <c r="F48" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="G48" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="H48" s="29" t="s">
+      <c r="G48" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="H48" s="55" t="s">
         <v>154</v>
       </c>
-      <c r="I48" s="29" t="s">
+      <c r="I48" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="J48" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="K48" s="29" t="s">
+      <c r="J48" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="K48" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="L48" s="39" t="s">
+      <c r="L48" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="M48" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="N48" s="29" t="s">
+      <c r="M48" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="N48" s="55" t="s">
         <v>154</v>
       </c>
-      <c r="O48" s="39" t="s">
+      <c r="O48" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="P48" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q48" s="29" t="s">
+      <c r="P48" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q48" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="R48" s="39" t="s">
+      <c r="R48" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="S48" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="T48" s="29" t="s">
+      <c r="S48" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="T48" s="55" t="s">
         <v>154</v>
       </c>
-      <c r="U48" s="29" t="s">
+      <c r="U48" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="V48" s="38" t="s">
+      <c r="V48" s="58" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="49" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="34"/>
-      <c r="B49" s="44" t="s">
+      <c r="B49" s="64" t="s">
         <v>283</v>
       </c>
-      <c r="C49" s="29" t="s">
+      <c r="C49" s="55" t="s">
         <v>200</v>
       </c>
-      <c r="D49" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="E49" s="29" t="s">
+      <c r="D49" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="E49" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="F49" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="G49" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="H49" s="29" t="s">
+      <c r="F49" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="G49" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="H49" s="55" t="s">
         <v>359</v>
       </c>
-      <c r="I49" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="J49" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="K49" s="29" t="s">
+      <c r="I49" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="J49" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="K49" s="55" t="s">
         <v>283</v>
       </c>
-      <c r="L49" s="29" t="s">
+      <c r="L49" s="55" t="s">
         <v>200</v>
       </c>
-      <c r="M49" s="38" t="s">
+      <c r="M49" s="58" t="s">
         <v>230</v>
       </c>
-      <c r="N49" s="29" t="s">
+      <c r="N49" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="O49" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="P49" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q49" s="29" t="s">
+      <c r="O49" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="P49" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q49" s="55" t="s">
         <v>359</v>
       </c>
-      <c r="R49" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="S49" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="T49" s="29" t="s">
+      <c r="R49" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="S49" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="T49" s="55" t="s">
         <v>283</v>
       </c>
-      <c r="U49" s="29" t="s">
+      <c r="U49" s="55" t="s">
         <v>200</v>
       </c>
-      <c r="V49" s="38" t="s">
+      <c r="V49" s="58" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="50" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="29" t="s">
+      <c r="B50" s="55" t="s">
         <v>399</v>
       </c>
-      <c r="C50" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="D50" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="E50" s="29" t="s">
+      <c r="C50" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="D50" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="E50" s="55" t="s">
         <v>398</v>
       </c>
-      <c r="F50" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="G50" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="H50" s="29" t="s">
+      <c r="F50" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="G50" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="H50" s="63" t="s">
         <v>402</v>
       </c>
-      <c r="I50" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="J50" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="K50" s="29" t="s">
+      <c r="I50" s="63" t="s">
+        <v>356</v>
+      </c>
+      <c r="J50" s="65" t="s">
+        <v>210</v>
+      </c>
+      <c r="K50" s="55" t="s">
         <v>399</v>
       </c>
-      <c r="L50" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="M50" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="N50" s="29" t="s">
+      <c r="L50" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="M50" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="N50" s="55" t="s">
         <v>398</v>
       </c>
-      <c r="O50" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="P50" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q50" s="29" t="s">
+      <c r="O50" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="P50" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q50" s="63" t="s">
         <v>402</v>
       </c>
-      <c r="R50" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="S50" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="T50" s="29" t="s">
+      <c r="R50" s="63" t="s">
+        <v>356</v>
+      </c>
+      <c r="S50" s="65" t="s">
+        <v>210</v>
+      </c>
+      <c r="T50" s="55" t="s">
         <v>399</v>
       </c>
-      <c r="U50" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="V50" s="38" t="s">
+      <c r="U50" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="V50" s="58" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="51" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="29" t="s">
+      <c r="B51" s="55" t="s">
         <v>378</v>
       </c>
-      <c r="C51" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="D51" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="E51" s="29" t="s">
+      <c r="C51" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="D51" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="E51" s="55" t="s">
         <v>305</v>
       </c>
-      <c r="F51" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="G51" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="H51" s="29" t="s">
+      <c r="F51" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="G51" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="H51" s="55" t="s">
         <v>379</v>
       </c>
-      <c r="I51" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="J51" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="K51" s="29" t="s">
+      <c r="I51" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="J51" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="K51" s="55" t="s">
         <v>378</v>
       </c>
-      <c r="L51" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="M51" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="N51" s="29" t="s">
+      <c r="L51" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="M51" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="N51" s="55" t="s">
         <v>305</v>
       </c>
-      <c r="O51" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="P51" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q51" s="29" t="s">
+      <c r="O51" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="P51" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q51" s="55" t="s">
         <v>379</v>
       </c>
-      <c r="R51" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="S51" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="T51" s="29" t="s">
+      <c r="R51" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="S51" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="T51" s="55" t="s">
         <v>378</v>
       </c>
-      <c r="U51" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="V51" s="38" t="s">
+      <c r="U51" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="V51" s="58" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="52" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="29" t="s">
+      <c r="B52" s="55" t="s">
         <v>381</v>
       </c>
-      <c r="C52" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="D52" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="E52" s="29" t="s">
+      <c r="C52" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="D52" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="E52" s="55" t="s">
         <v>382</v>
       </c>
-      <c r="F52" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="G52" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="H52" s="29" t="s">
+      <c r="F52" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="G52" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="H52" s="55" t="s">
         <v>383</v>
       </c>
-      <c r="I52" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="J52" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="K52" s="29" t="s">
+      <c r="I52" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="J52" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="K52" s="55" t="s">
         <v>381</v>
       </c>
-      <c r="L52" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="M52" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="N52" s="29" t="s">
+      <c r="L52" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="M52" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="N52" s="55" t="s">
         <v>382</v>
       </c>
-      <c r="O52" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="P52" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q52" s="29" t="s">
+      <c r="O52" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="P52" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q52" s="55" t="s">
         <v>383</v>
       </c>
-      <c r="R52" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="S52" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="T52" s="29" t="s">
+      <c r="R52" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="S52" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="T52" s="55" t="s">
         <v>381</v>
       </c>
-      <c r="U52" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="V52" s="38" t="s">
+      <c r="U52" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="V52" s="58" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="53" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="34"/>
-      <c r="B53" s="29" t="s">
+      <c r="B53" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="C53" s="29" t="s">
+      <c r="C53" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="D53" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="E53" s="29" t="s">
+      <c r="D53" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="E53" s="55" t="s">
         <v>374</v>
       </c>
-      <c r="F53" s="29" t="s">
+      <c r="F53" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="G53" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="H53" s="29" t="s">
+      <c r="G53" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="H53" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="I53" s="29" t="s">
+      <c r="I53" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="J53" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="K53" s="29" t="s">
+      <c r="J53" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="K53" s="55" t="s">
         <v>374</v>
       </c>
-      <c r="L53" s="29" t="s">
+      <c r="L53" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="M53" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="N53" s="29" t="s">
+      <c r="M53" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="N53" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="O53" s="29" t="s">
+      <c r="O53" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="P53" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q53" s="29" t="s">
+      <c r="P53" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q53" s="55" t="s">
         <v>374</v>
       </c>
-      <c r="R53" s="29" t="s">
+      <c r="R53" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="S53" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="T53" s="29" t="s">
+      <c r="S53" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="T53" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="U53" s="29" t="s">
+      <c r="U53" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="V53" s="38" t="s">
+      <c r="V53" s="58" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="54" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="29" t="s">
+      <c r="B54" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="C54" s="29" t="s">
+      <c r="C54" s="55" t="s">
         <v>204</v>
       </c>
-      <c r="D54" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="E54" s="29" t="s">
+      <c r="D54" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="E54" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="F54" s="29" t="s">
+      <c r="F54" s="55" t="s">
         <v>204</v>
       </c>
-      <c r="G54" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="H54" s="29" t="s">
+      <c r="G54" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="H54" s="55" t="s">
         <v>253</v>
       </c>
-      <c r="I54" s="29" t="s">
+      <c r="I54" s="55" t="s">
         <v>204</v>
       </c>
-      <c r="J54" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="K54" s="29" t="s">
+      <c r="J54" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="K54" s="55" t="s">
         <v>254</v>
       </c>
-      <c r="L54" s="29" t="s">
+      <c r="L54" s="55" t="s">
         <v>204</v>
       </c>
-      <c r="M54" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="N54" s="29" t="s">
+      <c r="M54" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="N54" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="O54" s="29" t="s">
+      <c r="O54" s="55" t="s">
         <v>204</v>
       </c>
-      <c r="P54" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q54" s="29" t="s">
+      <c r="P54" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q54" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="R54" s="29" t="s">
+      <c r="R54" s="55" t="s">
         <v>204</v>
       </c>
-      <c r="S54" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="T54" s="29" t="s">
+      <c r="S54" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="T54" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="U54" s="29" t="s">
+      <c r="U54" s="55" t="s">
         <v>204</v>
       </c>
-      <c r="V54" s="38" t="s">
+      <c r="V54" s="58" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="55" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="29" t="s">
+      <c r="B55" s="55" t="s">
         <v>360</v>
       </c>
-      <c r="C55" s="29" t="s">
+      <c r="C55" s="55" t="s">
         <v>199</v>
       </c>
-      <c r="D55" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="E55" s="29" t="s">
+      <c r="D55" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="E55" s="55" t="s">
         <v>361</v>
       </c>
-      <c r="F55" s="29" t="s">
+      <c r="F55" s="55" t="s">
         <v>199</v>
       </c>
-      <c r="G55" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="H55" s="29" t="s">
+      <c r="G55" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="H55" s="55" t="s">
         <v>362</v>
       </c>
-      <c r="I55" s="29" t="s">
+      <c r="I55" s="55" t="s">
         <v>199</v>
       </c>
-      <c r="J55" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="K55" s="29" t="s">
+      <c r="J55" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="K55" s="55" t="s">
         <v>360</v>
       </c>
-      <c r="L55" s="29" t="s">
+      <c r="L55" s="55" t="s">
         <v>199</v>
       </c>
-      <c r="M55" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="N55" s="29" t="s">
+      <c r="M55" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="N55" s="55" t="s">
         <v>361</v>
       </c>
-      <c r="O55" s="29" t="s">
+      <c r="O55" s="55" t="s">
         <v>199</v>
       </c>
-      <c r="P55" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q55" s="29" t="s">
+      <c r="P55" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q55" s="55" t="s">
         <v>362</v>
       </c>
-      <c r="R55" s="29" t="s">
+      <c r="R55" s="55" t="s">
         <v>199</v>
       </c>
-      <c r="S55" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="T55" s="29" t="s">
+      <c r="S55" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="T55" s="55" t="s">
         <v>360</v>
       </c>
-      <c r="U55" s="29" t="s">
+      <c r="U55" s="55" t="s">
         <v>199</v>
       </c>
-      <c r="V55" s="38" t="s">
+      <c r="V55" s="58" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="56" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="34"/>
-      <c r="B56" s="29" t="s">
+      <c r="B56" s="55" t="s">
         <v>162</v>
       </c>
-      <c r="C56" s="29" t="s">
+      <c r="C56" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="D56" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="E56" s="29" t="s">
+      <c r="D56" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="E56" s="55" t="s">
         <v>375</v>
       </c>
-      <c r="F56" s="29" t="s">
+      <c r="F56" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="G56" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="H56" s="29" t="s">
+      <c r="G56" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="H56" s="55" t="s">
         <v>162</v>
       </c>
-      <c r="I56" s="29" t="s">
+      <c r="I56" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="J56" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="K56" s="29" t="s">
+      <c r="J56" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="K56" s="55" t="s">
         <v>375</v>
       </c>
-      <c r="L56" s="29" t="s">
+      <c r="L56" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="M56" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="N56" s="29" t="s">
+      <c r="M56" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="N56" s="55" t="s">
         <v>162</v>
       </c>
-      <c r="O56" s="29" t="s">
+      <c r="O56" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="P56" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q56" s="29" t="s">
+      <c r="P56" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q56" s="55" t="s">
         <v>375</v>
       </c>
-      <c r="R56" s="29" t="s">
+      <c r="R56" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="S56" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="T56" s="29" t="s">
+      <c r="S56" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="T56" s="55" t="s">
         <v>162</v>
       </c>
-      <c r="U56" s="29" t="s">
+      <c r="U56" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="V56" s="38" t="s">
+      <c r="V56" s="58" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="57" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="29" t="s">
+      <c r="B57" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="C57" s="29" t="s">
+      <c r="C57" s="55" t="s">
         <v>204</v>
       </c>
-      <c r="D57" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="E57" s="39" t="s">
+      <c r="D57" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="E57" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="F57" s="29" t="s">
+      <c r="F57" s="55" t="s">
         <v>204</v>
       </c>
-      <c r="G57" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="H57" s="29" t="s">
+      <c r="G57" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="H57" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="I57" s="29" t="s">
+      <c r="I57" s="55" t="s">
         <v>204</v>
       </c>
-      <c r="J57" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="K57" s="29" t="s">
+      <c r="J57" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="K57" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="L57" s="29" t="s">
+      <c r="L57" s="55" t="s">
         <v>204</v>
       </c>
-      <c r="M57" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="N57" s="39" t="s">
+      <c r="M57" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="N57" s="56" t="s">
         <v>372</v>
       </c>
-      <c r="O57" s="29" t="s">
+      <c r="O57" s="55" t="s">
         <v>204</v>
       </c>
-      <c r="P57" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q57" s="39" t="s">
+      <c r="P57" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q57" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="R57" s="29" t="s">
+      <c r="R57" s="55" t="s">
         <v>204</v>
       </c>
-      <c r="S57" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="T57" s="39" t="s">
+      <c r="S57" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="T57" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="U57" s="29" t="s">
+      <c r="U57" s="55" t="s">
         <v>204</v>
       </c>
-      <c r="V57" s="38" t="s">
+      <c r="V57" s="58" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="58" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="39" t="s">
+      <c r="B58" s="56" t="s">
         <v>363</v>
       </c>
-      <c r="C58" s="29" t="s">
+      <c r="C58" s="55" t="s">
         <v>202</v>
       </c>
-      <c r="D58" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="E58" s="39" t="s">
+      <c r="D58" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="E58" s="56" t="s">
         <v>363</v>
       </c>
-      <c r="F58" s="29" t="s">
+      <c r="F58" s="55" t="s">
         <v>202</v>
       </c>
-      <c r="G58" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="H58" s="39" t="s">
+      <c r="G58" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="H58" s="56" t="s">
         <v>363</v>
       </c>
-      <c r="I58" s="29" t="s">
+      <c r="I58" s="55" t="s">
         <v>202</v>
       </c>
-      <c r="J58" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="K58" s="39" t="s">
+      <c r="J58" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="K58" s="56" t="s">
         <v>363</v>
       </c>
-      <c r="L58" s="29" t="s">
+      <c r="L58" s="55" t="s">
         <v>202</v>
       </c>
-      <c r="M58" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="N58" s="39" t="s">
+      <c r="M58" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="N58" s="56" t="s">
         <v>363</v>
       </c>
-      <c r="O58" s="29" t="s">
+      <c r="O58" s="55" t="s">
         <v>202</v>
       </c>
-      <c r="P58" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q58" s="39" t="s">
+      <c r="P58" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q58" s="56" t="s">
         <v>363</v>
       </c>
-      <c r="R58" s="29" t="s">
+      <c r="R58" s="55" t="s">
         <v>202</v>
       </c>
-      <c r="S58" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="T58" s="39" t="s">
+      <c r="S58" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="T58" s="56" t="s">
         <v>363</v>
       </c>
-      <c r="U58" s="29" t="s">
+      <c r="U58" s="55" t="s">
         <v>202</v>
       </c>
-      <c r="V58" s="38" t="s">
+      <c r="V58" s="58" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="59" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="29" t="s">
+      <c r="B59" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="C59" s="29" t="s">
+      <c r="C59" s="55" t="s">
         <v>202</v>
       </c>
-      <c r="D59" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="E59" s="29" t="s">
+      <c r="D59" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="E59" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="F59" s="29" t="s">
+      <c r="F59" s="55" t="s">
         <v>202</v>
       </c>
-      <c r="G59" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="H59" s="29" t="s">
+      <c r="G59" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="H59" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="I59" s="29" t="s">
+      <c r="I59" s="55" t="s">
         <v>202</v>
       </c>
-      <c r="J59" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="K59" s="29" t="s">
+      <c r="J59" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="K59" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="L59" s="29" t="s">
+      <c r="L59" s="55" t="s">
         <v>202</v>
       </c>
-      <c r="M59" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="N59" s="29" t="s">
+      <c r="M59" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="N59" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="O59" s="29" t="s">
+      <c r="O59" s="55" t="s">
         <v>202</v>
       </c>
-      <c r="P59" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q59" s="29" t="s">
+      <c r="P59" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q59" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="R59" s="29" t="s">
+      <c r="R59" s="55" t="s">
         <v>202</v>
       </c>
-      <c r="S59" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="T59" s="29" t="s">
+      <c r="S59" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="T59" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="U59" s="29" t="s">
+      <c r="U59" s="55" t="s">
         <v>202</v>
       </c>
-      <c r="V59" s="38" t="s">
+      <c r="V59" s="58" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="60" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="29" t="s">
+      <c r="B60" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="C60" s="29" t="s">
+      <c r="C60" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="D60" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="E60" s="29" t="s">
+      <c r="D60" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="E60" s="55" t="s">
         <v>151</v>
       </c>
-      <c r="F60" s="29" t="s">
+      <c r="F60" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="G60" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="H60" s="29" t="s">
+      <c r="G60" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="H60" s="55" t="s">
         <v>373</v>
       </c>
-      <c r="I60" s="29" t="s">
+      <c r="I60" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="J60" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="K60" s="29" t="s">
+      <c r="J60" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="K60" s="55" t="s">
         <v>164</v>
       </c>
-      <c r="L60" s="29" t="s">
+      <c r="L60" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="M60" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="N60" s="29" t="s">
+      <c r="M60" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="N60" s="55" t="s">
         <v>376</v>
       </c>
-      <c r="O60" s="29" t="s">
+      <c r="O60" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="P60" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q60" s="29" t="s">
+      <c r="P60" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q60" s="55" t="s">
         <v>164</v>
       </c>
-      <c r="R60" s="29" t="s">
+      <c r="R60" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="S60" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="T60" s="29" t="s">
+      <c r="S60" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="T60" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="U60" s="29" t="s">
+      <c r="U60" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="V60" s="38" t="s">
+      <c r="V60" s="58" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="61" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="29" t="s">
+      <c r="B61" s="55" t="s">
         <v>390</v>
       </c>
-      <c r="C61" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="D61" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="E61" s="29" t="s">
+      <c r="C61" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="D61" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="E61" s="55" t="s">
         <v>391</v>
       </c>
-      <c r="F61" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="G61" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="H61" s="29" t="s">
+      <c r="F61" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="G61" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="H61" s="55" t="s">
         <v>392</v>
       </c>
-      <c r="I61" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="J61" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="K61" s="29" t="s">
+      <c r="I61" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="J61" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="K61" s="55" t="s">
         <v>390</v>
       </c>
-      <c r="L61" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="M61" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="N61" s="29" t="s">
+      <c r="L61" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="M61" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="N61" s="55" t="s">
         <v>391</v>
       </c>
-      <c r="O61" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="P61" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q61" s="29" t="s">
+      <c r="O61" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="P61" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q61" s="55" t="s">
         <v>392</v>
       </c>
-      <c r="R61" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="S61" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="T61" s="29" t="s">
+      <c r="R61" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="S61" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="T61" s="55" t="s">
         <v>390</v>
       </c>
-      <c r="U61" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="V61" s="38" t="s">
+      <c r="U61" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="V61" s="58" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="62" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="29" t="s">
+      <c r="B62" s="63" t="s">
         <v>405</v>
       </c>
-      <c r="C62" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="D62" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="E62" s="29" t="s">
+      <c r="C62" s="63" t="s">
+        <v>356</v>
+      </c>
+      <c r="D62" s="65" t="s">
+        <v>210</v>
+      </c>
+      <c r="E62" s="55" t="s">
         <v>406</v>
       </c>
-      <c r="F62" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="G62" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="H62" s="29" t="s">
+      <c r="F62" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="G62" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="H62" s="55" t="s">
         <v>395</v>
       </c>
-      <c r="I62" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="J62" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="K62" s="29" t="s">
+      <c r="I62" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="J62" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="K62" s="63" t="s">
         <v>405</v>
       </c>
-      <c r="L62" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="M62" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="N62" s="29" t="s">
+      <c r="L62" s="63" t="s">
+        <v>356</v>
+      </c>
+      <c r="M62" s="65" t="s">
+        <v>210</v>
+      </c>
+      <c r="N62" s="55" t="s">
         <v>406</v>
       </c>
-      <c r="O62" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="P62" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q62" s="29" t="s">
+      <c r="O62" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="P62" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q62" s="55" t="s">
         <v>395</v>
       </c>
-      <c r="R62" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="S62" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="T62" s="29" t="s">
+      <c r="R62" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="S62" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="T62" s="63" t="s">
         <v>405</v>
       </c>
-      <c r="U62" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="V62" s="38" t="s">
+      <c r="U62" s="63" t="s">
+        <v>356</v>
+      </c>
+      <c r="V62" s="65" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="63" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="29" t="s">
+      <c r="B63" s="55" t="s">
         <v>389</v>
       </c>
-      <c r="C63" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="D63" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="E63" s="29" t="s">
+      <c r="C63" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="D63" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="E63" s="55" t="s">
         <v>388</v>
       </c>
-      <c r="F63" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="G63" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="H63" s="29" t="s">
+      <c r="F63" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="G63" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="H63" s="55" t="s">
         <v>387</v>
       </c>
-      <c r="I63" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="J63" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="K63" s="29" t="s">
+      <c r="I63" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="J63" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="K63" s="55" t="s">
         <v>389</v>
       </c>
-      <c r="L63" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="M63" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="N63" s="29" t="s">
+      <c r="L63" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="M63" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="N63" s="55" t="s">
         <v>388</v>
       </c>
-      <c r="O63" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="P63" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q63" s="29" t="s">
+      <c r="O63" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="P63" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q63" s="55" t="s">
         <v>387</v>
       </c>
-      <c r="R63" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="S63" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="T63" s="29" t="s">
+      <c r="R63" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="S63" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="T63" s="55" t="s">
         <v>389</v>
       </c>
-      <c r="U63" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="V63" s="38" t="s">
+      <c r="U63" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="V63" s="58" t="s">
         <v>210</v>
       </c>
     </row>
